--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.24514553878474</v>
+        <v>26.9464916652924</v>
       </c>
       <c r="D2" t="n">
-        <v>1.118041867986129</v>
+        <v>1.057110669237489</v>
       </c>
       <c r="E2" t="n">
-        <v>1.19528668288183</v>
+        <v>1.138596320246007</v>
       </c>
       <c r="F2" t="n">
-        <v>2.827565930388457</v>
+        <v>2.693459409947732</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.4123004297285</v>
+        <v>52.89685454779141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.512880904314692</v>
+        <v>2.479535663172557</v>
       </c>
       <c r="E3" t="n">
-        <v>2.548191364628195</v>
+        <v>2.515399375155054</v>
       </c>
       <c r="F3" t="n">
-        <v>6.027992438902697</v>
+        <v>5.950419825109027</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.77026866029364</v>
+        <v>54.64509723651292</v>
       </c>
       <c r="D4" t="n">
-        <v>2.601921860454063</v>
+        <v>2.593666124369082</v>
       </c>
       <c r="E4" t="n">
-        <v>2.636040287544751</v>
+        <v>2.627976450656768</v>
       </c>
       <c r="F4" t="n">
-        <v>6.235807538842812</v>
+        <v>6.216731754949949</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.02055222735093</v>
+        <v>54.99227308962364</v>
       </c>
       <c r="D5" t="n">
-        <v>2.618515186039433</v>
+        <v>2.616659009112355</v>
       </c>
       <c r="E5" t="n">
-        <v>2.652420279537848</v>
+        <v>2.650672586064801</v>
       </c>
       <c r="F5" t="n">
-        <v>6.274555989706542</v>
+        <v>6.270421652235939</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24.06402383648357</v>
+        <v>22.78584368889937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9499821018088948</v>
+        <v>0.8908172757336588</v>
       </c>
       <c r="E6" t="n">
-        <v>1.069463275492669</v>
+        <v>1.017738020910685</v>
       </c>
       <c r="F6" t="n">
-        <v>2.175305146264772</v>
+        <v>2.070095163778735</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.217845799829</v>
+        <v>49.6853344118645</v>
       </c>
       <c r="D7" t="n">
-        <v>2.383948676333283</v>
+        <v>2.349831320119627</v>
       </c>
       <c r="E7" t="n">
-        <v>2.433999718595711</v>
+        <v>2.400891496739835</v>
       </c>
       <c r="F7" t="n">
-        <v>4.950793762814488</v>
+        <v>4.883451118109288</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51.61766707427338</v>
+        <v>51.48422325552791</v>
       </c>
       <c r="D8" t="n">
-        <v>2.474993647047968</v>
+        <v>2.466315060492718</v>
       </c>
       <c r="E8" t="n">
-        <v>2.523236267090789</v>
+        <v>2.515017643449494</v>
       </c>
       <c r="F8" t="n">
-        <v>5.132302307917943</v>
+        <v>5.115585497989255</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.87294401152551</v>
+        <v>51.83818901565934</v>
       </c>
       <c r="D9" t="n">
-        <v>2.491782943227074</v>
+        <v>2.489569413120096</v>
       </c>
       <c r="E9" t="n">
-        <v>2.539706006877508</v>
+        <v>2.537827194410691</v>
       </c>
       <c r="F9" t="n">
-        <v>5.165802018040468</v>
+        <v>5.161980483891902</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.3227338324916</v>
+        <v>20.18103676662097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8343529606436854</v>
+        <v>0.7837186918019731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8980578633234128</v>
+        <v>0.8514905754154591</v>
       </c>
       <c r="F10" t="n">
-        <v>2.704429338576773</v>
+        <v>2.56419568016843</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51.05655574137354</v>
+        <v>50.49603144128314</v>
       </c>
       <c r="D11" t="n">
-        <v>2.427880442869689</v>
+        <v>2.392036677835294</v>
       </c>
       <c r="E11" t="n">
-        <v>2.450516188699637</v>
+        <v>2.415189076520853</v>
       </c>
       <c r="F11" t="n">
-        <v>7.379533263983011</v>
+        <v>7.273148494665436</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.58626828127071</v>
+        <v>52.44995517608768</v>
       </c>
       <c r="D12" t="n">
-        <v>2.527274524334469</v>
+        <v>2.518403274431208</v>
       </c>
       <c r="E12" t="n">
-        <v>2.549028339210078</v>
+        <v>2.540410715708396</v>
       </c>
       <c r="F12" t="n">
-        <v>7.676194716354017</v>
+        <v>7.650243433281331</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.85364240552768</v>
+        <v>52.82057173350066</v>
       </c>
       <c r="D13" t="n">
-        <v>2.544859758259684</v>
+        <v>2.542751461721973</v>
       </c>
       <c r="E13" t="n">
-        <v>2.566464575465665</v>
+        <v>2.564551814053901</v>
       </c>
       <c r="F13" t="n">
-        <v>7.728702545537161</v>
+        <v>7.722942417720311</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -830,16 +830,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.72709716967191</v>
+        <v>24.47072346435098</v>
       </c>
       <c r="D14" t="n">
-        <v>1.013445159669228</v>
+        <v>0.9553974573915643</v>
       </c>
       <c r="E14" t="n">
-        <v>1.103059029488908</v>
+        <v>1.050135020732959</v>
       </c>
       <c r="F14" t="n">
-        <v>2.521611345428632</v>
+        <v>2.400626178400536</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.10545937043121</v>
+        <v>51.58456983774288</v>
       </c>
       <c r="D15" t="n">
-        <v>2.461128950843734</v>
+        <v>2.427588178148123</v>
       </c>
       <c r="E15" t="n">
-        <v>2.499648075539375</v>
+        <v>2.466729359565367</v>
       </c>
       <c r="F15" t="n">
-        <v>5.714237206126165</v>
+        <v>5.638984472176411</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.51000428728901</v>
+        <v>53.38915168820341</v>
       </c>
       <c r="D16" t="n">
-        <v>2.552871558642623</v>
+        <v>2.544950221431404</v>
       </c>
       <c r="E16" t="n">
-        <v>2.590043412648948</v>
+        <v>2.582336753218866</v>
       </c>
       <c r="F16" t="n">
-        <v>5.920882454961995</v>
+        <v>5.903264902922869</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -917,16 +917,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.7651534213139</v>
+        <v>53.74307194157476</v>
       </c>
       <c r="D17" t="n">
-        <v>2.56972676849093</v>
+        <v>2.568307824668111</v>
       </c>
       <c r="E17" t="n">
-        <v>2.606659923895361</v>
+        <v>2.605362484671343</v>
       </c>
       <c r="F17" t="n">
-        <v>5.958868076909908</v>
+        <v>5.955902109196645</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -946,14 +946,14 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32.62291290628836</v>
+        <v>31.83077919754895</v>
       </c>
       <c r="D18" t="n">
-        <v>1.331970912855881</v>
+        <v>1.293073503525696</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.4636203463995443</v>
+        <v>0.453675854312317</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>98.36434641826557</v>
+        <v>98.26081082286228</v>
       </c>
       <c r="D19" t="n">
-        <v>6.730999999748287</v>
+        <v>6.717877887654583</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>2.035537683129628</v>
+        <v>2.032628719086039</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>124.2998622540721</v>
+        <v>124.827413530305</v>
       </c>
       <c r="D20" t="n">
-        <v>11.44465608295952</v>
+        <v>11.57559551992962</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>3.424074457221901</v>
+        <v>3.463902903545787</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1027,14 +1027,14 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>141.6508226598544</v>
+        <v>142.9636233206338</v>
       </c>
       <c r="D21" t="n">
-        <v>16.93983666257595</v>
+        <v>17.49340880234705</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>5.045078000432514</v>
+        <v>5.20994542731193</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1054,14 +1054,14 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28.11499696404787</v>
+        <v>27.47354758893784</v>
       </c>
       <c r="D22" t="n">
-        <v>1.144873462120692</v>
+        <v>1.11379615519986</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.4262027421667934</v>
+        <v>0.4161063110238452</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1081,14 +1081,14 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95.34564387458644</v>
+        <v>95.36811186456569</v>
       </c>
       <c r="D23" t="n">
-        <v>6.5524301173109</v>
+        <v>6.555108843969577</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1.948854517206779</v>
+        <v>1.947037319738204</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1108,14 +1108,14 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>121.9945251273074</v>
+        <v>122.6386744190469</v>
       </c>
       <c r="D24" t="n">
-        <v>11.28091551950484</v>
+        <v>11.43472136204893</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3.304415840341603</v>
+        <v>3.345024049367051</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1135,14 +1135,14 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>139.8594689186407</v>
+        <v>141.292490455585</v>
       </c>
       <c r="D25" t="n">
-        <v>16.79975458401622</v>
+        <v>17.38626927661173</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>4.889063889556666</v>
+        <v>5.052725200109398</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1162,14 +1162,14 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24.30266532643418</v>
+        <v>23.81760647954354</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9709081336823425</v>
+        <v>0.9490210712605314</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.3160884641393743</v>
+        <v>0.3088981314803057</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1189,14 +1189,14 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>94.82153546530299</v>
+        <v>94.96779976858667</v>
       </c>
       <c r="D27" t="n">
-        <v>6.418505864854992</v>
+        <v>6.437960546650399</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1.850053620639667</v>
+        <v>1.853956528099332</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>122.230808321591</v>
+        <v>122.9719213153022</v>
       </c>
       <c r="D28" t="n">
-        <v>11.20498377656105</v>
+        <v>11.38219596812408</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.210124691579917</v>
+        <v>3.258251390680577</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1243,14 +1243,14 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>140.4000861529645</v>
+        <v>141.9094854232939</v>
       </c>
       <c r="D29" t="n">
-        <v>16.80586087145317</v>
+        <v>17.42891516392007</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>4.802541798699492</v>
+        <v>4.976646159206503</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1270,14 +1270,14 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29.68099005030098</v>
+        <v>28.92584619578472</v>
       </c>
       <c r="D30" t="n">
-        <v>1.203288231307461</v>
+        <v>1.167036162095237</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.425837205765535</v>
+        <v>0.4168510221114</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>96.82376489017268</v>
+        <v>96.74724355603831</v>
       </c>
       <c r="D31" t="n">
-        <v>6.614298746823282</v>
+        <v>6.605463032594451</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1.977817425883728</v>
+        <v>1.976204500159876</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1324,14 +1324,14 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>123.2561479920508</v>
+        <v>123.810324391863</v>
       </c>
       <c r="D32" t="n">
-        <v>11.34631154339929</v>
+        <v>11.48290257065215</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>3.353652425328687</v>
+        <v>3.394652245623142</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>140.9118753949379</v>
+        <v>142.2574892519528</v>
       </c>
       <c r="D33" t="n">
-        <v>16.86768665481908</v>
+        <v>17.43021909540837</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>4.961065316629729</v>
+        <v>5.126467639703429</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1810,14 +1810,14 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>102.7667962848131</v>
+        <v>79.02976696752471</v>
       </c>
       <c r="D50" t="n">
-        <v>2.377119371916373</v>
+        <v>1.985299094888235</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>0.6788504639255427</v>
+        <v>0.5664930615377446</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1837,14 +1837,14 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>123.9279873792142</v>
+        <v>101.2514314052992</v>
       </c>
       <c r="D51" t="n">
-        <v>2.67847468480013</v>
+        <v>2.354573679820235</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>0.765146468530014</v>
+        <v>0.6722061724381873</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1864,14 +1864,14 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>90.11346135260351</v>
+        <v>87.78423185416922</v>
       </c>
       <c r="D52" t="n">
-        <v>2.176541753280097</v>
+        <v>2.138087472299254</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>0.6212428921623736</v>
+        <v>0.6100912855187155</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>71.8919017024858</v>
+        <v>88.91153870859819</v>
       </c>
       <c r="D53" t="n">
-        <v>1.853893026572526</v>
+        <v>2.156392641824059</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>0.5288754272822047</v>
+        <v>0.6155077892310695</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1918,14 +1918,14 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>103.2517535827543</v>
+        <v>79.62917646346402</v>
       </c>
       <c r="D54" t="n">
-        <v>2.471760613990552</v>
+        <v>2.069622162074754</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>0.6809630321382943</v>
+        <v>0.5695752203552239</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1945,14 +1945,14 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>124.4401078525256</v>
+        <v>101.8537007995334</v>
       </c>
       <c r="D55" t="n">
-        <v>2.783324848341219</v>
+        <v>2.450549765247287</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>0.7670923363596501</v>
+        <v>0.6748554404003888</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>90.70090774085993</v>
+        <v>88.45240414204065</v>
       </c>
       <c r="D56" t="n">
-        <v>2.266639360695174</v>
+        <v>2.228525292150902</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0.6240329441061505</v>
+        <v>0.6133166794186394</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1999,14 +1999,14 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>72.461716475467</v>
+        <v>89.47888131562183</v>
       </c>
       <c r="D57" t="n">
-        <v>1.933503980347604</v>
+        <v>2.245468583793351</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>0.5319663015700058</v>
+        <v>0.618225343787714</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2026,14 +2026,14 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>103.1820314451952</v>
+        <v>79.47778140084493</v>
       </c>
       <c r="D58" t="n">
-        <v>2.432454861586909</v>
+        <v>2.033600676423324</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>0.6806598033666497</v>
+        <v>0.5687740004155546</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2053,14 +2053,14 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>124.3532938200887</v>
+        <v>101.73500320748</v>
       </c>
       <c r="D59" t="n">
-        <v>2.739766036503196</v>
+        <v>2.410286660417752</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>0.7667713210385261</v>
+        <v>0.6743329941552901</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2080,14 +2080,14 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>90.57979737357464</v>
+        <v>88.29770008291746</v>
       </c>
       <c r="D60" t="n">
-        <v>2.228676323147901</v>
+        <v>2.190111937216424</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>0.6234474577039115</v>
+        <v>0.6125545422149609</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>72.33486524794569</v>
+        <v>89.36412544858293</v>
       </c>
       <c r="D61" t="n">
-        <v>1.899615403224181</v>
+        <v>2.207970908394566</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>0.5312420211845297</v>
+        <v>0.6176647145663834</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2134,14 +2134,14 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>102.9707806715459</v>
+        <v>79.27278826493161</v>
       </c>
       <c r="D62" t="n">
-        <v>2.413340119912788</v>
+        <v>2.017431169839348</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>0.6797398722688553</v>
+        <v>0.567741289970138</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2161,14 +2161,14 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>124.1415563953151</v>
+        <v>101.5002775602544</v>
       </c>
       <c r="D63" t="n">
-        <v>2.718600716532911</v>
+        <v>2.391249039512158</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>0.7659597400592686</v>
+        <v>0.6733019032242237</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>90.35543828630169</v>
+        <v>88.05709453117294</v>
       </c>
       <c r="D64" t="n">
-        <v>2.210947592364723</v>
+        <v>2.172580377119848</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>0.6223920862368003</v>
+        <v>0.6114081422832657</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2215,14 +2215,14 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>72.12530708345218</v>
+        <v>89.14554311693347</v>
       </c>
       <c r="D65" t="n">
-        <v>1.884246255015482</v>
+        <v>2.190413203534966</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>0.5301383974175201</v>
+        <v>0.616628448361092</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_13D59B629D837607FB7B3B11595ED87656CD56DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3354ACE-0B10-4E45-B646-893BD198D8A6}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_537D7A649DA37B73FB7B2E11595ED87656CD6DBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1F36C3-C82C-4316-97C6-569E99235F1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="21">
   <si>
     <t>Horizonte</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Treinamento</t>
   </si>
   <si>
-    <t>LSTM</t>
+    <t>Prophet</t>
   </si>
   <si>
     <t>7 dias à frente</t>
@@ -67,16 +67,22 @@
     <t>Todos os Dados</t>
   </si>
   <si>
-    <t>GRU</t>
+    <t>Transformer</t>
   </si>
   <si>
-    <t>Prophet</t>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>CNN</t>
   </si>
   <si>
     <t>RNN</t>
   </si>
   <si>
-    <t>Transformer</t>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>GRU</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65:J76"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +481,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>25.4877475736787</v>
+        <v>2.0086359866780819</v>
       </c>
       <c r="D2">
-        <v>0.98972051048932952</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="E2">
-        <v>2.5459526708552271</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -496,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>35.841194631720498</v>
+        <v>3.4348747508731621</v>
       </c>
       <c r="D3">
-        <v>1.4938587911618351</v>
+        <v>0.1334085280152677</v>
       </c>
       <c r="E3">
-        <v>3.6726719925672162</v>
+        <v>0.1497831459172379</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -516,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>36.246528880271157</v>
+        <v>9.49424069284699</v>
       </c>
       <c r="D4">
-        <v>1.5148957840049899</v>
+        <v>0.33780402021367201</v>
       </c>
       <c r="E4">
-        <v>3.720578690131481</v>
+        <v>0.48818948030216791</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -536,13 +541,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>35.381392078133999</v>
+        <v>8.4535169057680584</v>
       </c>
       <c r="D5">
-        <v>1.4701203011240569</v>
+        <v>0.3078436535497629</v>
       </c>
       <c r="E5">
-        <v>3.6186663659276528</v>
+        <v>0.38896419915061198</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -556,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>21.614146300091811</v>
+        <v>2.0086359866780819</v>
       </c>
       <c r="D6">
-        <v>0.83725625872611997</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="E6">
-        <v>1.974855957017208</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -576,13 +581,13 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>32.564213285102127</v>
+        <v>3.4348747508731621</v>
       </c>
       <c r="D7">
-        <v>1.366733677278865</v>
+        <v>0.1334085280152677</v>
       </c>
       <c r="E7">
-        <v>2.9543105454945731</v>
+        <v>0.1497831459172379</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -596,13 +601,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>32.987993274064799</v>
+        <v>9.49424069284699</v>
       </c>
       <c r="D8">
-        <v>1.388625362244519</v>
+        <v>0.33780402021367201</v>
       </c>
       <c r="E8">
-        <v>2.9962437027471518</v>
+        <v>0.48818948030216791</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -616,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>32.119928963027853</v>
+        <v>8.4535169057680584</v>
       </c>
       <c r="D9">
-        <v>1.3439014411333841</v>
+        <v>0.3078436535497629</v>
       </c>
       <c r="E9">
-        <v>2.9106448182732572</v>
+        <v>0.38896419915061198</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -636,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>19.954215495256189</v>
+        <v>2.0086359866780819</v>
       </c>
       <c r="D10">
-        <v>0.77368168724388353</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="E10">
-        <v>2.5354917243338608</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -656,13 +661,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>33.450837555503682</v>
+        <v>3.4348747508731621</v>
       </c>
       <c r="D11">
-        <v>1.41550554000734</v>
+        <v>0.1334085280152677</v>
       </c>
       <c r="E11">
-        <v>4.3784753540886054</v>
+        <v>0.1497831459172379</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -676,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>33.941936479925189</v>
+        <v>9.49424069284699</v>
       </c>
       <c r="D12">
-        <v>1.440829912691594</v>
+        <v>0.33780402021367201</v>
       </c>
       <c r="E12">
-        <v>4.4527541774643433</v>
+        <v>0.48818948030216791</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -696,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>33.076794196092088</v>
+        <v>8.4535169057680584</v>
       </c>
       <c r="D13">
-        <v>1.3963174756316059</v>
+        <v>0.3078436535497629</v>
       </c>
       <c r="E13">
-        <v>4.3222383459506162</v>
+        <v>0.38896419915061198</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -716,13 +721,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>23.382535631072962</v>
+        <v>2.0086359866780819</v>
       </c>
       <c r="D14">
-        <v>0.90573894788998877</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="E14">
-        <v>2.298196923294924</v>
+        <v>7.5089011268980155E-2</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -736,13 +741,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>34.515818900749309</v>
+        <v>3.4348747508731621</v>
       </c>
       <c r="D15">
-        <v>1.444381315197276</v>
+        <v>0.1334085280152677</v>
       </c>
       <c r="E15">
-        <v>3.4499669711026959</v>
+        <v>0.1497831459172379</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -756,13 +761,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>34.944182179871042</v>
+        <v>9.49424069284699</v>
       </c>
       <c r="D16">
-        <v>1.466562595970327</v>
+        <v>0.33780402021367201</v>
       </c>
       <c r="E16">
-        <v>3.498554505909218</v>
+        <v>0.48818948030216791</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -776,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>34.078394004517861</v>
+        <v>8.4535169057680584</v>
       </c>
       <c r="D17">
-        <v>1.421851266764264</v>
+        <v>0.3078436535497629</v>
       </c>
       <c r="E17">
-        <v>3.4007352393292751</v>
+        <v>0.38896419915061198</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -796,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>30.171543846604681</v>
+        <v>9.1956934672613766</v>
       </c>
       <c r="D18">
-        <v>1.2106769799271451</v>
+        <v>0.30839706942081502</v>
       </c>
       <c r="E18">
-        <v>0.42911135377754722</v>
+        <v>0.1808813773970718</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -816,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>84.92706044356683</v>
+        <v>9.1928605245504809</v>
       </c>
       <c r="D19">
-        <v>5.1229030322347224</v>
+        <v>0.30829004657476522</v>
       </c>
       <c r="E19">
-        <v>1.5619123213010659</v>
+        <v>0.18077775984369979</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -836,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>99.914979896611555</v>
+        <v>9.1903463684195419</v>
       </c>
       <c r="D20">
-        <v>6.9414031340927389</v>
+        <v>0.30819499239972697</v>
       </c>
       <c r="E20">
-        <v>2.096411120958722</v>
+        <v>0.1806828401025182</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -856,13 +861,13 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>97.807747527923269</v>
+        <v>9.1958954238711055</v>
       </c>
       <c r="D21">
-        <v>6.653940428203633</v>
+        <v>0.30840469337022369</v>
       </c>
       <c r="E21">
-        <v>2.011968226828392</v>
+        <v>0.1808885595074087</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -876,13 +881,13 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>25.863492714208721</v>
+        <v>10.95295493121561</v>
       </c>
       <c r="D22">
-        <v>1.035426553632274</v>
+        <v>0.38029005979799257</v>
       </c>
       <c r="E22">
-        <v>0.39779153867745531</v>
+        <v>0.19192772624470469</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -896,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>81.894848720392005</v>
+        <v>10.95595545397064</v>
       </c>
       <c r="D23">
-        <v>4.9755652360843889</v>
+        <v>0.38039746953531939</v>
       </c>
       <c r="E23">
-        <v>1.4983907645471579</v>
+        <v>0.1918568928406367</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -916,13 +921,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>97.304977408330515</v>
+        <v>10.95870862203568</v>
       </c>
       <c r="D24">
-        <v>6.814910361802939</v>
+        <v>0.38049601299142588</v>
       </c>
       <c r="E24">
-        <v>2.0242810266289601</v>
+        <v>0.19179205946181491</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -936,13 +941,13 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>95.244193703856752</v>
+        <v>10.95274714384397</v>
       </c>
       <c r="D25">
-        <v>6.5380695478482682</v>
+        <v>0.38028262113832462</v>
       </c>
       <c r="E25">
-        <v>1.945265193824008</v>
+        <v>0.19193263824613521</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -956,13 +961,13 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>22.354842051584061</v>
+        <v>7.3182611841467669</v>
       </c>
       <c r="D26">
-        <v>0.88134745665884762</v>
+        <v>0.25571716143414858</v>
       </c>
       <c r="E26">
-        <v>0.29180189938486861</v>
+        <v>0.11436787968388649</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -976,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>81.766107169295196</v>
+        <v>7.3176896687384332</v>
       </c>
       <c r="D27">
-        <v>4.9180064449383032</v>
+        <v>0.25569488565906201</v>
       </c>
       <c r="E27">
-        <v>1.423886025651552</v>
+        <v>0.1142874281248339</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -996,13 +1001,13 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>97.960952674423226</v>
+        <v>7.317165125809078</v>
       </c>
       <c r="D28">
-        <v>6.8346199427035383</v>
+        <v>0.25567444866778799</v>
       </c>
       <c r="E28">
-        <v>1.967845047331209</v>
+        <v>0.1142138569813668</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -1016,13 +1021,13 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>96.241307176217248</v>
+        <v>7.3183007558514079</v>
       </c>
       <c r="D29">
-        <v>6.6030004817935639</v>
+        <v>0.25571870414260173</v>
       </c>
       <c r="E29">
-        <v>1.902040856045591</v>
+        <v>0.11437346142005141</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -1036,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <v>27.408678225867821</v>
+        <v>9.4627091094040416</v>
       </c>
       <c r="D30">
-        <v>1.0930747431846179</v>
+        <v>0.32268964323697252</v>
       </c>
       <c r="E30">
-        <v>0.39581988007487939</v>
+        <v>0.17668217468484149</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -1056,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>83.484696874438697</v>
+        <v>9.4619482852889938</v>
       </c>
       <c r="D31">
-        <v>5.0403388654514574</v>
+        <v>0.32265901551352461</v>
       </c>
       <c r="E31">
-        <v>1.5211286853077639</v>
+        <v>0.1765924065763057</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -1076,13 +1081,13 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>98.840113574868766</v>
+        <v>9.4612978406585242</v>
       </c>
       <c r="D32">
-        <v>6.8860441423096548</v>
+        <v>0.32263266904596238</v>
       </c>
       <c r="E32">
-        <v>2.0566492682013502</v>
+        <v>0.17651020474115051</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -1096,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>96.830954763248684</v>
+        <v>9.4627650254988716</v>
       </c>
       <c r="D33">
-        <v>6.613782413104043</v>
+        <v>0.32269188297939078</v>
       </c>
       <c r="E33">
-        <v>1.9777303609239301</v>
+        <v>0.17668839814413709</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -1116,13 +1121,13 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>2.0086359866780819</v>
+        <v>11.049108784223041</v>
       </c>
       <c r="D34">
-        <v>7.5089011268980155E-2</v>
+        <v>0.3712818959999426</v>
       </c>
       <c r="E34">
-        <v>7.5089011268980155E-2</v>
+        <v>0.15499150503024781</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1136,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>3.4348747508731621</v>
+        <v>9.2052511584216035</v>
       </c>
       <c r="D35">
-        <v>0.1334085280152677</v>
+        <v>0.30823432637603382</v>
       </c>
       <c r="E35">
-        <v>0.1497831459172379</v>
+        <v>0.16686960953898219</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1156,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>9.49424069284699</v>
+        <v>10.917860255557381</v>
       </c>
       <c r="D36">
-        <v>0.33780402021367201</v>
+        <v>0.36687470702784603</v>
       </c>
       <c r="E36">
-        <v>0.48818948030216791</v>
+        <v>0.15506726414072231</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1176,13 +1181,13 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>8.4535169057680584</v>
+        <v>9.8237219928966795</v>
       </c>
       <c r="D37">
-        <v>0.3078436535497629</v>
+        <v>0.33218691454827542</v>
       </c>
       <c r="E37">
-        <v>0.38896419915061198</v>
+        <v>0.1955223043368968</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -1196,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>2.0086359866780819</v>
+        <v>12.14898480750391</v>
       </c>
       <c r="D38">
-        <v>7.5089011268980155E-2</v>
+        <v>0.42254626230910558</v>
       </c>
       <c r="E38">
-        <v>7.5089011268980155E-2</v>
+        <v>0.17999549327239051</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1216,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>3.4348747508731621</v>
+        <v>10.73065828069994</v>
       </c>
       <c r="D39">
-        <v>0.1334085280152677</v>
+        <v>0.37241227320498888</v>
       </c>
       <c r="E39">
-        <v>0.1497831459172379</v>
+        <v>0.20117945328004749</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1236,13 +1241,13 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>9.49424069284699</v>
+        <v>13.99413329835668</v>
       </c>
       <c r="D40">
-        <v>0.33780402021367201</v>
+        <v>0.4856257162687152</v>
       </c>
       <c r="E40">
-        <v>0.48818948030216791</v>
+        <v>0.18016563447495579</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -1256,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>8.4535169057680584</v>
+        <v>12.284939341599451</v>
       </c>
       <c r="D41">
-        <v>0.3078436535497629</v>
+        <v>0.42727307036820089</v>
       </c>
       <c r="E41">
-        <v>0.38896419915061198</v>
+        <v>0.1796219985084857</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -1276,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>2.0086359866780819</v>
+        <v>9.3048629727126659</v>
       </c>
       <c r="D42">
-        <v>7.5089011268980155E-2</v>
+        <v>0.32450159462189099</v>
       </c>
       <c r="E42">
-        <v>7.5089011268980155E-2</v>
+        <v>0.10861422956990539</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -1296,13 +1301,13 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>3.4348747508731621</v>
+        <v>11.901406236466689</v>
       </c>
       <c r="D43">
-        <v>0.1334085280152677</v>
+        <v>0.41090361543470483</v>
       </c>
       <c r="E43">
-        <v>0.1497831459172379</v>
+        <v>0.1254401180080631</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -1316,13 +1321,13 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>9.49424069284699</v>
+        <v>10.71897084919781</v>
       </c>
       <c r="D44">
-        <v>0.33780402021367201</v>
+        <v>0.37195997183618978</v>
       </c>
       <c r="E44">
-        <v>0.48818948030216791</v>
+        <v>0.1170847246756868</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -1336,13 +1341,13 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <v>8.4535169057680584</v>
+        <v>11.151938964077321</v>
       </c>
       <c r="D45">
-        <v>0.3078436535497629</v>
+        <v>0.38629314050175778</v>
       </c>
       <c r="E45">
-        <v>0.38896419915061198</v>
+        <v>0.119984949168019</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -1356,13 +1361,13 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>2.0086359866780819</v>
+        <v>11.726145332666579</v>
       </c>
       <c r="D46">
-        <v>7.5089011268980155E-2</v>
+        <v>0.40032834576260973</v>
       </c>
       <c r="E46">
-        <v>7.5089011268980155E-2</v>
+        <v>0.15784441268629651</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -1376,13 +1381,13 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>3.4348747508731621</v>
+        <v>9.6801457410580714</v>
       </c>
       <c r="D47">
-        <v>0.1334085280152677</v>
+        <v>0.33012999531936998</v>
       </c>
       <c r="E47">
-        <v>0.1497831459172379</v>
+        <v>0.16498196116077599</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -1396,13 +1401,13 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>9.49424069284699</v>
+        <v>11.58439419581347</v>
       </c>
       <c r="D48">
-        <v>0.33780402021367201</v>
+        <v>0.39555911304029773</v>
       </c>
       <c r="E48">
-        <v>0.48818948030216791</v>
+        <v>0.1576925169367043</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -1416,13 +1421,13 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>8.4535169057680584</v>
+        <v>9.7987300281718319</v>
       </c>
       <c r="D49">
-        <v>0.3078436535497629</v>
+        <v>0.33559021796346239</v>
       </c>
       <c r="E49">
-        <v>0.38896419915061198</v>
+        <v>0.189650543704456</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -1436,13 +1441,13 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.34061234845880789</v>
+        <v>11.049108784223041</v>
       </c>
       <c r="D50">
-        <v>1.183169707381466E-2</v>
+        <v>0.3712818959999426</v>
       </c>
       <c r="E50">
-        <v>3.5096058001189128E-3</v>
+        <v>0.15499150503024781</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -1456,13 +1461,13 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>8.474134778119928E-2</v>
+        <v>9.2052511584216035</v>
       </c>
       <c r="D51">
-        <v>2.912894417301806E-3</v>
+        <v>0.30823432637603382</v>
       </c>
       <c r="E51">
-        <v>1.0421535811107781E-3</v>
+        <v>0.16686960953898219</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -1476,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>0.14171817301689321</v>
+        <v>10.917860255557381</v>
       </c>
       <c r="D52">
-        <v>4.8836115400376938E-3</v>
+        <v>0.36687470702784603</v>
       </c>
       <c r="E52">
-        <v>1.5062018337598331E-3</v>
+        <v>0.15506726414072231</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -1496,13 +1501,13 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>9.1830168631540407E-2</v>
+        <v>9.8237219928966795</v>
       </c>
       <c r="D53">
-        <v>3.1053104149826581E-3</v>
+        <v>0.33218691454827542</v>
       </c>
       <c r="E53">
-        <v>1.097429930698953E-3</v>
+        <v>0.1955223043368968</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -1516,13 +1521,13 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>0.31693701887521891</v>
+        <v>12.14898480750391</v>
       </c>
       <c r="D54">
-        <v>1.115095886317166E-2</v>
+        <v>0.42254626230910558</v>
       </c>
       <c r="E54">
-        <v>3.602206394781694E-3</v>
+        <v>0.17999549327239051</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -1536,13 +1541,13 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>7.7673216951763727E-2</v>
+        <v>10.73065828069994</v>
       </c>
       <c r="D55">
-        <v>2.6327433309169708E-3</v>
+        <v>0.37241227320498888</v>
       </c>
       <c r="E55">
-        <v>1.5240828044614429E-3</v>
+        <v>0.20117945328004749</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -1556,13 +1561,13 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>0.17955046872492081</v>
+        <v>13.99413329835668</v>
       </c>
       <c r="D56">
-        <v>6.4875297850430676E-3</v>
+        <v>0.4856257162687152</v>
       </c>
       <c r="E56">
-        <v>2.222269309515453E-3</v>
+        <v>0.18016563447495579</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -1576,13 +1581,13 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>0.12583499923256261</v>
+        <v>12.284939341599451</v>
       </c>
       <c r="D57">
-        <v>4.4750024047162853E-3</v>
+        <v>0.42727307036820089</v>
       </c>
       <c r="E57">
-        <v>1.889185741641503E-3</v>
+        <v>0.1796219985084857</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -1596,13 +1601,13 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>0.33231535524869921</v>
+        <v>9.3048629727126659</v>
       </c>
       <c r="D58">
-        <v>1.190290406898218E-2</v>
+        <v>0.32450159462189099</v>
       </c>
       <c r="E58">
-        <v>3.3456233128397149E-3</v>
+        <v>0.10861422956990539</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -1616,13 +1621,13 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>8.1239301398427916E-2</v>
+        <v>11.901406236466689</v>
       </c>
       <c r="D59">
-        <v>2.9043157895406262E-3</v>
+        <v>0.41090361543470483</v>
       </c>
       <c r="E59">
-        <v>8.8729056645760554E-4</v>
+        <v>0.1254401180080631</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -1636,13 +1641,13 @@
         <v>13</v>
       </c>
       <c r="C60">
-        <v>0.13932504191462869</v>
+        <v>10.71897084919781</v>
       </c>
       <c r="D60">
-        <v>4.9674886244314492E-3</v>
+        <v>0.37195997183618978</v>
       </c>
       <c r="E60">
-        <v>1.4457877553654421E-3</v>
+        <v>0.1170847246756868</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -1656,13 +1661,13 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>8.7843256167578598E-2</v>
+        <v>11.151938964077321</v>
       </c>
       <c r="D61">
-        <v>3.1147347296504738E-3</v>
+        <v>0.38629314050175778</v>
       </c>
       <c r="E61">
-        <v>9.4802337756868138E-4</v>
+        <v>0.119984949168019</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -1676,13 +1681,13 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>0.33232557955029418</v>
+        <v>11.726145332666579</v>
       </c>
       <c r="D62">
-        <v>1.163667066938805E-2</v>
+        <v>0.40032834576260973</v>
       </c>
       <c r="E62">
-        <v>3.515493333212303E-3</v>
+        <v>0.15784441268629651</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -1696,13 +1701,13 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>8.2124289140434903E-2</v>
+        <v>9.6801457410580714</v>
       </c>
       <c r="D63">
-        <v>2.8273447927083242E-3</v>
+        <v>0.33012999531936998</v>
       </c>
       <c r="E63">
-        <v>1.190272867663746E-3</v>
+        <v>0.16498196116077599</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -1716,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>0.15277520634262551</v>
+        <v>11.58439419581347</v>
       </c>
       <c r="D64">
-        <v>5.3782522469391714E-3</v>
+        <v>0.39555911304029773</v>
       </c>
       <c r="E64">
-        <v>1.745743960009578E-3</v>
+        <v>0.1576925169367043</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -1736,13 +1741,13 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>0.1015122822185396</v>
+        <v>9.7987300281718319</v>
       </c>
       <c r="D65">
-        <v>3.519033295234732E-3</v>
+        <v>0.33559021796346239</v>
       </c>
       <c r="E65">
-        <v>1.368824573050205E-3</v>
+        <v>0.189650543704456</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -1756,13 +1761,13 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>9.3273941580760464</v>
+        <v>4.7355247027864741E-2</v>
       </c>
       <c r="D66">
-        <v>0.31248326924594522</v>
+        <v>1.5338499103367061E-3</v>
       </c>
       <c r="E66">
-        <v>0.16424021562312641</v>
+        <v>8.7593171497589819E-4</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1776,13 +1781,13 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>9.3377239869473154</v>
+        <v>4.9372266486622768E-2</v>
       </c>
       <c r="D67">
-        <v>0.31284263021930958</v>
+        <v>1.638051907421579E-3</v>
       </c>
       <c r="E67">
-        <v>0.16406313499718209</v>
+        <v>7.5095374578308389E-4</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1796,13 +1801,13 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>9.3273319426280121</v>
+        <v>0.15959931170229069</v>
       </c>
       <c r="D68">
-        <v>0.31248110442080451</v>
+        <v>5.5281484554171086E-3</v>
       </c>
       <c r="E68">
-        <v>0.16424128711665789</v>
+        <v>1.7408080187707111E-3</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1816,13 +1821,13 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>9.3108095957964441</v>
+        <v>5.7170830141328767E-2</v>
       </c>
       <c r="D69">
-        <v>0.31190649694376682</v>
+        <v>1.9010700915731611E-3</v>
       </c>
       <c r="E69">
-        <v>0.16454372239841869</v>
+        <v>9.0355598071721946E-4</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -1836,13 +1841,13 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>11.782275379148601</v>
+        <v>5.5157934666699153E-2</v>
       </c>
       <c r="D70">
-        <v>0.40972382032660509</v>
+        <v>1.777447805260169E-3</v>
       </c>
       <c r="E70">
-        <v>0.18167711815988341</v>
+        <v>1.664319162689426E-3</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1856,13 +1861,13 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>11.796731210536221</v>
+        <v>6.4858476082468336E-2</v>
       </c>
       <c r="D71">
-        <v>0.41023137157764089</v>
+        <v>2.2306939267148851E-3</v>
       </c>
       <c r="E71">
-        <v>0.18158685835910529</v>
+        <v>1.478909746417434E-3</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1876,13 +1881,13 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>11.7821883137316</v>
+        <v>0.13269561343596481</v>
       </c>
       <c r="D72">
-        <v>0.40972076278894831</v>
+        <v>4.5084702246116753E-3</v>
       </c>
       <c r="E72">
-        <v>0.18167766632367169</v>
+        <v>1.9960277485602642E-3</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1896,13 +1901,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>11.757803296868421</v>
+        <v>6.0534345755488599E-2</v>
       </c>
       <c r="D73">
-        <v>0.40886412049935322</v>
+        <v>1.9914609615248901E-3</v>
       </c>
       <c r="E73">
-        <v>0.18183333444431279</v>
+        <v>1.603780154122676E-3</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -1916,13 +1921,13 @@
         <v>13</v>
       </c>
       <c r="C74">
-        <v>7.6083510897210624</v>
+        <v>4.1679055138080137E-2</v>
       </c>
       <c r="D74">
-        <v>0.26589707377689342</v>
+        <v>1.4745724227174051E-3</v>
       </c>
       <c r="E74">
-        <v>0.1044986483044353</v>
+        <v>4.5249703735324192E-4</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -1936,13 +1941,13 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>7.6208454823273586</v>
+        <v>4.6365900827039772E-2</v>
       </c>
       <c r="D75">
-        <v>0.2663373409533033</v>
+        <v>1.6451797454185969E-3</v>
       </c>
       <c r="E75">
-        <v>0.1044500369363998</v>
+        <v>5.1054831822922595E-4</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -1956,13 +1961,13 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>7.6082758387589742</v>
+        <v>0.1544179187793758</v>
       </c>
       <c r="D76">
-        <v>0.26589442156498733</v>
+        <v>5.5258662352634866E-3</v>
       </c>
       <c r="E76">
-        <v>0.1044989488454377</v>
+        <v>1.593818732722763E-3</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -1976,13 +1981,13 @@
         <v>13</v>
       </c>
       <c r="C77">
-        <v>7.5872002439558539</v>
+        <v>5.1762839021716543E-2</v>
       </c>
       <c r="D77">
-        <v>0.26515134097703918</v>
+        <v>1.847387853531038E-3</v>
       </c>
       <c r="E77">
-        <v>0.1045867808226556</v>
+        <v>5.6474951395468179E-4</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -1996,13 +2001,13 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>9.8265704477618421</v>
+        <v>4.8912208306768311E-2</v>
       </c>
       <c r="D78">
-        <v>0.3352585374483657</v>
+        <v>1.5989209411022081E-3</v>
       </c>
       <c r="E78">
-        <v>0.16294088688472211</v>
+        <v>1.1365452523485809E-3</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -2016,13 +2021,13 @@
         <v>14</v>
       </c>
       <c r="C79">
-        <v>9.8384447648464821</v>
+        <v>5.361540081209068E-2</v>
       </c>
       <c r="D79">
-        <v>0.33567381214499431</v>
+        <v>1.817488427111665E-3</v>
       </c>
       <c r="E79">
-        <v>0.16280640773529531</v>
+        <v>1.005159307538419E-3</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
@@ -2036,13 +2041,13 @@
         <v>14</v>
       </c>
       <c r="C80">
-        <v>9.8264989303763901</v>
+        <v>0.15077543073048999</v>
       </c>
       <c r="D80">
-        <v>0.33525603579356672</v>
+        <v>5.2208099555546119E-3</v>
       </c>
       <c r="E80">
-        <v>0.16294170189223359</v>
+        <v>1.8025388195145411E-3</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -2056,16 +2061,656 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>9.8069735470027783</v>
+        <v>5.7428619841485763E-2</v>
       </c>
       <c r="D81">
-        <v>0.33457299047518491</v>
+        <v>1.9207923586020169E-3</v>
       </c>
       <c r="E81">
-        <v>0.16317234830801219</v>
+        <v>1.129424029171008E-3</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>24.948638017978642</v>
+      </c>
+      <c r="D82">
+        <v>0.96510650231236106</v>
+      </c>
+      <c r="E82">
+        <v>2.4924738972443801</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>34.889520404029497</v>
+      </c>
+      <c r="D83">
+        <v>1.444872128308041</v>
+      </c>
+      <c r="E83">
+        <v>3.561288029494551</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>35.263472553523897</v>
+      </c>
+      <c r="D84">
+        <v>1.464052819764174</v>
+      </c>
+      <c r="E84">
+        <v>3.604857491604506</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>34.500813007223023</v>
+      </c>
+      <c r="D85">
+        <v>1.425026523605964</v>
+      </c>
+      <c r="E85">
+        <v>3.516251748424382</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>21.112330389074589</v>
+      </c>
+      <c r="D86">
+        <v>0.81455244638703084</v>
+      </c>
+      <c r="E86">
+        <v>1.935236596401529</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>31.60755507465338</v>
+      </c>
+      <c r="D87">
+        <v>1.3177243064750319</v>
+      </c>
+      <c r="E87">
+        <v>2.860788652109199</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>32.001112338502118</v>
+      </c>
+      <c r="D88">
+        <v>1.337820149009878</v>
+      </c>
+      <c r="E88">
+        <v>2.8991264887491668</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>31.234433893341929</v>
+      </c>
+      <c r="D89">
+        <v>1.298759436426741</v>
+      </c>
+      <c r="E89">
+        <v>2.8246905869806311</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>19.60062208349791</v>
+      </c>
+      <c r="D90">
+        <v>0.75815976510120642</v>
+      </c>
+      <c r="E90">
+        <v>2.4925775376047952</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>32.489836463248551</v>
+      </c>
+      <c r="D91">
+        <v>1.3663796940919879</v>
+      </c>
+      <c r="E91">
+        <v>4.2345529165601974</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>32.957019140311417</v>
+      </c>
+      <c r="D92">
+        <v>1.3901911372712501</v>
+      </c>
+      <c r="E92">
+        <v>4.3042700989110347</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>32.18724659988996</v>
+      </c>
+      <c r="D93">
+        <v>1.351028626131336</v>
+      </c>
+      <c r="E93">
+        <v>4.1896568906321674</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>22.89398489637491</v>
+      </c>
+      <c r="D94">
+        <v>0.88365837764815802</v>
+      </c>
+      <c r="E94">
+        <v>2.252897205189726</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>33.5601868258004</v>
+      </c>
+      <c r="D95">
+        <v>1.3953125505837829</v>
+      </c>
+      <c r="E95">
+        <v>3.342768919032888</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>33.959074462674216</v>
+      </c>
+      <c r="D96">
+        <v>1.4157267920578229</v>
+      </c>
+      <c r="E96">
+        <v>3.3873618336785478</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>33.193959717723331</v>
+      </c>
+      <c r="D97">
+        <v>1.3766583572625</v>
+      </c>
+      <c r="E97">
+        <v>3.302138811689586</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>27.82800802896606</v>
+      </c>
+      <c r="D98">
+        <v>1.0989066961985501</v>
+      </c>
+      <c r="E98">
+        <v>0.39873688924255762</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>82.662825950535606</v>
+      </c>
+      <c r="D99">
+        <v>4.8887796777943091</v>
+      </c>
+      <c r="E99">
+        <v>1.493383762901638</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>97.186327643292728</v>
+      </c>
+      <c r="D100">
+        <v>6.5711094048302554</v>
+      </c>
+      <c r="E100">
+        <v>1.9876927369777839</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>93.89095867008335</v>
+      </c>
+      <c r="D101">
+        <v>6.1496129310791554</v>
+      </c>
+      <c r="E101">
+        <v>1.863878140061721</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>23.495505099487449</v>
+      </c>
+      <c r="D102">
+        <v>0.92412279790098018</v>
+      </c>
+      <c r="E102">
+        <v>0.36953599904029433</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>79.605229908277465</v>
+      </c>
+      <c r="D103">
+        <v>4.7418974246039536</v>
+      </c>
+      <c r="E103">
+        <v>1.4314651951199471</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>94.546552077766819</v>
+      </c>
+      <c r="D104">
+        <v>6.4452716760563131</v>
+      </c>
+      <c r="E104">
+        <v>1.918239809607645</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>91.290117569635925</v>
+      </c>
+      <c r="D105">
+        <v>6.0348088602224994</v>
+      </c>
+      <c r="E105">
+        <v>1.801296100641854</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>19.963383796648099</v>
+      </c>
+      <c r="D106">
+        <v>0.77470942714894786</v>
+      </c>
+      <c r="E106">
+        <v>0.26325483142338613</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>79.484853027607542</v>
+      </c>
+      <c r="D107">
+        <v>4.6893075150082577</v>
+      </c>
+      <c r="E107">
+        <v>1.358496166991664</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>95.208273493679457</v>
+      </c>
+      <c r="D108">
+        <v>6.4668623636231191</v>
+      </c>
+      <c r="E108">
+        <v>1.862809717686754</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>92.260770062550861</v>
+      </c>
+      <c r="D109">
+        <v>6.094505026319708</v>
+      </c>
+      <c r="E109">
+        <v>1.75708525718054</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>25.04434704396029</v>
+      </c>
+      <c r="D110">
+        <v>0.98240633762045626</v>
+      </c>
+      <c r="E110">
+        <v>0.3668448057167083</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>81.205049952424162</v>
+      </c>
+      <c r="D111">
+        <v>4.8071388644309563</v>
+      </c>
+      <c r="E111">
+        <v>1.4538931523462071</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>96.094467175701965</v>
+      </c>
+      <c r="D112">
+        <v>6.5160860652757142</v>
+      </c>
+      <c r="E112">
+        <v>1.9495979591593979</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>92.888907001685752</v>
+      </c>
+      <c r="D113">
+        <v>6.1086836394888389</v>
+      </c>
+      <c r="E113">
+        <v>1.831589844812459</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.189725142045104</v>
+        <v>9.375877104775327</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3076947137291168</v>
+        <v>0.3141692451422786</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1672978344181235</v>
+        <v>0.1634404695321765</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.190603031833179</v>
+        <v>9.402576036328842</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3077251881351989</v>
+        <v>0.3150972807103417</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1672718801608635</v>
+        <v>0.163042112809709</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.194653083254918</v>
+        <v>9.381680463929987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3078658550644574</v>
+        <v>0.3143710078047751</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1671554932737725</v>
+        <v>0.1633520146753306</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.195069682078215</v>
+        <v>9.439698651979157</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3078803352009989</v>
+        <v>0.3163866950586017</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1671439502314667</v>
+        <v>0.1625199256344521</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11.55698899613256</v>
+        <v>11.85083954572423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4017881561785634</v>
+        <v>0.4121297818617989</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1833270078475257</v>
+        <v>0.1812749448631462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11.55871253975001</v>
+        <v>11.88725454904469</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4018490468387049</v>
+        <v>0.4134060076165078</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1833123662472448</v>
+        <v>0.1810801449848547</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11.56646254581224</v>
+        <v>11.85885283054911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4021228062760347</v>
+        <v>0.4124107285355678</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1832468283540311</v>
+        <v>0.1812313573603844</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11.56723307098833</v>
+        <v>11.93717028752726</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4021500206731184</v>
+        <v>0.4151535106201967</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1832403391383813</v>
+        <v>0.1808308984367521</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.461964616779376</v>
+        <v>7.665898727525551</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2607294057449224</v>
+        <v>0.2679233143272483</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1056257413259186</v>
+        <v>0.104296526174775</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.462613626928206</v>
+        <v>7.698028264259358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2607523126280126</v>
+        <v>0.2690530528430066</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1056141943812089</v>
+        <v>0.1042135074566991</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.46553185235723</v>
+        <v>7.672754529584831</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2608553001044362</v>
+        <v>0.2681644630328243</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1055627811905123</v>
+        <v>0.1042770271600451</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.465821982239648</v>
+        <v>7.745177501963379</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2608655380787153</v>
+        <v>0.2707090794650558</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1055577150256746</v>
+        <v>0.1041242913305783</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.661303345953137</v>
+        <v>9.882365164806279</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3294694800491311</v>
+        <v>0.3372087977907659</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1653211922002096</v>
+        <v>0.1623370503663389</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.662403906524871</v>
+        <v>9.912747660479933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3295080562187367</v>
+        <v>0.3382698290819955</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1653005838104216</v>
+        <v>0.162039830481981</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.667409994127702</v>
+        <v>9.88898084078172</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3296835366255316</v>
+        <v>0.3374399005885828</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1652082447132929</v>
+        <v>0.1622708387984246</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.667915503487921</v>
+        <v>9.955121921850015</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3297012587831978</v>
+        <v>0.3397483501220266</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1651990934359732</v>
+        <v>0.1616541589627776</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.96620823074482</v>
+        <v>10.11073211142728</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3684995199209901</v>
+        <v>0.3395092652154582</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1550327157668097</v>
+        <v>0.1571182695465876</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.48804875552905</v>
+        <v>9.2656607638823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3180643424941825</v>
+        <v>0.3103360286098052</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1618876879092608</v>
+        <v>0.1654494821263083</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11.32230229485649</v>
+        <v>10.15585755614259</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3804196259981324</v>
+        <v>0.3410519825797088</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1550087679561726</v>
+        <v>0.1569181762996922</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.097840954500784</v>
+        <v>9.563333617792878</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3046579810198192</v>
+        <v>0.3222870920728047</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1754455946627291</v>
+        <v>0.1904124221473071</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12.66959124915387</v>
+        <v>11.50672254022935</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4405750551383302</v>
+        <v>0.4000112032423718</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1790301100229715</v>
+        <v>0.18377333195288</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11.64733009034088</v>
+        <v>10.72746406418934</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4093406182948989</v>
+        <v>0.3723068401744269</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2340223852160499</v>
+        <v>0.2015618893778428</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12.74892128360097</v>
+        <v>14.62625538109901</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4433054515583948</v>
+        <v>0.5067538048357073</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1789712574652027</v>
+        <v>0.1818200439160813</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13.89366777559608</v>
+        <v>13.26414465397198</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4822466185372887</v>
+        <v>0.4609348402857178</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1799484711444765</v>
+        <v>0.1790337747695009</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.449467092563975</v>
+        <v>9.922259528005128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26028812100425</v>
+        <v>0.3453527046834202</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1058560774362102</v>
+        <v>0.1121263086285947</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.132275918117221</v>
+        <v>12.09137159361924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3186326505441811</v>
+        <v>0.4171015697496908</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1077302320759213</v>
+        <v>0.1268658962811898</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.638403425188639</v>
+        <v>11.00867509661933</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2669557099248849</v>
+        <v>0.3815598772242179</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1043860572225984</v>
+        <v>0.119000966625452</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.007659019254035</v>
+        <v>11.9676041793203</v>
       </c>
       <c r="D45" t="n">
-        <v>0.279891391140703</v>
+        <v>0.4130651961874078</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1040505630233388</v>
+        <v>0.1259334755079726</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11.63639490751829</v>
+        <v>10.70858260966279</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3973101421836659</v>
+        <v>0.3657986915939476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1577423489294059</v>
+        <v>0.1581190435823259</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10.01083894646197</v>
+        <v>9.752587959151953</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3416901869667123</v>
+        <v>0.3326688449031675</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161193782035944</v>
+        <v>0.1638699270121952</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>12.02077391076945</v>
+        <v>10.75709076757412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.410201676836109</v>
+        <v>0.3674610573779778</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1583075195239338</v>
+        <v>0.1580195213915485</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9.463469863060224</v>
+        <v>9.63604356792124</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3225725336878109</v>
+        <v>0.3293620961093695</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1720256607780301</v>
+        <v>0.1850688785864734</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10.96620823074482</v>
+        <v>10.11073211142728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3684995199209901</v>
+        <v>0.3395092652154582</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1550327157668097</v>
+        <v>0.1571182695465876</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9.48804875552905</v>
+        <v>9.2656607638823</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3180643424941825</v>
+        <v>0.3103360286098052</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1618876879092608</v>
+        <v>0.1654494821263083</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11.32230229485649</v>
+        <v>10.15585755614259</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3804196259981324</v>
+        <v>0.3410519825797088</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1550087679561726</v>
+        <v>0.1569181762996922</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9.097840954500784</v>
+        <v>9.563333617792878</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3046579810198192</v>
+        <v>0.3222870920728047</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1754455946627291</v>
+        <v>0.1904124221473071</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12.66959124915387</v>
+        <v>11.50672254022935</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4405750551383302</v>
+        <v>0.4000112032423718</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1790301100229715</v>
+        <v>0.18377333195288</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11.64733009034088</v>
+        <v>10.72746406418934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4093406182948989</v>
+        <v>0.3723068401744269</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2340223852160499</v>
+        <v>0.2015618893778428</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12.74892128360097</v>
+        <v>14.62625538109901</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4433054515583948</v>
+        <v>0.5067538048357073</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1789712574652027</v>
+        <v>0.1818200439160813</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13.89366777559608</v>
+        <v>13.26414465397198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4822466185372887</v>
+        <v>0.4609348402857178</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1799484711444765</v>
+        <v>0.1790337747695009</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7.449467092563975</v>
+        <v>9.922259528005128</v>
       </c>
       <c r="D58" t="n">
-        <v>0.26028812100425</v>
+        <v>0.3453527046834202</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1058560774362102</v>
+        <v>0.1121263086285947</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9.132275918117221</v>
+        <v>12.09137159361924</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3186326505441811</v>
+        <v>0.4171015697496908</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1077302320759213</v>
+        <v>0.1268658962811898</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.638403425188639</v>
+        <v>11.00867509661933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2669557099248849</v>
+        <v>0.3815598772242179</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1043860572225984</v>
+        <v>0.119000966625452</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.007659019254035</v>
+        <v>11.9676041793203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.279891391140703</v>
+        <v>0.4130651961874078</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1040505630233388</v>
+        <v>0.1259334755079726</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>11.63639490751829</v>
+        <v>10.70858260966279</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3973101421836659</v>
+        <v>0.3657986915939476</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1577423489294059</v>
+        <v>0.1581190435823259</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10.01083894646197</v>
+        <v>9.752587959151953</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3416901869667123</v>
+        <v>0.3326688449031675</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161193782035944</v>
+        <v>0.1638699270121952</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12.02077391076945</v>
+        <v>10.75709076757412</v>
       </c>
       <c r="D64" t="n">
-        <v>0.410201676836109</v>
+        <v>0.3674610573779778</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1583075195239338</v>
+        <v>0.1580195213915485</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9.463469863060224</v>
+        <v>9.63604356792124</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3225725336878109</v>
+        <v>0.3293620961093695</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1720256607780301</v>
+        <v>0.1850688785864734</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.06597324585255392</v>
+        <v>0.1220553602407746</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002183559215158726</v>
+        <v>0.004152173595436699</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0009590093782495846</v>
+        <v>0.001370240882848221</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.1202879257744261</v>
+        <v>0.1770487511139632</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004148888711833837</v>
+        <v>0.006094267368711226</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001311060169291642</v>
+        <v>0.001837554460329822</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1138594459193501</v>
+        <v>0.3105978142100606</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003915641637849768</v>
+        <v>0.01079327628987759</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001260223290989419</v>
+        <v>0.003133501260106689</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.07483987069853117</v>
+        <v>0.1112408470778541</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002509985705254777</v>
+        <v>0.003769943966373339</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0009681235873851919</v>
+        <v>0.001250938012622025</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0997806481625447</v>
+        <v>0.153321886592948</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003499237824269022</v>
+        <v>0.005439934051699114</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001836232061687383</v>
+        <v>0.00212965971643058</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1628156201600132</v>
+        <v>0.2140559032168195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.005920224696999855</v>
+        <v>0.007715679516997007</v>
       </c>
       <c r="E71" t="n">
-        <v>0.002081993968616321</v>
+        <v>0.002446694399339202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1535265371880078</v>
+        <v>0.3455304294380534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005556772882589192</v>
+        <v>0.01249954150331141</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002038072182038375</v>
+        <v>0.00363103810104861</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1097492164986751</v>
+        <v>0.1426872208807687</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003895409367602287</v>
+        <v>0.005067074848244894</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001790132215460133</v>
+        <v>0.00197389690245308</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.06075384654249723</v>
+        <v>0.118142484896619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002150443774163055</v>
+        <v>0.00418226560476297</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0006963959799709137</v>
+        <v>0.001229190550863837</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.1179719945986514</v>
+        <v>0.1739836707361706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004224484392760347</v>
+        <v>0.006177001659127343</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001255997377079221</v>
+        <v>0.001791628228667916</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1113375693837531</v>
+        <v>0.3101610011020587</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003981076164702685</v>
+        <v>0.01102936670411384</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001181416193073413</v>
+        <v>0.003122300333875642</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.07055132746845008</v>
+        <v>0.1070735781533543</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002501880551215591</v>
+        <v>0.003782177412951415</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0007930948372262275</v>
+        <v>0.001132066229953261</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.07542386142541731</v>
+        <v>0.1309233198836226</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002575080454697102</v>
+        <v>0.004544112489591368</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001263847527026995</v>
+        <v>0.001620695346897043</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1327694966479208</v>
+        <v>0.1877635347783248</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004692781973044185</v>
+        <v>0.00659401586813456</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001576945362305752</v>
+        <v>0.002034479865281607</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1254509541389767</v>
+        <v>0.3210548676952005</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004418912434722493</v>
+        <v>0.01133998190466893</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001527672433951808</v>
+        <v>0.003289744002898247</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0847522219757621</v>
+        <v>0.1201274448967532</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002925998223509049</v>
+        <v>0.004162211218512079</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001255749008544921</v>
+        <v>0.001492407830664295</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25.08192688264318</v>
+        <v>26.6516699886931</v>
       </c>
       <c r="D82" t="n">
-        <v>0.971176568549694</v>
+        <v>1.043383853729094</v>
       </c>
       <c r="E82" t="n">
-        <v>2.505612884855885</v>
+        <v>2.663219041760883</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37.95327668585426</v>
+        <v>38.45778081701756</v>
       </c>
       <c r="D83" t="n">
-        <v>1.604631117726157</v>
+        <v>1.631529048319477</v>
       </c>
       <c r="E83" t="n">
-        <v>3.925418749070761</v>
+        <v>3.987108177600586</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>39.26160943307602</v>
+        <v>39.97344949974695</v>
       </c>
       <c r="D84" t="n">
-        <v>1.674714984810107</v>
+        <v>1.71333757413924</v>
       </c>
       <c r="E84" t="n">
-        <v>4.085955812676065</v>
+        <v>4.174732703882998</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>39.05989727554966</v>
+        <v>39.79471459399185</v>
       </c>
       <c r="D85" t="n">
-        <v>1.663835234068276</v>
+        <v>1.703609784184163</v>
       </c>
       <c r="E85" t="n">
-        <v>4.061004758730143</v>
+        <v>4.152395612585717</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21.18283253172135</v>
+        <v>22.84009289712647</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8177365077264381</v>
+        <v>0.8932696290088422</v>
       </c>
       <c r="E86" t="n">
-        <v>1.940824390791067</v>
+        <v>2.073798315754785</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34.67267172756445</v>
+        <v>35.17473166715875</v>
       </c>
       <c r="D87" t="n">
-        <v>1.476775276841539</v>
+        <v>1.503381799025969</v>
       </c>
       <c r="E87" t="n">
-        <v>3.165957185876413</v>
+        <v>3.217124808696109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>36.01191795882032</v>
+        <v>36.72731104536143</v>
       </c>
       <c r="D88" t="n">
-        <v>1.548140835581404</v>
+        <v>1.586731892462933</v>
       </c>
       <c r="E88" t="n">
-        <v>3.304004820929583</v>
+        <v>3.378673497146041</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>35.81370647279807</v>
+        <v>36.55186000599842</v>
       </c>
       <c r="D89" t="n">
-        <v>1.537504953868461</v>
+        <v>1.57723308819713</v>
       </c>
       <c r="E89" t="n">
-        <v>3.283393444742161</v>
+        <v>3.360221909873363</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>19.45165004021537</v>
+        <v>21.44522622506259</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7516390917607643</v>
+        <v>0.8398096201726295</v>
       </c>
       <c r="E90" t="n">
-        <v>2.474655553384989</v>
+        <v>2.719568976454646</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>35.51175275470358</v>
+        <v>35.99746185177261</v>
       </c>
       <c r="D91" t="n">
-        <v>1.522797724650057</v>
+        <v>1.548472301502893</v>
       </c>
       <c r="E91" t="n">
-        <v>4.693653033405218</v>
+        <v>4.769103809708724</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>36.95074916688388</v>
+        <v>37.6696227495044</v>
       </c>
       <c r="D92" t="n">
-        <v>1.599322128789358</v>
+        <v>1.638054810188435</v>
       </c>
       <c r="E92" t="n">
-        <v>4.919057065381775</v>
+        <v>5.033192284490213</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>36.77027208957044</v>
+        <v>37.51132999249464</v>
       </c>
       <c r="D93" t="n">
-        <v>1.589650543556754</v>
+        <v>1.629495449185631</v>
       </c>
       <c r="E93" t="n">
-        <v>4.890546240929599</v>
+        <v>5.007932378498651</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22.94458530220042</v>
+        <v>24.62876475761799</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8859418481221785</v>
+        <v>0.9626226893592676</v>
       </c>
       <c r="E94" t="n">
-        <v>2.257531420855706</v>
+        <v>2.416095257377245</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>36.61554926308512</v>
+        <v>37.11477820167168</v>
       </c>
       <c r="D95" t="n">
-        <v>1.554223256679235</v>
+        <v>1.580750748043401</v>
       </c>
       <c r="E95" t="n">
-        <v>3.691065223923438</v>
+        <v>3.749364905373947</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>37.95970454567177</v>
+        <v>38.67341598712986</v>
       </c>
       <c r="D96" t="n">
-        <v>1.626036926197198</v>
+        <v>1.664648960396209</v>
       </c>
       <c r="E96" t="n">
-        <v>3.849392048180293</v>
+        <v>3.934584174167966</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>37.7635438548629</v>
+        <v>38.50001357034161</v>
       </c>
       <c r="D97" t="n">
-        <v>1.615483048913141</v>
+        <v>1.655235103301646</v>
       </c>
       <c r="E97" t="n">
-        <v>3.826108126462531</v>
+        <v>3.913777931690523</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30.34088757576959</v>
+        <v>30.54059320237301</v>
       </c>
       <c r="D98" t="n">
-        <v>1.218778167877391</v>
+        <v>1.228841490949666</v>
       </c>
       <c r="E98" t="n">
-        <v>0.431608191139042</v>
+        <v>0.4351497595535802</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>83.87245125147425</v>
+        <v>84.90143130359819</v>
       </c>
       <c r="D99" t="n">
-        <v>5.012364146629639</v>
+        <v>5.121037967311935</v>
       </c>
       <c r="E99" t="n">
-        <v>1.529596733713343</v>
+        <v>1.562405698010106</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>97.28399871743197</v>
+        <v>99.58185432941721</v>
       </c>
       <c r="D100" t="n">
-        <v>6.583328139982185</v>
+        <v>6.896150302989961</v>
       </c>
       <c r="E100" t="n">
-        <v>1.990965769037893</v>
+        <v>2.084137334744235</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>92.28295087272301</v>
+        <v>97.07998675015136</v>
       </c>
       <c r="D101" t="n">
-        <v>5.952136032213713</v>
+        <v>6.558210006026544</v>
       </c>
       <c r="E101" t="n">
-        <v>1.805010687478879</v>
+        <v>1.98458572697895</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>25.95001708461607</v>
+        <v>26.09839018985168</v>
       </c>
       <c r="D102" t="n">
-        <v>1.039173613714449</v>
+        <v>1.046888454574527</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3964686830637272</v>
+        <v>0.401654651464282</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>80.77285444372809</v>
+        <v>81.75188874831058</v>
       </c>
       <c r="D103" t="n">
-        <v>4.858648738535968</v>
+        <v>4.961255529251965</v>
       </c>
       <c r="E103" t="n">
-        <v>1.462561793194671</v>
+        <v>1.495208276832587</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>94.58945342041275</v>
+        <v>96.85839712280588</v>
       </c>
       <c r="D104" t="n">
-        <v>6.449667949929382</v>
+        <v>6.754451672777985</v>
       </c>
       <c r="E104" t="n">
-        <v>1.917127881699247</v>
+        <v>2.007943520402044</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>89.59507677208353</v>
+        <v>94.39150120947082</v>
       </c>
       <c r="D105" t="n">
-        <v>5.829405312646519</v>
+        <v>6.427064206925306</v>
       </c>
       <c r="E105" t="n">
-        <v>1.740378676546302</v>
+        <v>1.914416663937868</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22.45044500783737</v>
+        <v>22.67756000276502</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8855277041464331</v>
+        <v>0.8959507473413723</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2927708622208595</v>
+        <v>0.2946726842159823</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>80.67151225295615</v>
+        <v>81.68063689953493</v>
       </c>
       <c r="D107" t="n">
-        <v>4.806817861813606</v>
+        <v>4.909030480971784</v>
       </c>
       <c r="E107" t="n">
-        <v>1.392147360397662</v>
+        <v>1.420328175592844</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>95.26427325041355</v>
+        <v>97.56718032637512</v>
       </c>
       <c r="D108" t="n">
-        <v>6.473718783304842</v>
+        <v>6.780445051998355</v>
       </c>
       <c r="E108" t="n">
-        <v>1.864994343720908</v>
+        <v>1.951253697491332</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>90.57176056782403</v>
+        <v>95.43253096692641</v>
       </c>
       <c r="D109" t="n">
-        <v>5.889476828975096</v>
+        <v>6.496330469911655</v>
       </c>
       <c r="E109" t="n">
-        <v>1.698861554986329</v>
+        <v>1.870514945180374</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>27.5751450547983</v>
+        <v>27.7697546425555</v>
       </c>
       <c r="D110" t="n">
-        <v>1.100825150807297</v>
+        <v>1.110397728979911</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3972765592301589</v>
+        <v>0.4004580786071991</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>82.43128900164038</v>
+        <v>83.44731746479643</v>
       </c>
       <c r="D111" t="n">
-        <v>4.930965026219284</v>
+        <v>5.036792272488454</v>
       </c>
       <c r="E111" t="n">
-        <v>1.488897821170164</v>
+        <v>1.520093258168556</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>96.19775357480235</v>
+        <v>98.49367253922532</v>
       </c>
       <c r="D112" t="n">
-        <v>6.529030001366114</v>
+        <v>6.838678261078946</v>
       </c>
       <c r="E112" t="n">
-        <v>1.952518825269015</v>
+        <v>2.042850995087911</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>91.26819365325787</v>
+        <v>96.08330267903769</v>
       </c>
       <c r="D113" t="n">
-        <v>5.911034778376454</v>
+        <v>6.515409938900028</v>
       </c>
       <c r="E113" t="n">
-        <v>1.773611063742098</v>
+        <v>1.949077373659956</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E13" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.008635986678082</v>
+        <v>8.988434359412629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07508901126898015</v>
+        <v>0.2333167509063592</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.434874750873162</v>
+        <v>19.87456947849598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1334085280152677</v>
+        <v>0.5710347252978022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1497831459172379</v>
+        <v>0.6377738242135205</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.49424069284699</v>
+        <v>24.84818794562885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.337804020213672</v>
+        <v>0.7921834624176162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4881894803021679</v>
+        <v>0.8918214311469682</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.453516905768058</v>
+        <v>25.67488373140685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3078436535497629</v>
+        <v>0.8437648774920694</v>
       </c>
       <c r="E17" t="n">
-        <v>0.388964199150612</v>
+        <v>0.9747555842018369</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.375877104775327</v>
+        <v>16.45136178909645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3141692451422786</v>
+        <v>0.5439506985620727</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1634404695321765</v>
+        <v>0.3351178259257516</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.402576036328842</v>
+        <v>16.45129447142362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3150972807103417</v>
+        <v>0.5439503246054959</v>
       </c>
       <c r="E19" t="n">
-        <v>0.163042112809709</v>
+        <v>0.3351519073059933</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.381680463929987</v>
+        <v>16.45268728450561</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3143710078047751</v>
+        <v>0.5439632310886262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1633520146753306</v>
+        <v>0.3345296845964306</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.439698651979157</v>
+        <v>16.44923424882994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3163866950586017</v>
+        <v>0.5439647894597179</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1625199256344521</v>
+        <v>0.336609148449274</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11.85083954572423</v>
+        <v>14.28474842501463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4121297818617989</v>
+        <v>0.4865473742514072</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1812749448631462</v>
+        <v>0.3627619942498329</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11.88725454904469</v>
+        <v>14.28395055883603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4134060076165078</v>
+        <v>0.4865192858941976</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1810801449848547</v>
+        <v>0.3627905250093794</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11.85885283054911</v>
+        <v>14.29869685260499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4124107285355678</v>
+        <v>0.487038553078546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1812313573603844</v>
+        <v>0.3622698144769078</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>11.93717028752726</v>
+        <v>14.25105350635858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4151535106201967</v>
+        <v>0.485362313411434</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1808308984367521</v>
+        <v>0.3640114617489574</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.665898727525551</v>
+        <v>17.69705886590365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2679233143272483</v>
+        <v>0.5732244711431541</v>
       </c>
       <c r="E26" t="n">
-        <v>0.104296526174775</v>
+        <v>0.3622545238553445</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.698028264259358</v>
+        <v>17.69778688359559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2690530528430066</v>
+        <v>0.5732539997652896</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1042135074566991</v>
+        <v>0.3622939089948855</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.672754529584831</v>
+        <v>17.68453675494135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2681644630328243</v>
+        <v>0.5727166770868188</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1042770271600451</v>
+        <v>0.3615745453702571</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.745177501963379</v>
+        <v>17.72968936805027</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2707090794650558</v>
+        <v>0.5745467400968779</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1041242913305783</v>
+        <v>0.3639761144648893</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.882365164806279</v>
+        <v>15.97572022274728</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3372087977907659</v>
+        <v>0.5308265853466991</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1623370503663389</v>
+        <v>0.3474786569293961</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.912747660479933</v>
+        <v>15.97554506716525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3382698290819955</v>
+        <v>0.5308220826617497</v>
       </c>
       <c r="E31" t="n">
-        <v>0.162039830481981</v>
+        <v>0.347511747570523</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.88898084078172</v>
+        <v>15.97889428430457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3374399005885828</v>
+        <v>0.5309098793442235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1622708387984246</v>
+        <v>0.3469076298376237</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.955121921850015</v>
+        <v>15.96898771557321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3397483501220266</v>
+        <v>0.5306640423034074</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1616541589627776</v>
+        <v>0.3489267290246796</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.11073211142728</v>
+        <v>19.15231411270111</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3395092652154582</v>
+        <v>0.6583149113547691</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1571182695465876</v>
+        <v>0.4261231532484377</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.2656607638823</v>
+        <v>18.49496626834489</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3103360286098052</v>
+        <v>0.6304742389134956</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1654494821263083</v>
+        <v>0.4147872387398184</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10.15585755614259</v>
+        <v>21.87151508342856</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3410519825797088</v>
+        <v>0.7757237522433449</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1569181762996922</v>
+        <v>0.4635690223029243</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.563333617792878</v>
+        <v>26.13753148603606</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3222870920728047</v>
+        <v>0.9671044531606724</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1904124221473071</v>
+        <v>0.5145641119293286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11.50672254022935</v>
+        <v>15.49615711176085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4000112032423718</v>
+        <v>0.5399012981836211</v>
       </c>
       <c r="E38" t="n">
-        <v>0.18377333195288</v>
+        <v>0.4341066701618745</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.72746406418934</v>
+        <v>14.47913697006379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3723068401744269</v>
+        <v>0.4974665071589198</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2015618893778428</v>
+        <v>0.4122372192733738</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.62625538109901</v>
+        <v>14.26320251176747</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5067538048357073</v>
+        <v>0.488451919912589</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1818200439160813</v>
+        <v>0.404541766892092</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13.26414465397198</v>
+        <v>15.53843700852615</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4609348402857178</v>
+        <v>0.5416753337776478</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1790337747695009</v>
+        <v>0.4348187566126168</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.922259528005128</v>
+        <v>17.9201163746454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3453527046834202</v>
+        <v>0.5822308425071334</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1121263086285947</v>
+        <v>0.3726621306160273</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.09137159361924</v>
+        <v>20.33290674770506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4171015697496908</v>
+        <v>0.681257908945904</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1268658962811898</v>
+        <v>0.4368194627093909</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11.00867509661933</v>
+        <v>20.05910419374865</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3815598772242179</v>
+        <v>0.6698461386606346</v>
       </c>
       <c r="E44" t="n">
-        <v>0.119000966625452</v>
+        <v>0.4314753023874097</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11.9676041793203</v>
+        <v>20.14120281690548</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4130651961874078</v>
+        <v>0.6732647719307427</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1259334755079726</v>
+        <v>0.4331222386193165</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10.70858260966279</v>
+        <v>18.59249175822297</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3657986915939476</v>
+        <v>0.6416556038019415</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1581190435823259</v>
+        <v>0.4362306422545689</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9.752587959151953</v>
+        <v>17.92621747004624</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3326688449031675</v>
+        <v>0.6134981440635131</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1638699270121952</v>
+        <v>0.4251356976525328</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10.75709076757412</v>
+        <v>21.32850059814758</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3674610573779778</v>
+        <v>0.7595998086677324</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1580195213915485</v>
+        <v>0.4729462141462754</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9.63604356792124</v>
+        <v>25.59783666176392</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3293620961093695</v>
+        <v>0.9508940435724027</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1850688785864734</v>
+        <v>0.5230835615519269</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10.11073211142728</v>
+        <v>19.15231411270111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3395092652154582</v>
+        <v>0.6583149113547691</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1571182695465876</v>
+        <v>0.4261231532484377</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9.2656607638823</v>
+        <v>18.49496626834489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3103360286098052</v>
+        <v>0.6304742389134956</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1654494821263083</v>
+        <v>0.4147872387398184</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10.15585755614259</v>
+        <v>21.87151508342856</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3410519825797088</v>
+        <v>0.7757237522433449</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1569181762996922</v>
+        <v>0.4635690223029243</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9.563333617792878</v>
+        <v>26.13753148603606</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3222870920728047</v>
+        <v>0.9671044531606724</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1904124221473071</v>
+        <v>0.5145641119293286</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11.50672254022935</v>
+        <v>15.49615711176085</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4000112032423718</v>
+        <v>0.5399012981836211</v>
       </c>
       <c r="E54" t="n">
-        <v>0.18377333195288</v>
+        <v>0.4341066701618745</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10.72746406418934</v>
+        <v>14.47913697006379</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3723068401744269</v>
+        <v>0.4974665071589198</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2015618893778428</v>
+        <v>0.4122372192733738</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.62625538109901</v>
+        <v>14.26320251176747</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5067538048357073</v>
+        <v>0.488451919912589</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1818200439160813</v>
+        <v>0.404541766892092</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13.26414465397198</v>
+        <v>15.53843700852615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4609348402857178</v>
+        <v>0.5416753337776478</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1790337747695009</v>
+        <v>0.4348187566126168</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9.922259528005128</v>
+        <v>17.9201163746454</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3453527046834202</v>
+        <v>0.5822308425071334</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1121263086285947</v>
+        <v>0.3726621306160273</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12.09137159361924</v>
+        <v>20.33290674770506</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4171015697496908</v>
+        <v>0.681257908945904</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1268658962811898</v>
+        <v>0.4368194627093909</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11.00867509661933</v>
+        <v>20.05910419374865</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3815598772242179</v>
+        <v>0.6698461386606346</v>
       </c>
       <c r="E60" t="n">
-        <v>0.119000966625452</v>
+        <v>0.4314753023874097</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>11.9676041793203</v>
+        <v>20.14120281690548</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4130651961874078</v>
+        <v>0.6732647719307427</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1259334755079726</v>
+        <v>0.4331222386193165</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.70858260966279</v>
+        <v>18.59249175822297</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3657986915939476</v>
+        <v>0.6416556038019415</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1581190435823259</v>
+        <v>0.4362306422545689</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9.752587959151953</v>
+        <v>17.92621747004624</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3326688449031675</v>
+        <v>0.6134981440635131</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1638699270121952</v>
+        <v>0.4251356976525328</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10.75709076757412</v>
+        <v>21.32850059814758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3674610573779778</v>
+        <v>0.7595998086677324</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1580195213915485</v>
+        <v>0.4729462141462754</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9.63604356792124</v>
+        <v>25.59783666176392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3293620961093695</v>
+        <v>0.9508940435724027</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1850688785864734</v>
+        <v>0.5230835615519269</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1220553602407746</v>
+        <v>0.1039727114371258</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004152173595436699</v>
+        <v>0.003635745594271144</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001370240882848221</v>
+        <v>0.001110455774905831</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.1770487511139632</v>
+        <v>0.118549736167729</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006094267368711226</v>
+        <v>0.004080938311241327</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001837554460329822</v>
+        <v>0.001236827814963294</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.3105978142100606</v>
+        <v>0.1431679596779646</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01079327628987759</v>
+        <v>0.004965768685838519</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003133501260106689</v>
+        <v>0.001473764924864827</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1112408470778541</v>
+        <v>0.05153110910713229</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003769943966373339</v>
+        <v>0.001711466168560303</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001250938012622025</v>
+        <v>0.000675541869759869</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.153321886592948</v>
+        <v>0.1110255108672421</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005439934051699114</v>
+        <v>0.003775414794439686</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00212965971643058</v>
+        <v>0.002556759134420016</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.2140559032168195</v>
+        <v>0.1231167679053704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007715679516997007</v>
+        <v>0.004190915269681158</v>
       </c>
       <c r="E71" t="n">
-        <v>0.002446694399339202</v>
+        <v>0.002312855477717483</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.3455304294380534</v>
+        <v>0.1485334785600657</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01249954150331141</v>
+        <v>0.005116619661504242</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00363103810104861</v>
+        <v>0.002511579239608259</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1426872208807687</v>
+        <v>0.05696617067589903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.005067074848244894</v>
+        <v>0.001745728087420697</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00197389690245308</v>
+        <v>0.002530434374046113</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.118142484896619</v>
+        <v>0.1021745578912036</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00418226560476297</v>
+        <v>0.00346725425864063</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001229190550863837</v>
+        <v>0.001069842807103798</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.1739836707361706</v>
+        <v>0.118248827635607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006177001659127343</v>
+        <v>0.003944354012602454</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001791628228667916</v>
+        <v>0.001219602227977174</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.3101610011020587</v>
+        <v>0.1423522416833658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01102936670411384</v>
+        <v>0.004788269230748894</v>
       </c>
       <c r="E76" t="n">
-        <v>0.003122300333875642</v>
+        <v>0.001452943951321083</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1070735781533543</v>
+        <v>0.05170004107309945</v>
       </c>
       <c r="D77" t="n">
-        <v>0.003782177412951415</v>
+        <v>0.001661192092708894</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001132066229953261</v>
+        <v>0.0006317785345450733</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1309233198836226</v>
+        <v>0.1058369789839797</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004544112489591368</v>
+        <v>0.003654061525042995</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001620695346897043</v>
+        <v>0.001676904383016931</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1877635347783248</v>
+        <v>0.1198778241266084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00659401586813456</v>
+        <v>0.004094812731168107</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002034479865281607</v>
+        <v>0.001633944238271156</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3210548676952005</v>
+        <v>0.1446635410341142</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01133998190466893</v>
+        <v>0.004986178308926057</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003289744002898247</v>
+        <v>0.001845090986508178</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1201274448967532</v>
+        <v>0.0531854013557069</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004162211218512079</v>
+        <v>0.001714707385281316</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001492407830664295</v>
+        <v>0.001494157102442986</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>26.6516699886931</v>
+        <v>78.82477576642999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.043383853729094</v>
+        <v>4.448745741650517</v>
       </c>
       <c r="E82" t="n">
-        <v>2.663219041760883</v>
+        <v>6.580250101169226</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>38.45778081701756</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D83" t="n">
-        <v>1.631529048319477</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E83" t="n">
-        <v>3.987108177600586</v>
+        <v>6.582169690696537</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>39.97344949974695</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D84" t="n">
-        <v>1.71333757413924</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E84" t="n">
-        <v>4.174732703882998</v>
+        <v>6.582169690696537</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>39.79471459399185</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D85" t="n">
-        <v>1.703609784184163</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E85" t="n">
-        <v>4.152395612585717</v>
+        <v>6.582169690696537</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22.84009289712647</v>
+        <v>76.15150928182372</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8932696290088422</v>
+        <v>4.345935606459871</v>
       </c>
       <c r="E86" t="n">
-        <v>2.073798315754785</v>
+        <v>7.092963188650751</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>35.17473166715875</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D87" t="n">
-        <v>1.503381799025969</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E87" t="n">
-        <v>3.217124808696109</v>
+        <v>7.096587495301985</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>36.72731104536143</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D88" t="n">
-        <v>1.586731892462933</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E88" t="n">
-        <v>3.378673497146041</v>
+        <v>7.096587495301985</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>36.55186000599842</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D89" t="n">
-        <v>1.57723308819713</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E89" t="n">
-        <v>3.360221909873363</v>
+        <v>7.096587495301985</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21.44522622506259</v>
+        <v>81.38921835082252</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8398096201726295</v>
+        <v>4.551134177824939</v>
       </c>
       <c r="E90" t="n">
-        <v>2.719568976454646</v>
+        <v>6.624830961753963</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>35.99746185177261</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D91" t="n">
-        <v>1.548472301502893</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E91" t="n">
-        <v>4.769103809708724</v>
+        <v>6.627076368932682</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>37.6696227495044</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D92" t="n">
-        <v>1.638054810188435</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E92" t="n">
-        <v>5.033192284490213</v>
+        <v>6.627076368932682</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>37.51132999249464</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D93" t="n">
-        <v>1.629495449185631</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E93" t="n">
-        <v>5.007932378498651</v>
+        <v>6.627076368932682</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24.62876475761799</v>
+        <v>78.37435399662414</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9626226893592676</v>
+        <v>4.431531905195863</v>
       </c>
       <c r="E94" t="n">
-        <v>2.416095257377245</v>
+        <v>6.68971383769026</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>37.11477820167168</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D95" t="n">
-        <v>1.580750748043401</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E95" t="n">
-        <v>3.749364905373947</v>
+        <v>6.693136732930742</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>38.67341598712986</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D96" t="n">
-        <v>1.664648960396209</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E96" t="n">
-        <v>3.934584174167966</v>
+        <v>6.693136732930742</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>38.50001357034161</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D97" t="n">
-        <v>1.655235103301646</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E97" t="n">
-        <v>3.913777931690523</v>
+        <v>6.693136732930742</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>30.54059320237301</v>
+        <v>36.39023909370392</v>
       </c>
       <c r="D98" t="n">
-        <v>1.228841490949666</v>
+        <v>1.468088486870843</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4351497595535802</v>
+        <v>0.6531363624370612</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>84.90143130359819</v>
+        <v>83.66865105592788</v>
       </c>
       <c r="D99" t="n">
-        <v>5.121037967311935</v>
+        <v>4.928080677275409</v>
       </c>
       <c r="E99" t="n">
-        <v>1.562405698010106</v>
+        <v>1.700149963501345</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>99.58185432941721</v>
+        <v>98.04519864705365</v>
       </c>
       <c r="D100" t="n">
-        <v>6.896150302989961</v>
+        <v>6.61924225489825</v>
       </c>
       <c r="E100" t="n">
-        <v>2.084137334744235</v>
+        <v>2.225005876286074</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>97.07998675015136</v>
+        <v>103.5040106102525</v>
       </c>
       <c r="D101" t="n">
-        <v>6.558210006026544</v>
+        <v>7.393736032402326</v>
       </c>
       <c r="E101" t="n">
-        <v>1.98458572697895</v>
+        <v>2.466139339714567</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26.09839018985168</v>
+        <v>15.62709250276704</v>
       </c>
       <c r="D102" t="n">
-        <v>1.046888454574527</v>
+        <v>0.5335195454010067</v>
       </c>
       <c r="E102" t="n">
-        <v>0.401654651464282</v>
+        <v>0.3371145534547069</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>81.75188874831058</v>
+        <v>72.71228467364892</v>
       </c>
       <c r="D103" t="n">
-        <v>4.961255529251965</v>
+        <v>4.032967436998454</v>
       </c>
       <c r="E103" t="n">
-        <v>1.495208276832587</v>
+        <v>1.422778225245697</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>96.85839712280588</v>
+        <v>93.59964033338741</v>
       </c>
       <c r="D104" t="n">
-        <v>6.754451672777985</v>
+        <v>6.248063338614698</v>
       </c>
       <c r="E104" t="n">
-        <v>2.007943520402044</v>
+        <v>2.089582447270076</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>94.39150120947082</v>
+        <v>100.9882485362065</v>
       </c>
       <c r="D105" t="n">
-        <v>6.427064206925306</v>
+        <v>7.255918644024252</v>
       </c>
       <c r="E105" t="n">
-        <v>1.914416663937868</v>
+        <v>2.395045466696547</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22.67756000276502</v>
+        <v>30.03046300141031</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8959507473413723</v>
+        <v>1.109447424721825</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2946726842159823</v>
+        <v>0.5691145253757078</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>81.68063689953493</v>
+        <v>83.87346396708452</v>
       </c>
       <c r="D107" t="n">
-        <v>4.909030480971784</v>
+        <v>4.795402943723502</v>
       </c>
       <c r="E107" t="n">
-        <v>1.420328175592844</v>
+        <v>1.71569675069187</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>97.56718032637512</v>
+        <v>99.74915910168367</v>
       </c>
       <c r="D108" t="n">
-        <v>6.780445051998355</v>
+        <v>6.641817849556184</v>
       </c>
       <c r="E108" t="n">
-        <v>1.951253697491332</v>
+        <v>2.308597486928907</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>95.43253096692641</v>
+        <v>105.6329029128861</v>
       </c>
       <c r="D109" t="n">
-        <v>6.496330469911655</v>
+        <v>7.484365000318519</v>
       </c>
       <c r="E109" t="n">
-        <v>1.870514945180374</v>
+        <v>2.580020797834873</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>27.7697546425555</v>
+        <v>17.18931420641271</v>
       </c>
       <c r="D110" t="n">
-        <v>1.110397728979911</v>
+        <v>0.5714058081195611</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4004580786071991</v>
+        <v>0.3102445974604754</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>83.44731746479643</v>
+        <v>74.53495475798296</v>
       </c>
       <c r="D111" t="n">
-        <v>5.036792272488454</v>
+        <v>4.079447520396955</v>
       </c>
       <c r="E111" t="n">
-        <v>1.520093258168556</v>
+        <v>1.445943706471878</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>98.49367253922532</v>
+        <v>95.4982038954692</v>
       </c>
       <c r="D112" t="n">
-        <v>6.838678261078946</v>
+        <v>6.320125657984716</v>
       </c>
       <c r="E112" t="n">
-        <v>2.042850995087911</v>
+        <v>2.137273015669452</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>96.08330267903769</v>
+        <v>102.8776295148838</v>
       </c>
       <c r="D113" t="n">
-        <v>6.515409938900028</v>
+        <v>7.339757389999691</v>
       </c>
       <c r="E113" t="n">
-        <v>1.949077373659956</v>
+        <v>2.453636079524562</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.45136178909645</v>
+        <v>16.47142481629881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5439506985620727</v>
+        <v>0.5443982383729097</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3351178259257516</v>
+        <v>0.3303793142108877</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.45129447142362</v>
+        <v>16.46558674256855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5439503246054959</v>
+        <v>0.5442433804030619</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3351519073059933</v>
+        <v>0.3313573183032106</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.45268728450561</v>
+        <v>16.47248556581222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5439632310886262</v>
+        <v>0.5444273514391401</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3345296845964306</v>
+        <v>0.3302177766710878</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.44923424882994</v>
+        <v>16.47156755396108</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5439647894597179</v>
+        <v>0.5444021347623138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.336609148449274</v>
+        <v>0.3303572264521896</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.28474842501463</v>
+        <v>14.40583256179497</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4865473742514072</v>
+        <v>0.490815103008694</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3627619942498329</v>
+        <v>0.3588062240937839</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.28395055883603</v>
+        <v>14.37917566046049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4865192858941976</v>
+        <v>0.4898750210456891</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3627905250093794</v>
+        <v>0.3596208510181106</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.29869685260499</v>
+        <v>14.41034918992711</v>
       </c>
       <c r="D24" t="n">
-        <v>0.487038553078546</v>
+        <v>0.4909744388208612</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3622698144769078</v>
+        <v>0.3586717651341934</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.25105350635858</v>
+        <v>14.40644684002845</v>
       </c>
       <c r="D25" t="n">
-        <v>0.485362313411434</v>
+        <v>0.490836770527259</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3640114617489574</v>
+        <v>0.3587878373399991</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.69705886590365</v>
+        <v>17.60248225815157</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5732244711431541</v>
+        <v>0.5693791810707126</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3622545238553445</v>
+        <v>0.35675874472705</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17.69778688359559</v>
+        <v>17.62072465444222</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5732539997652896</v>
+        <v>0.5701233833311433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3622939089948855</v>
+        <v>0.3578963785889973</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.68453675494135</v>
+        <v>17.59955265793208</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5727166770868188</v>
+        <v>0.5692594424588701</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3615745453702571</v>
+        <v>0.3565706671041526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.72968936805027</v>
+        <v>17.60207941374795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5745467400968779</v>
+        <v>0.5693627235795156</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3639761144648893</v>
+        <v>0.3567330309584654</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.97572022274728</v>
+        <v>16.01004286349309</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5308265853466991</v>
+        <v>0.5318192924665079</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3474786569293961</v>
+        <v>0.3428789346011108</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.97554506716525</v>
+        <v>16.00132982207911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5308220826617497</v>
+        <v>0.5315547137006806</v>
       </c>
       <c r="E31" t="n">
-        <v>0.347511747570523</v>
+        <v>0.3438281260902333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.97889428430457</v>
+        <v>16.01158182474054</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5309098793442235</v>
+        <v>0.5318666367739824</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3469076298376237</v>
+        <v>0.3427221642656268</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.96898771557321</v>
+        <v>16.010250695093</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5306640423034074</v>
+        <v>0.5318256711499929</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3489267290246796</v>
+        <v>0.3428574985470735</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19.15231411270111</v>
+        <v>17.16576139092995</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6583149113547691</v>
+        <v>0.5747426034805972</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4261231532484377</v>
+        <v>0.3828030444014047</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.49496626834489</v>
+        <v>19.5987467332973</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6304742389134956</v>
+        <v>0.6773458940553704</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4147872387398184</v>
+        <v>0.4330872897504652</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21.87151508342856</v>
+        <v>20.84443091444421</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7757237522433449</v>
+        <v>0.7309627370826089</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4635690223029243</v>
+        <v>0.4505479349083943</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26.13753148603606</v>
+        <v>21.08740713274128</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9671044531606724</v>
+        <v>0.741507157197399</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5145641119293286</v>
+        <v>0.4537124493214577</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15.49615711176085</v>
+        <v>14.35877105067674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5399012981836211</v>
+        <v>0.4924489293847675</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4341066701618745</v>
+        <v>0.4082643175444625</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.47913697006379</v>
+        <v>14.18234505402193</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4974665071589198</v>
+        <v>0.4850523963794523</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4122372192733738</v>
+        <v>0.4007913879073015</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.26320251176747</v>
+        <v>14.12249395000888</v>
       </c>
       <c r="D40" t="n">
-        <v>0.488451919912589</v>
+        <v>0.4825107013065824</v>
       </c>
       <c r="E40" t="n">
-        <v>0.404541766892092</v>
+        <v>0.397358575528647</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15.53843700852615</v>
+        <v>14.03472010935194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5416753337776478</v>
+        <v>0.4779431093707383</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4348187566126168</v>
+        <v>0.376888735204815</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.9201163746454</v>
+        <v>17.47148951176278</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5822308425071334</v>
+        <v>0.5626391380891672</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3726621306160273</v>
+        <v>0.3249318070098346</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20.33290674770506</v>
+        <v>17.95519067675657</v>
       </c>
       <c r="D43" t="n">
-        <v>0.681257908945904</v>
+        <v>0.5836470482838285</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4368194627093909</v>
+        <v>0.3741303608605964</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20.05910419374865</v>
+        <v>18.90968075270229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6698461386606346</v>
+        <v>0.62243344032468</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4314753023874097</v>
+        <v>0.4053028458771512</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20.14120281690548</v>
+        <v>18.43699692461473</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6732647719307427</v>
+        <v>0.6031568278792048</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4331222386193165</v>
+        <v>0.3914971350962144</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18.59249175822297</v>
+        <v>16.59310978273302</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6416556038019415</v>
+        <v>0.5577402454698321</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4362306422545689</v>
+        <v>0.3938884514401078</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17.92621747004624</v>
+        <v>19.04462133982378</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6134981440635131</v>
+        <v>0.6608917112492519</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4251356976525328</v>
+        <v>0.4430515658218793</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21.32850059814758</v>
+        <v>20.30080469547908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7595998086677324</v>
+        <v>0.7148705323922717</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4729462141462754</v>
+        <v>0.4601683293771354</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25.59783666176392</v>
+        <v>20.54422949830758</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9508940435724027</v>
+        <v>0.7254199247942057</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5230835615519269</v>
+        <v>0.4632727347398358</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19.15231411270111</v>
+        <v>17.16576139092995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6583149113547691</v>
+        <v>0.5747426034805972</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4261231532484377</v>
+        <v>0.3828030444014047</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18.49496626834489</v>
+        <v>19.5987467332973</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6304742389134956</v>
+        <v>0.6773458940553704</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4147872387398184</v>
+        <v>0.4330872897504652</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21.87151508342856</v>
+        <v>20.84443091444421</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7757237522433449</v>
+        <v>0.7309627370826089</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4635690223029243</v>
+        <v>0.4505479349083943</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>26.13753148603606</v>
+        <v>21.08740713274128</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9671044531606724</v>
+        <v>0.741507157197399</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5145641119293286</v>
+        <v>0.4537124493214577</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15.49615711176085</v>
+        <v>14.35877105067674</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5399012981836211</v>
+        <v>0.4924489293847675</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4341066701618745</v>
+        <v>0.4082643175444625</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.47913697006379</v>
+        <v>14.18234505402193</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4974665071589198</v>
+        <v>0.4850523963794523</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4122372192733738</v>
+        <v>0.4007913879073015</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.26320251176747</v>
+        <v>14.12249395000888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.488451919912589</v>
+        <v>0.4825107013065824</v>
       </c>
       <c r="E56" t="n">
-        <v>0.404541766892092</v>
+        <v>0.397358575528647</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.53843700852615</v>
+        <v>14.03472010935194</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5416753337776478</v>
+        <v>0.4779431093707383</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4348187566126168</v>
+        <v>0.376888735204815</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.9201163746454</v>
+        <v>17.47148951176278</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5822308425071334</v>
+        <v>0.5626391380891672</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3726621306160273</v>
+        <v>0.3249318070098346</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20.33290674770506</v>
+        <v>17.95519067675657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.681257908945904</v>
+        <v>0.5836470482838285</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4368194627093909</v>
+        <v>0.3741303608605964</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20.05910419374865</v>
+        <v>18.90968075270229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6698461386606346</v>
+        <v>0.62243344032468</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4314753023874097</v>
+        <v>0.4053028458771512</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20.14120281690548</v>
+        <v>18.43699692461473</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6732647719307427</v>
+        <v>0.6031568278792048</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4331222386193165</v>
+        <v>0.3914971350962144</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18.59249175822297</v>
+        <v>16.59310978273302</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6416556038019415</v>
+        <v>0.5577402454698321</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4362306422545689</v>
+        <v>0.3938884514401078</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17.92621747004624</v>
+        <v>19.04462133982378</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6134981440635131</v>
+        <v>0.6608917112492519</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4251356976525328</v>
+        <v>0.4430515658218793</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21.32850059814758</v>
+        <v>20.30080469547908</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7595998086677324</v>
+        <v>0.7148705323922717</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4729462141462754</v>
+        <v>0.4601683293771354</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25.59783666176392</v>
+        <v>20.54422949830758</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9508940435724027</v>
+        <v>0.7254199247942057</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5230835615519269</v>
+        <v>0.4632727347398358</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1039727114371258</v>
+        <v>0.2535778796116709</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003635745594271144</v>
+        <v>0.008765683112657659</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001110455774905831</v>
+        <v>0.002569636692149865</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.118549736167729</v>
+        <v>0.1586611514028129</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004080938311241327</v>
+        <v>0.005399448266332606</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001236827814963294</v>
+        <v>0.001663197163386006</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1431679596779646</v>
+        <v>0.279210667815357</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004965768685838519</v>
+        <v>0.009592319131383496</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001473764924864827</v>
+        <v>0.002831052234967781</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.05153110910713229</v>
+        <v>0.05623329612016595</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001711466168560303</v>
+        <v>0.001796578448546744</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000675541869759869</v>
+        <v>0.0007462013323732353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1110255108672421</v>
+        <v>0.2593132490436211</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003775414794439686</v>
+        <v>0.008994368000449575</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002556759134420016</v>
+        <v>0.003800008483469185</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1231167679053704</v>
+        <v>0.1650241835845216</v>
       </c>
       <c r="D71" t="n">
-        <v>0.004190915269681158</v>
+        <v>0.005518392096890998</v>
       </c>
       <c r="E71" t="n">
-        <v>0.002312855477717483</v>
+        <v>0.003671135258864428</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1485334785600657</v>
+        <v>0.2835820176328925</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005116619661504242</v>
+        <v>0.009805201205754656</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002511579239608259</v>
+        <v>0.00404052248071891</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.05696617067589903</v>
+        <v>0.06113436595720285</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001745728087420697</v>
+        <v>0.001799604260402191</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002530434374046113</v>
+        <v>0.003074112093987128</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1021745578912036</v>
+        <v>0.2568988667280103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00346725425864063</v>
+        <v>0.008632312999955498</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001069842807103798</v>
+        <v>0.002588620045521327</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.118248827635607</v>
+        <v>0.1624226971075371</v>
       </c>
       <c r="D75" t="n">
-        <v>0.003944354012602454</v>
+        <v>0.005371950909987402</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001219602227977174</v>
+        <v>0.001666091715634067</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1423522416833658</v>
+        <v>0.2837526586640867</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004788269230748894</v>
+        <v>0.009469783821253693</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001452943951321083</v>
+        <v>0.002864409186781825</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.05170004107309945</v>
+        <v>0.06021917624057881</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001661192092708894</v>
+        <v>0.001876580000798458</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0006317785345450733</v>
+        <v>0.0007164815341473962</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1058369789839797</v>
+        <v>0.2557635444045109</v>
       </c>
       <c r="D78" t="n">
-        <v>0.003654061525042995</v>
+        <v>0.008815622592663577</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001676904383016931</v>
+        <v>0.00299466686873635</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1198778241266084</v>
+        <v>0.161096805540065</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004094812731168107</v>
+        <v>0.005431284626458772</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001633944238271156</v>
+        <v>0.002445633090517635</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1446635410341142</v>
+        <v>0.2811580305332384</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004986178308926057</v>
+        <v>0.009639034229501336</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001845090986508178</v>
+        <v>0.00324575612402545</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0531854013557069</v>
+        <v>0.05826173397364589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001714707385281316</v>
+        <v>0.001808686113231001</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001494157102442986</v>
+        <v>0.001794140011275847</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>78.82477576642999</v>
+        <v>34.42347922070459</v>
       </c>
       <c r="D82" t="n">
-        <v>4.448745741650517</v>
+        <v>1.367073525003011</v>
       </c>
       <c r="E82" t="n">
-        <v>6.580250101169226</v>
+        <v>2.234759614231611</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>78.838764505471</v>
+        <v>69.39638191033769</v>
       </c>
       <c r="D83" t="n">
-        <v>4.450074203169642</v>
+        <v>3.618314504447248</v>
       </c>
       <c r="E83" t="n">
-        <v>6.582169690696537</v>
+        <v>5.38344168547785</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>78.838764505471</v>
+        <v>76.4557160784745</v>
       </c>
       <c r="D84" t="n">
-        <v>4.450074203169642</v>
+        <v>4.228118020729828</v>
       </c>
       <c r="E84" t="n">
-        <v>6.582169690696537</v>
+        <v>6.261620814030689</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>78.838764505471</v>
+        <v>82.75895070069006</v>
       </c>
       <c r="D85" t="n">
-        <v>4.450074203169642</v>
+        <v>4.83489431774937</v>
       </c>
       <c r="E85" t="n">
-        <v>6.582169690696537</v>
+        <v>7.13871990230167</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>76.15150928182372</v>
+        <v>15.77167534676587</v>
       </c>
       <c r="D86" t="n">
-        <v>4.345935606459871</v>
+        <v>0.538506604145751</v>
       </c>
       <c r="E86" t="n">
-        <v>7.092963188650751</v>
+        <v>1.019211205829506</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>76.17570898651407</v>
+        <v>62.17863291004566</v>
       </c>
       <c r="D87" t="n">
-        <v>4.348201276493182</v>
+        <v>3.170973000234811</v>
       </c>
       <c r="E87" t="n">
-        <v>7.096587495301985</v>
+        <v>5.220349971974787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>76.17570898651407</v>
+        <v>72.55456188710896</v>
       </c>
       <c r="D88" t="n">
-        <v>4.348201276493182</v>
+        <v>4.018791160532247</v>
       </c>
       <c r="E88" t="n">
-        <v>7.096587495301985</v>
+        <v>6.57012820325652</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>76.17570898651407</v>
+        <v>79.59440976712237</v>
       </c>
       <c r="D89" t="n">
-        <v>4.348201276493182</v>
+        <v>4.67747801156785</v>
       </c>
       <c r="E89" t="n">
-        <v>7.096587495301985</v>
+        <v>7.623756283806484</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>81.38921835082252</v>
+        <v>28.46514503067898</v>
       </c>
       <c r="D90" t="n">
-        <v>4.551134177824939</v>
+        <v>1.037010815986263</v>
       </c>
       <c r="E90" t="n">
-        <v>6.624830961753963</v>
+        <v>1.796308728479497</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>81.40562786874303</v>
+        <v>70.92845691080811</v>
       </c>
       <c r="D91" t="n">
-        <v>4.552712689211939</v>
+        <v>3.626852994736875</v>
       </c>
       <c r="E91" t="n">
-        <v>6.627076368932682</v>
+        <v>5.313915841075464</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>81.40562786874303</v>
+        <v>78.69064621291805</v>
       </c>
       <c r="D92" t="n">
-        <v>4.552712689211939</v>
+        <v>4.297402719065358</v>
       </c>
       <c r="E92" t="n">
-        <v>6.627076368932682</v>
+        <v>6.264212132703719</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>81.40562786874303</v>
+        <v>85.10558681985239</v>
       </c>
       <c r="D93" t="n">
-        <v>4.552712689211939</v>
+        <v>4.920216936410032</v>
       </c>
       <c r="E93" t="n">
-        <v>6.627076368932682</v>
+        <v>7.150363737855833</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>78.37435399662414</v>
+        <v>17.26833090835132</v>
       </c>
       <c r="D94" t="n">
-        <v>4.431531905195863</v>
+        <v>0.5740696534203171</v>
       </c>
       <c r="E94" t="n">
-        <v>6.68971383769026</v>
+        <v>1.013774166142857</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>78.39883638364282</v>
+        <v>64.29742208246296</v>
       </c>
       <c r="D95" t="n">
-        <v>4.433851019968223</v>
+        <v>3.237164712220264</v>
       </c>
       <c r="E95" t="n">
-        <v>6.693136732930742</v>
+        <v>4.934235138282238</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>78.39883638364282</v>
+        <v>74.76153435430484</v>
       </c>
       <c r="D96" t="n">
-        <v>4.433851019968223</v>
+        <v>4.099295575050523</v>
       </c>
       <c r="E96" t="n">
-        <v>6.693136732930742</v>
+        <v>6.199838059445161</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>78.39883638364282</v>
+        <v>81.75007785272217</v>
       </c>
       <c r="D97" t="n">
-        <v>4.433851019968223</v>
+        <v>4.760391192238375</v>
       </c>
       <c r="E97" t="n">
-        <v>6.693136732930742</v>
+        <v>7.175454430438832</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>36.39023909370392</v>
+        <v>36.36150906591655</v>
       </c>
       <c r="D98" t="n">
-        <v>1.468088486870843</v>
+        <v>1.466551317683396</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6531363624370612</v>
+        <v>0.6527411800505089</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>83.66865105592788</v>
+        <v>84.18101546254645</v>
       </c>
       <c r="D99" t="n">
-        <v>4.928080677275409</v>
+        <v>4.981043174243245</v>
       </c>
       <c r="E99" t="n">
-        <v>1.700149963501345</v>
+        <v>1.7165941275787</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>98.04519864705365</v>
+        <v>98.74823171981164</v>
       </c>
       <c r="D100" t="n">
-        <v>6.61924225489825</v>
+        <v>6.714201964331655</v>
       </c>
       <c r="E100" t="n">
-        <v>2.225005876286074</v>
+        <v>2.254613326828656</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>103.5040106102525</v>
+        <v>104.2608465366712</v>
       </c>
       <c r="D101" t="n">
-        <v>7.393736032402326</v>
+        <v>7.508003881420596</v>
       </c>
       <c r="E101" t="n">
-        <v>2.466139339714567</v>
+        <v>2.501808951851636</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.62709250276704</v>
+        <v>15.70542683387458</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5335195454010067</v>
+        <v>0.5362247711740928</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3371145534547069</v>
+        <v>0.3355162334868637</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>72.71228467364892</v>
+        <v>73.12279657166101</v>
       </c>
       <c r="D103" t="n">
-        <v>4.032967436998454</v>
+        <v>4.069324224728106</v>
       </c>
       <c r="E103" t="n">
-        <v>1.422778225245697</v>
+        <v>1.43305307487514</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>93.59964033338741</v>
+        <v>94.28670190243854</v>
       </c>
       <c r="D104" t="n">
-        <v>6.248063338614698</v>
+        <v>6.335637497577645</v>
       </c>
       <c r="E104" t="n">
-        <v>2.089582447270076</v>
+        <v>2.115410781173883</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>100.9882485362065</v>
+        <v>101.75741610846</v>
       </c>
       <c r="D105" t="n">
-        <v>7.255918644024252</v>
+        <v>7.369343718161301</v>
       </c>
       <c r="E105" t="n">
-        <v>2.395045466696547</v>
+        <v>2.428734026256445</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>30.03046300141031</v>
+        <v>29.922038535013</v>
       </c>
       <c r="D106" t="n">
-        <v>1.109447424721825</v>
+        <v>1.104328912761422</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5691145253757078</v>
+        <v>0.5675916912186395</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>83.87346396708452</v>
+        <v>84.3544417774075</v>
       </c>
       <c r="D107" t="n">
-        <v>4.795402943723502</v>
+        <v>4.843715743633664</v>
       </c>
       <c r="E107" t="n">
-        <v>1.71569675069187</v>
+        <v>1.731083293151733</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>99.74915910168367</v>
+        <v>100.4389490667564</v>
       </c>
       <c r="D108" t="n">
-        <v>6.641817849556184</v>
+        <v>6.735219298505414</v>
       </c>
       <c r="E108" t="n">
-        <v>2.308597486928907</v>
+        <v>2.338574988030843</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>105.6329029128861</v>
+        <v>106.3822134521402</v>
       </c>
       <c r="D109" t="n">
-        <v>7.484365000318519</v>
+        <v>7.599051639686737</v>
       </c>
       <c r="E109" t="n">
-        <v>2.580020797834873</v>
+        <v>2.616895699428039</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.18931420641271</v>
+        <v>17.25760051424627</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5714058081195611</v>
+        <v>0.5736903787992709</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3102445974604754</v>
+        <v>0.3088107396704822</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>74.53495475798296</v>
+        <v>74.93860575571506</v>
       </c>
       <c r="D111" t="n">
-        <v>4.079447520396955</v>
+        <v>4.115327417891315</v>
       </c>
       <c r="E111" t="n">
-        <v>1.445943706471878</v>
+        <v>1.456677596416401</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>95.4982038954692</v>
+        <v>96.17756080791419</v>
       </c>
       <c r="D112" t="n">
-        <v>6.320125657984716</v>
+        <v>6.407690467137532</v>
       </c>
       <c r="E112" t="n">
-        <v>2.137273015669452</v>
+        <v>2.16410394489152</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>102.8776295148838</v>
+        <v>103.6384942670921</v>
       </c>
       <c r="D113" t="n">
-        <v>7.339757389999691</v>
+        <v>7.45352067985895</v>
       </c>
       <c r="E113" t="n">
-        <v>2.453636079524562</v>
+        <v>2.488643512176773</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.72420233599431</v>
+        <v>16.48972276504929</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5562762138348329</v>
+        <v>0.5449268735954337</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3648377201086608</v>
+        <v>0.328035949820292</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.72158006510781</v>
+        <v>16.49642876204019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5561658283653815</v>
+        <v>0.5451280245222562</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3647002311424573</v>
+        <v>0.3273038336744392</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.72704974507535</v>
+        <v>16.49079297597499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5563960642205712</v>
+        <v>0.5449588070086349</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3649864823734425</v>
+        <v>0.3279161677799501</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.71938115286968</v>
+        <v>16.49019619595843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5560732641258485</v>
+        <v>0.5449409886945572</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3645846951263029</v>
+        <v>0.3279827663701768</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.02497943278552</v>
+        <v>14.47438696948038</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4781919194986686</v>
+        <v>0.4932343944728613</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3880133328651225</v>
+        <v>0.3568583186990444</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.02432495904704</v>
+        <v>14.49694809355246</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4781600557648911</v>
+        <v>0.494030549167022</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3878949883516477</v>
+        <v>0.3562509325179065</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.02570275657444</v>
+        <v>14.47804920554823</v>
       </c>
       <c r="D24" t="n">
-        <v>0.478226989796798</v>
+        <v>0.4933636452799313</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3881413952667379</v>
+        <v>0.3567589048749065</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.02378884611428</v>
+        <v>14.47601259064005</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4781338193807989</v>
+        <v>0.4932917692213655</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3877955498279046</v>
+        <v>0.3568141769012458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18.58301338106637</v>
+        <v>17.56256421650029</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6090941932606687</v>
+        <v>0.5677398544790498</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3959961504728111</v>
+        <v>0.3540253990731034</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.57794571515333</v>
+        <v>17.55084859392343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6088877538734682</v>
+        <v>0.5672566685635753</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3958423259585466</v>
+        <v>0.3531691963066251</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.58851610818297</v>
+        <v>17.56061905912499</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6093183536700604</v>
+        <v>0.5676597217321881</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3961625682394892</v>
+        <v>0.3538853900001603</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>18.57368448217466</v>
+        <v>17.56169970475654</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6087142012822011</v>
+        <v>0.5677042419551782</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3957130493061255</v>
+        <v>0.353963238375793</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.17459890552936</v>
+        <v>16.03526892434067</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5402434189601816</v>
+        <v>0.5326116629665184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3763775789131123</v>
+        <v>0.3406049507716036</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16.17222467457021</v>
+        <v>16.0441528787717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5401431446940288</v>
+        <v>0.5328955245731002</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3762436874609895</v>
+        <v>0.3398946079795159</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16.17718077293483</v>
+        <v>16.03669466418601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.540352436311304</v>
+        <v>0.5326571050687354</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3765224507688797</v>
+        <v>0.3404887279540258</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16.17023592459505</v>
+        <v>16.0359007327649</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5400591423258146</v>
+        <v>0.5326317953078282</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3761311759701878</v>
+        <v>0.3405533474712693</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.58208364142574</v>
+        <v>19.57040718331224</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5502475562493654</v>
+        <v>0.6761348013471109</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3562002189833571</v>
+        <v>0.4326582136859612</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17.09422814956081</v>
+        <v>18.24631224278919</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5717580591264279</v>
+        <v>0.6199994989125232</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3803808178903879</v>
+        <v>0.410043308191916</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17.53357521331088</v>
+        <v>24.18263983364442</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5901031497967666</v>
+        <v>0.8782725257565914</v>
       </c>
       <c r="E36" t="n">
-        <v>0.393693121046364</v>
+        <v>0.491116499715891</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17.81966435811713</v>
+        <v>21.29237053834924</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6020883241515718</v>
+        <v>0.7504234812755853</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4009423391644542</v>
+        <v>0.4563366602033418</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15.14597995231356</v>
+        <v>16.17298394360636</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5252421451358712</v>
+        <v>0.5684154185478693</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4277868036508721</v>
+        <v>0.4446530032604033</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.238984208863</v>
+        <v>14.49495047227267</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4874361045623157</v>
+        <v>0.4981255962047283</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4034911088224047</v>
+        <v>0.4127250844518501</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.48345320499677</v>
+        <v>14.68599452579525</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4976464475609401</v>
+        <v>0.5060802985330668</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4123717982721583</v>
+        <v>0.4179847929411337</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.25480541227989</v>
+        <v>14.70615632929741</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4880997636981715</v>
+        <v>0.5069191616729387</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4041812985217631</v>
+        <v>0.4184804627777531</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.93101015497305</v>
+        <v>17.42982408241642</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5826706660799819</v>
+        <v>0.5618597089734021</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3731220473190839</v>
+        <v>0.3368235290956588</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.28178556938414</v>
+        <v>18.1898450771418</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5968568453339718</v>
+        <v>0.5931315289873325</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3863518030718496</v>
+        <v>0.383117337597416</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.92385326827155</v>
+        <v>18.22753040646072</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6230133607151359</v>
+        <v>0.5946582043068874</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4056793625743972</v>
+        <v>0.3844653458069277</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.99380332834367</v>
+        <v>18.34766495270174</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6258767750425529</v>
+        <v>0.5995295425847361</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4075046122566751</v>
+        <v>0.3885863801245522</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.04977168670967</v>
+        <v>19.01591174328742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5349120099432133</v>
+        <v>0.6596671481979396</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3679696929504063</v>
+        <v>0.4426312104775618</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.52348551253969</v>
+        <v>17.67536036187418</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5548407660882069</v>
+        <v>0.6029542880969401</v>
       </c>
       <c r="E47" t="n">
-        <v>0.391525718821537</v>
+        <v>0.420495612676761</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16.95541516950042</v>
+        <v>23.64124005764959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.572837543567829</v>
+        <v>0.8620941830190292</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4045176554690915</v>
+        <v>0.5000128868385227</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17.24316650579108</v>
+        <v>20.74919086456277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5848585355977138</v>
+        <v>0.7343245577953705</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4115990365919908</v>
+        <v>0.4658475943911324</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>16.58208364142574</v>
+        <v>19.57040718331224</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5502475562493654</v>
+        <v>0.6761348013471109</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3562002189833571</v>
+        <v>0.4326582136859612</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17.09422814956081</v>
+        <v>18.24631224278919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5717580591264279</v>
+        <v>0.6199994989125232</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3803808178903879</v>
+        <v>0.410043308191916</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17.53357521331088</v>
+        <v>24.18263983364442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5901031497967666</v>
+        <v>0.8782725257565914</v>
       </c>
       <c r="E52" t="n">
-        <v>0.393693121046364</v>
+        <v>0.491116499715891</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17.81966435811713</v>
+        <v>21.29237053834924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6020883241515718</v>
+        <v>0.7504234812755853</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4009423391644542</v>
+        <v>0.4563366602033418</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15.14597995231356</v>
+        <v>16.17298394360636</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5252421451358712</v>
+        <v>0.5684154185478693</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4277868036508721</v>
+        <v>0.4446530032604033</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.238984208863</v>
+        <v>14.49495047227267</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4874361045623157</v>
+        <v>0.4981255962047283</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4034911088224047</v>
+        <v>0.4127250844518501</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.48345320499677</v>
+        <v>14.68599452579525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4976464475609401</v>
+        <v>0.5060802985330668</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4123717982721583</v>
+        <v>0.4179847929411337</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.25480541227989</v>
+        <v>14.70615632929741</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4880997636981715</v>
+        <v>0.5069191616729387</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4041812985217631</v>
+        <v>0.4184804627777531</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.93101015497305</v>
+        <v>17.42982408241642</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5826706660799819</v>
+        <v>0.5618597089734021</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3731220473190839</v>
+        <v>0.3368235290956588</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18.28178556938414</v>
+        <v>18.1898450771418</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5968568453339718</v>
+        <v>0.5931315289873325</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3863518030718496</v>
+        <v>0.383117337597416</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18.92385326827155</v>
+        <v>18.22753040646072</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6230133607151359</v>
+        <v>0.5946582043068874</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4056793625743972</v>
+        <v>0.3844653458069277</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.99380332834367</v>
+        <v>18.34766495270174</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6258767750425529</v>
+        <v>0.5995295425847361</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4075046122566751</v>
+        <v>0.3885863801245522</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16.04977168670967</v>
+        <v>19.01591174328742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5349120099432133</v>
+        <v>0.6596671481979396</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3679696929504063</v>
+        <v>0.4426312104775618</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.52348551253969</v>
+        <v>17.67536036187418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5548407660882069</v>
+        <v>0.6029542880969401</v>
       </c>
       <c r="E63" t="n">
-        <v>0.391525718821537</v>
+        <v>0.420495612676761</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>16.95541516950042</v>
+        <v>23.64124005764959</v>
       </c>
       <c r="D64" t="n">
-        <v>0.572837543567829</v>
+        <v>0.8620941830190292</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4045176554690915</v>
+        <v>0.5000128868385227</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17.24316650579108</v>
+        <v>20.74919086456277</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5848585355977138</v>
+        <v>0.7343245577953705</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4115990365919908</v>
+        <v>0.4658475943911324</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.07198133058418762</v>
+        <v>0.2146302408866557</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002480884802083895</v>
+        <v>0.007475354296792735</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000853423469771623</v>
+        <v>0.002178347375744707</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.08279243018063603</v>
+        <v>0.06400985435464757</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002893285682334542</v>
+        <v>0.002208039832756659</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0009652628238553843</v>
+        <v>0.0008376263816528462</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1341144939087809</v>
+        <v>0.02123881042366514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004564023551239172</v>
+        <v>0.0006858171235285532</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001442731494781338</v>
+        <v>0.0005338940633910633</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1646287192460065</v>
+        <v>0.07023035184131647</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00577179427249938</v>
+        <v>0.002418202153284405</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001696794862412233</v>
+        <v>0.0008386351774210141</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.07919800786328952</v>
+        <v>0.2213956969854932</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002574606706643934</v>
+        <v>0.007708645136791285</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002798320441769517</v>
+        <v>0.003408887654537602</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.09185057865649794</v>
+        <v>0.07297780802050036</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003026964338147325</v>
+        <v>0.002304998253923372</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003230350216952611</v>
+        <v>0.003269804357244041</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1401115162365239</v>
+        <v>0.02854329411257181</v>
       </c>
       <c r="D72" t="n">
-        <v>0.004673985657026179</v>
+        <v>0.000715101561166271</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00325786381411063</v>
+        <v>0.003030505752634824</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1731057159387012</v>
+        <v>0.07792439301213738</v>
       </c>
       <c r="D73" t="n">
-        <v>0.005988417672684648</v>
+        <v>0.002515181085558611</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003279603314870573</v>
+        <v>0.003038667968966571</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.07042333720148973</v>
+        <v>0.2162593166942463</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002347663962204409</v>
+        <v>0.007324613360448901</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0007962432286997692</v>
+        <v>0.002179822239285822</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.08332318101084672</v>
+        <v>0.06243303211258866</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002837326130087503</v>
+        <v>0.00208844455271121</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000916556077741977</v>
+        <v>0.0007618362120241757</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1343016842172139</v>
+        <v>0.0202812011602809</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004423603105681117</v>
+        <v>0.0006200283875136875</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001415230824548848</v>
+        <v>0.0004327946025212622</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1650914963907381</v>
+        <v>0.07141628727845922</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005633209099635463</v>
+        <v>0.002392860149977599</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001677796318573492</v>
+        <v>0.0007937169942134635</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.07392838655316838</v>
+        <v>0.2168880953363537</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002490353203638954</v>
+        <v>0.007524243831607308</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001686999679429827</v>
+        <v>0.002609377208683015</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.08558438419981837</v>
+        <v>0.0664796972642251</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002925558248933436</v>
+        <v>0.002220386779345058</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001941686568185234</v>
+        <v>0.001918821524522154</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1359399432983215</v>
+        <v>0.02329626135560789</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00457735647197701</v>
+        <v>0.0006853930006668374</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002151819373986695</v>
+        <v>0.001715004577551399</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1672367984578272</v>
+        <v>0.07270476538214039</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005817384946266003</v>
+        <v>0.002443750282085564</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002287645670781183</v>
+        <v>0.001803412633018941</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.70215305331145</v>
+        <v>35.7278821719562</v>
       </c>
       <c r="D82" t="n">
-        <v>1.432417519296426</v>
+        <v>1.433745790508345</v>
       </c>
       <c r="E82" t="n">
-        <v>2.320632181826565</v>
+        <v>2.322418194876669</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>69.35591060093419</v>
+        <v>73.01568656340919</v>
       </c>
       <c r="D83" t="n">
-        <v>3.61501530148742</v>
+        <v>3.922478446529634</v>
       </c>
       <c r="E83" t="n">
-        <v>5.378735258506921</v>
+        <v>5.821030742777532</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>77.38995474419849</v>
+        <v>82.03454334027488</v>
       </c>
       <c r="D84" t="n">
-        <v>4.314107814924453</v>
+        <v>4.761876295518496</v>
       </c>
       <c r="E84" t="n">
-        <v>6.385780116690907</v>
+        <v>7.033102932882489</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>83.53820489938123</v>
+        <v>87.66903124872005</v>
       </c>
       <c r="D85" t="n">
-        <v>4.914493353298573</v>
+        <v>5.354925816776166</v>
       </c>
       <c r="E85" t="n">
-        <v>7.253985437936489</v>
+        <v>7.892264130611488</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.75665078493015</v>
+        <v>15.5661039851481</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5379883968514908</v>
+        <v>0.5314107117531348</v>
       </c>
       <c r="E86" t="n">
-        <v>1.0186837580102</v>
+        <v>1.012766984939161</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>62.04437492840017</v>
+        <v>64.78153237602098</v>
       </c>
       <c r="D87" t="n">
-        <v>3.16082213117479</v>
+        <v>3.37139762387839</v>
       </c>
       <c r="E87" t="n">
-        <v>5.204172477815847</v>
+        <v>5.538566844625024</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>73.29766508687484</v>
+        <v>78.02099750234393</v>
       </c>
       <c r="D88" t="n">
-        <v>4.08482626441633</v>
+        <v>4.523652657132333</v>
       </c>
       <c r="E88" t="n">
-        <v>6.675517207386589</v>
+        <v>7.377439508950386</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>80.49794973687654</v>
+        <v>84.67359626964817</v>
       </c>
       <c r="D89" t="n">
-        <v>4.767615076557683</v>
+        <v>5.202795214530109</v>
       </c>
       <c r="E89" t="n">
-        <v>7.768072568608993</v>
+        <v>8.465973973805648</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.7803614403252</v>
+        <v>29.88017069183295</v>
       </c>
       <c r="D90" t="n">
-        <v>1.097718770971504</v>
+        <v>1.102364113512595</v>
       </c>
       <c r="E90" t="n">
-        <v>1.869481040497254</v>
+        <v>1.875141372966307</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>70.83427064172797</v>
+        <v>74.19176508056412</v>
       </c>
       <c r="D91" t="n">
-        <v>3.619183586900496</v>
+        <v>3.898607821936905</v>
       </c>
       <c r="E91" t="n">
-        <v>5.302975144422847</v>
+        <v>5.698365223656108</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79.5567191065457</v>
+        <v>84.15660287579814</v>
       </c>
       <c r="D92" t="n">
-        <v>4.37755836849547</v>
+        <v>4.82367563276839</v>
       </c>
       <c r="E92" t="n">
-        <v>6.377990810221077</v>
+        <v>7.012741710841164</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>85.91143468400718</v>
+        <v>89.97814250488449</v>
       </c>
       <c r="D93" t="n">
-        <v>5.003370112513601</v>
+        <v>5.441932123921329</v>
       </c>
       <c r="E93" t="n">
-        <v>7.268745100361056</v>
+        <v>7.894320726472146</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.30032761276934</v>
+        <v>17.13000461663263</v>
       </c>
       <c r="D94" t="n">
-        <v>0.57512254180082</v>
+        <v>0.5694070865255882</v>
       </c>
       <c r="E94" t="n">
-        <v>1.015208964558389</v>
+        <v>1.010871517387211</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>64.16919462592311</v>
+        <v>66.82864719924979</v>
       </c>
       <c r="D95" t="n">
-        <v>3.227413726872117</v>
+        <v>3.433265939115076</v>
       </c>
       <c r="E95" t="n">
-        <v>4.919940346025743</v>
+        <v>5.22124334278397</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>75.48792183446145</v>
+        <v>80.15597875068744</v>
       </c>
       <c r="D96" t="n">
-        <v>4.164523469511878</v>
+        <v>4.60278692039068</v>
       </c>
       <c r="E96" t="n">
-        <v>6.295894295791556</v>
+        <v>6.942584506827998</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>82.64915654098675</v>
+        <v>86.77454265304301</v>
       </c>
       <c r="D97" t="n">
-        <v>4.851152433698382</v>
+        <v>5.286283291110083</v>
       </c>
       <c r="E97" t="n">
-        <v>7.309579433782405</v>
+        <v>7.953511050951879</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>35.48413206795766</v>
+        <v>36.19487244375888</v>
       </c>
       <c r="D98" t="n">
-        <v>1.421231051263788</v>
+        <v>1.457910560675898</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6396879871241692</v>
+        <v>0.6502631452847072</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>83.21917004845733</v>
+        <v>84.30295983926867</v>
       </c>
       <c r="D99" t="n">
-        <v>4.881832867040714</v>
+        <v>4.993739220757559</v>
       </c>
       <c r="E99" t="n">
-        <v>1.685692937634545</v>
+        <v>1.720508521098747</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>97.77961979139602</v>
+        <v>99.15959100755732</v>
       </c>
       <c r="D100" t="n">
-        <v>6.583549561248572</v>
+        <v>6.770437697239473</v>
       </c>
       <c r="E100" t="n">
-        <v>2.213738148320806</v>
+        <v>2.272098491608395</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>103.3837237140827</v>
+        <v>104.8930149660162</v>
       </c>
       <c r="D101" t="n">
-        <v>7.37558768587578</v>
+        <v>7.604933343047129</v>
       </c>
       <c r="E101" t="n">
-        <v>2.460318355916807</v>
+        <v>2.532000354467413</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>16.00503616299655</v>
+        <v>15.74710978854295</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5465120147543079</v>
+        <v>0.5376597352301823</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3319050810934969</v>
+        <v>0.3353329745511274</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>72.17338996245307</v>
+        <v>73.14645031254526</v>
       </c>
       <c r="D103" t="n">
-        <v>3.985229860257803</v>
+        <v>4.071393691373229</v>
       </c>
       <c r="E103" t="n">
-        <v>1.407570895686816</v>
+        <v>1.434124984223837</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>93.30111215624289</v>
+        <v>94.64702458822532</v>
       </c>
       <c r="D104" t="n">
-        <v>6.2100007879954</v>
+        <v>6.382050700064777</v>
       </c>
       <c r="E104" t="n">
-        <v>2.076963608103485</v>
+        <v>2.130000627062434</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>100.8585759203739</v>
+        <v>102.387486569015</v>
       </c>
       <c r="D105" t="n">
-        <v>7.236608780165102</v>
+        <v>7.463682462841652</v>
       </c>
       <c r="E105" t="n">
-        <v>2.388016013974437</v>
+        <v>2.457952121525947</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.06317063733817</v>
+        <v>29.74675515893447</v>
       </c>
       <c r="D106" t="n">
-        <v>1.064521553270485</v>
+        <v>1.096190647256651</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5564659401515362</v>
+        <v>0.5654495340558373</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>83.42329474777982</v>
+        <v>84.44197582814206</v>
       </c>
       <c r="D107" t="n">
-        <v>4.750201105634096</v>
+        <v>4.852622815263159</v>
       </c>
       <c r="E107" t="n">
-        <v>1.701247841969612</v>
+        <v>1.734114704016488</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>99.49506249424019</v>
+        <v>100.8249103950408</v>
       </c>
       <c r="D108" t="n">
-        <v>6.607370009676952</v>
+        <v>6.788222102695127</v>
       </c>
       <c r="E108" t="n">
-        <v>2.297505267308733</v>
+        <v>2.355853470222038</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>105.5277207436947</v>
+        <v>106.9982911561998</v>
       </c>
       <c r="D109" t="n">
-        <v>7.468046843155131</v>
+        <v>7.694990497193334</v>
       </c>
       <c r="E109" t="n">
-        <v>2.574748854938962</v>
+        <v>2.648066820680601</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.52111785959432</v>
+        <v>17.29258008135429</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5825042650792414</v>
+        <v>0.5748564073544443</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3052339117793684</v>
+        <v>0.3083047047742967</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>73.99711839257088</v>
+        <v>74.95718845052389</v>
       </c>
       <c r="D111" t="n">
-        <v>4.031633785000649</v>
+        <v>4.116969890558289</v>
       </c>
       <c r="E111" t="n">
-        <v>1.430867052885112</v>
+        <v>1.457237335470151</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>95.20143326502487</v>
+        <v>96.52964690643104</v>
       </c>
       <c r="D112" t="n">
-        <v>6.281887730695167</v>
+        <v>6.453599443440839</v>
       </c>
       <c r="E112" t="n">
-        <v>2.124931194049614</v>
+        <v>2.178397940324242</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>102.7484614379606</v>
+        <v>104.2582044406843</v>
       </c>
       <c r="D113" t="n">
-        <v>7.320294707071263</v>
+        <v>7.547674934466181</v>
       </c>
       <c r="E113" t="n">
-        <v>2.447065952279119</v>
+        <v>2.517956161378621</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.48972276504929</v>
+        <v>16.45643246764799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5449268735954337</v>
+        <v>0.5445375797447748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.328035949820292</v>
+        <v>0.3414438396275378</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.49642876204019</v>
+        <v>16.45646892224991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5451280245222562</v>
+        <v>0.5445396121343787</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3273038336744392</v>
+        <v>0.3414544063070759</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.49079297597499</v>
+        <v>16.45702924668762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5449588070086349</v>
+        <v>0.5445706378463526</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3279161677799501</v>
+        <v>0.3416133814384243</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.49019619595843</v>
+        <v>16.45538493690191</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5449409886945572</v>
+        <v>0.5444786906473208</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3279827663701768</v>
+        <v>0.3411321982419993</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.47438696948038</v>
+        <v>14.1574264067658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4932343944728613</v>
+        <v>0.4820869584738449</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3568583186990444</v>
+        <v>0.3680761426877912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.49694809355246</v>
+        <v>14.15724494851104</v>
       </c>
       <c r="D23" t="n">
-        <v>0.494030549167022</v>
+        <v>0.4820806440323824</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3562509325179065</v>
+        <v>0.3680850493146212</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.47804920554823</v>
+        <v>14.15453003072576</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4933636452799313</v>
+        <v>0.4819861988457115</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3567589048749065</v>
+        <v>0.368219060826714</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.47601259064005</v>
+        <v>14.16281560954729</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4932917692213655</v>
+        <v>0.4822745555273045</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3568141769012458</v>
+        <v>0.3678135049671445</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.56256421650029</v>
+        <v>17.84819978055185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5677398544790498</v>
+        <v>0.5793281142875898</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3540253990731034</v>
+        <v>0.3695330348538499</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17.55084859392343</v>
+        <v>17.84846966754114</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5672566685635753</v>
+        <v>0.5793390084518203</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3531691963066251</v>
+        <v>0.3695451413606988</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.56061905912499</v>
+        <v>17.85252917959967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5676597217321881</v>
+        <v>0.5795028974608504</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3538853900001603</v>
+        <v>0.3697272635205527</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.56169970475654</v>
+        <v>17.84023082581671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5677042419551782</v>
+        <v>0.5790065502177634</v>
       </c>
       <c r="E29" t="n">
-        <v>0.353963238375793</v>
+        <v>0.369175906335997</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.03526892434067</v>
+        <v>15.9615192360817</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5326116629665184</v>
+        <v>0.5306714837062088</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3406049507716036</v>
+        <v>0.3536226643188078</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16.0441528787717</v>
+        <v>15.96152299132046</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5328955245731002</v>
+        <v>0.5306722524639352</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3398946079795159</v>
+        <v>0.3536329302031415</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16.03669466418601</v>
+        <v>15.9615905386133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5326571050687354</v>
+        <v>0.5306842342969857</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3404887279540258</v>
+        <v>0.3537873811969431</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16.0359007327649</v>
+        <v>15.96143390457711</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5326317953078282</v>
+        <v>0.5306497727840843</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3405533474712693</v>
+        <v>0.3533198991162528</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19.57040718331224</v>
+        <v>16.83053667983489</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6761348013471109</v>
+        <v>0.5607369486660166</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4326582136859612</v>
+        <v>0.3699491307676956</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.24631224278919</v>
+        <v>16.67594599598237</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6199994989125232</v>
+        <v>0.5542424989327381</v>
       </c>
       <c r="E35" t="n">
-        <v>0.410043308191916</v>
+        <v>0.3622220619141386</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24.18263983364442</v>
+        <v>18.57678082088321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8782725257565914</v>
+        <v>0.6339270395196024</v>
       </c>
       <c r="E36" t="n">
-        <v>0.491116499715891</v>
+        <v>0.4162796806253664</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21.29237053834924</v>
+        <v>19.31117722760001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7504234812755853</v>
+        <v>0.6650760044710907</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4563366602033418</v>
+        <v>0.4286605965151168</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16.17298394360636</v>
+        <v>14.02056266475863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5684154185478693</v>
+        <v>0.4775324820088914</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4446530032604033</v>
+        <v>0.3792236833415859</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.49495047227267</v>
+        <v>14.01816650114845</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4981255962047283</v>
+        <v>0.477473168663818</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4127250844518501</v>
+        <v>0.37980744948903</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.68599452579525</v>
+        <v>14.05600340693091</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5060802985330668</v>
+        <v>0.479614207142316</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4179847929411337</v>
+        <v>0.3919618420723404</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.70615632929741</v>
+        <v>14.01342921936084</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5069191616729387</v>
+        <v>0.4775782226835885</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4184804627777531</v>
+        <v>0.3849823696835236</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.42982408241642</v>
+        <v>17.61849380404029</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5618597089734021</v>
+        <v>0.5672651959398646</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3368235290956588</v>
+        <v>0.3160498617160087</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.1898450771418</v>
+        <v>17.44000833084504</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5931315289873325</v>
+        <v>0.5624475712393237</v>
       </c>
       <c r="E43" t="n">
-        <v>0.383117337597416</v>
+        <v>0.3405327657569808</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.22753040646072</v>
+        <v>17.81245144644634</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5946582043068874</v>
+        <v>0.577886775518698</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3844653458069277</v>
+        <v>0.3679295086740169</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.34766495270174</v>
+        <v>17.66731958790636</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5995295425847361</v>
+        <v>0.5720180529164043</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3885863801245522</v>
+        <v>0.360620024002565</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19.01591174328742</v>
+        <v>16.27215384246307</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6596671481979396</v>
+        <v>0.5443441466767553</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4426312104775618</v>
+        <v>0.381356550618897</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17.67536036187418</v>
+        <v>16.13127155073408</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6029542880969401</v>
+        <v>0.5384098464407723</v>
       </c>
       <c r="E47" t="n">
-        <v>0.420495612676761</v>
+        <v>0.373830678928987</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23.64124005764959</v>
+        <v>18.0088420512008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8620941830190292</v>
+        <v>0.6169775255860401</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5000128868385227</v>
+        <v>0.4265958421291038</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20.74919086456277</v>
+        <v>18.75347216385222</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7343245577953705</v>
+        <v>0.6484929778004139</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4658475943911324</v>
+        <v>0.4387154894079279</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19.57040718331224</v>
+        <v>16.83053667983489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6761348013471109</v>
+        <v>0.5607369486660166</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4326582136859612</v>
+        <v>0.3699491307676956</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18.24631224278919</v>
+        <v>16.67594599598237</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6199994989125232</v>
+        <v>0.5542424989327381</v>
       </c>
       <c r="E51" t="n">
-        <v>0.410043308191916</v>
+        <v>0.3622220619141386</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>24.18263983364442</v>
+        <v>18.57678082088321</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8782725257565914</v>
+        <v>0.6339270395196024</v>
       </c>
       <c r="E52" t="n">
-        <v>0.491116499715891</v>
+        <v>0.4162796806253664</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21.29237053834924</v>
+        <v>19.31117722760001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7504234812755853</v>
+        <v>0.6650760044710907</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4563366602033418</v>
+        <v>0.4286605965151168</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>16.17298394360636</v>
+        <v>14.02056266475863</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5684154185478693</v>
+        <v>0.4775324820088914</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4446530032604033</v>
+        <v>0.3792236833415859</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.49495047227267</v>
+        <v>14.01816650114845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4981255962047283</v>
+        <v>0.477473168663818</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4127250844518501</v>
+        <v>0.37980744948903</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.68599452579525</v>
+        <v>14.05600340693091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5060802985330668</v>
+        <v>0.479614207142316</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4179847929411337</v>
+        <v>0.3919618420723404</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.70615632929741</v>
+        <v>14.01342921936084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5069191616729387</v>
+        <v>0.4775782226835885</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4184804627777531</v>
+        <v>0.3849823696835236</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.42982408241642</v>
+        <v>17.61849380404029</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5618597089734021</v>
+        <v>0.5672651959398646</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3368235290956588</v>
+        <v>0.3160498617160087</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18.1898450771418</v>
+        <v>17.44000833084504</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5931315289873325</v>
+        <v>0.5624475712393237</v>
       </c>
       <c r="E59" t="n">
-        <v>0.383117337597416</v>
+        <v>0.3405327657569808</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18.22753040646072</v>
+        <v>17.81245144644634</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5946582043068874</v>
+        <v>0.577886775518698</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3844653458069277</v>
+        <v>0.3679295086740169</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.34766495270174</v>
+        <v>17.66731958790636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5995295425847361</v>
+        <v>0.5720180529164043</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3885863801245522</v>
+        <v>0.360620024002565</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19.01591174328742</v>
+        <v>16.27215384246307</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6596671481979396</v>
+        <v>0.5443441466767553</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4426312104775618</v>
+        <v>0.381356550618897</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17.67536036187418</v>
+        <v>16.13127155073408</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6029542880969401</v>
+        <v>0.5384098464407723</v>
       </c>
       <c r="E63" t="n">
-        <v>0.420495612676761</v>
+        <v>0.373830678928987</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23.64124005764959</v>
+        <v>18.0088420512008</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8620941830190292</v>
+        <v>0.6169775255860401</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5000128868385227</v>
+        <v>0.4265958421291038</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20.74919086456277</v>
+        <v>18.75347216385222</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7343245577953705</v>
+        <v>0.6484929778004139</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4658475943911324</v>
+        <v>0.4387154894079279</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.2146302408866557</v>
+        <v>0.1287866444003696</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007475354296792735</v>
+        <v>0.004409330071258001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002178347375744707</v>
+        <v>0.001351455156049255</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.06400985435464757</v>
+        <v>0.06901345941646264</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002208039832756659</v>
+        <v>0.002253830621206561</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0008376263816528462</v>
+        <v>0.0008438004377388983</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.02123881042366514</v>
+        <v>0.04125901766736286</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0006858171235285532</v>
+        <v>0.001380894726458929</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0005338940633910633</v>
+        <v>0.000631610054310421</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.07023035184131647</v>
+        <v>0.1416155461522786</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002418202153284405</v>
+        <v>0.004898068980688569</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0008386351774210141</v>
+        <v>0.001481790439805651</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.2213956969854932</v>
+        <v>0.1345482509187515</v>
       </c>
       <c r="D70" t="n">
-        <v>0.007708645136791285</v>
+        <v>0.004522917880426008</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003408887654537602</v>
+        <v>0.003033451893516856</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.07297780802050036</v>
+        <v>0.07417085829759297</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002304998253923372</v>
+        <v>0.002275644247582232</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003269804357244041</v>
+        <v>0.003112693019003674</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.02854329411257181</v>
+        <v>0.04862416177318916</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000715101561166271</v>
+        <v>0.001436281208758892</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003030505752634824</v>
+        <v>0.003053906801591328</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.07792439301213738</v>
+        <v>0.1491620798006096</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002515181085558611</v>
+        <v>0.005054805568807905</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003038667968966571</v>
+        <v>0.003352957815832983</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2162593166942463</v>
+        <v>0.1315712547991391</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007324613360448901</v>
+        <v>0.004381722933508356</v>
       </c>
       <c r="E74" t="n">
-        <v>0.002179822239285822</v>
+        <v>0.001350596328324093</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06243303211258866</v>
+        <v>0.07277226337853816</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00208844455271121</v>
+        <v>0.002314391279045631</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0007618362120241757</v>
+        <v>0.0008215627785839639</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0202812011602809</v>
+        <v>0.04304230065566463</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0006200283875136875</v>
+        <v>0.001405290181035175</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0004327946025212622</v>
+        <v>0.0005656746639414565</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.07141628727845922</v>
+        <v>0.1432115042323544</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002392860149977599</v>
+        <v>0.004815686614086712</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0007937169942134635</v>
+        <v>0.001465999565304963</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2168880953363537</v>
+        <v>0.1309050906265604</v>
       </c>
       <c r="D78" t="n">
-        <v>0.007524243831607308</v>
+        <v>0.004439544133802022</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002609377208683015</v>
+        <v>0.002009700062247751</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0664796972642251</v>
+        <v>0.07108701220935576</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002220386779345058</v>
+        <v>0.002268853422686765</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001918821524522154</v>
+        <v>0.001843929809384755</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.02329626135560789</v>
+        <v>0.04371838051033929</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0006853930006668374</v>
+        <v>0.001400927187794761</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001715004577551399</v>
+        <v>0.001751087658238325</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.07270476538214039</v>
+        <v>0.1441031053669631</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002443750282085564</v>
+        <v>0.004933560379984825</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001803412633018941</v>
+        <v>0.002214357662404768</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.7278821719562</v>
+        <v>36.79087446294746</v>
       </c>
       <c r="D82" t="n">
-        <v>1.433745790508345</v>
+        <v>1.488865842363128</v>
       </c>
       <c r="E82" t="n">
-        <v>2.322418194876669</v>
+        <v>2.395357986337655</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>73.01568656340919</v>
+        <v>70.95293562372184</v>
       </c>
       <c r="D83" t="n">
-        <v>3.922478446529634</v>
+        <v>3.747028610601116</v>
       </c>
       <c r="E83" t="n">
-        <v>5.821030742777532</v>
+        <v>5.568479084995174</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>82.03454334027488</v>
+        <v>77.17217178712194</v>
       </c>
       <c r="D84" t="n">
-        <v>4.761876295518496</v>
+        <v>4.293951037285574</v>
       </c>
       <c r="E84" t="n">
-        <v>7.033102932882489</v>
+        <v>6.356676110178411</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>87.66903124872005</v>
+        <v>79.36604457822297</v>
       </c>
       <c r="D85" t="n">
-        <v>5.354925816776166</v>
+        <v>4.500384963359387</v>
       </c>
       <c r="E85" t="n">
-        <v>7.892264130611488</v>
+        <v>6.654884031346554</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.5661039851481</v>
+        <v>15.71644255205608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5314107117531348</v>
+        <v>0.5366026754158859</v>
       </c>
       <c r="E86" t="n">
-        <v>1.012766984939161</v>
+        <v>1.017387976555359</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>64.78153237602098</v>
+        <v>63.84564181348087</v>
       </c>
       <c r="D87" t="n">
-        <v>3.37139762387839</v>
+        <v>3.298439471139322</v>
       </c>
       <c r="E87" t="n">
-        <v>5.538566844625024</v>
+        <v>5.422607502108934</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>78.02099750234393</v>
+        <v>73.64352968407347</v>
       </c>
       <c r="D88" t="n">
-        <v>4.523652657132333</v>
+        <v>4.115861399615471</v>
       </c>
       <c r="E88" t="n">
-        <v>7.377439508950386</v>
+        <v>6.725155458315516</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>84.67359626964817</v>
+        <v>76.62340157906436</v>
       </c>
       <c r="D89" t="n">
-        <v>5.202795214530109</v>
+        <v>4.390292691837501</v>
       </c>
       <c r="E89" t="n">
-        <v>8.465973973805648</v>
+        <v>7.163955118000909</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.88017069183295</v>
+        <v>30.59261209889188</v>
       </c>
       <c r="D90" t="n">
-        <v>1.102364113512595</v>
+        <v>1.135687018918155</v>
       </c>
       <c r="E90" t="n">
-        <v>1.875141372966307</v>
+        <v>1.915872259377319</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>74.19176508056412</v>
+        <v>72.48988825521259</v>
       </c>
       <c r="D91" t="n">
-        <v>3.898607821936905</v>
+        <v>3.75513284030468</v>
       </c>
       <c r="E91" t="n">
-        <v>5.698365223656108</v>
+        <v>5.49524304141307</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>84.15660287579814</v>
+        <v>79.52380189638704</v>
       </c>
       <c r="D92" t="n">
-        <v>4.82367563276839</v>
+        <v>4.374503679485453</v>
       </c>
       <c r="E92" t="n">
-        <v>7.012741710841164</v>
+        <v>6.373682671374019</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>89.97814250488449</v>
+        <v>81.90147816908245</v>
       </c>
       <c r="D93" t="n">
-        <v>5.441932123921329</v>
+        <v>4.600618988457768</v>
       </c>
       <c r="E93" t="n">
-        <v>7.894320726472146</v>
+        <v>6.695221124755965</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.13000461663263</v>
+        <v>17.28487813383858</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5694070865255882</v>
+        <v>0.5745954062279849</v>
       </c>
       <c r="E94" t="n">
-        <v>1.010871517387211</v>
+        <v>1.015056925045376</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>66.82864719924979</v>
+        <v>65.95541189008235</v>
       </c>
       <c r="D95" t="n">
-        <v>3.433265939115076</v>
+        <v>3.364756815803063</v>
       </c>
       <c r="E95" t="n">
-        <v>5.22124334278397</v>
+        <v>5.120860439295867</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>80.15597875068744</v>
+        <v>75.85272606335514</v>
       </c>
       <c r="D96" t="n">
-        <v>4.60278692039068</v>
+        <v>4.197595616499184</v>
       </c>
       <c r="E96" t="n">
-        <v>6.942584506827998</v>
+        <v>6.344674420897738</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>86.77454265304301</v>
+        <v>78.83672343475268</v>
       </c>
       <c r="D97" t="n">
-        <v>5.286283291110083</v>
+        <v>4.475495985845305</v>
       </c>
       <c r="E97" t="n">
-        <v>7.953511050951879</v>
+        <v>6.754617801377627</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>36.19487244375888</v>
+        <v>36.25458973421789</v>
       </c>
       <c r="D98" t="n">
-        <v>1.457910560675898</v>
+        <v>1.461034664725509</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6502631452847072</v>
+        <v>0.6513112948902454</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>84.30295983926867</v>
+        <v>83.77524195021776</v>
       </c>
       <c r="D99" t="n">
-        <v>4.993739220757559</v>
+        <v>4.93907871784675</v>
       </c>
       <c r="E99" t="n">
-        <v>1.720508521098747</v>
+        <v>1.703782175622004</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>99.15959100755732</v>
+        <v>98.17366356503223</v>
       </c>
       <c r="D100" t="n">
-        <v>6.770437697239473</v>
+        <v>6.63652445656569</v>
       </c>
       <c r="E100" t="n">
-        <v>2.272098491608395</v>
+        <v>2.230639883493151</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>104.8930149660162</v>
+        <v>103.6608051158953</v>
       </c>
       <c r="D101" t="n">
-        <v>7.604933343047129</v>
+        <v>7.417297874737942</v>
       </c>
       <c r="E101" t="n">
-        <v>2.532000354467413</v>
+        <v>2.473751635814303</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.74710978854295</v>
+        <v>15.7254809967866</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5376597352301823</v>
+        <v>0.5369037950426675</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3353329745511274</v>
+        <v>0.3343803021877362</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>73.14645031254526</v>
+        <v>72.80235440445358</v>
       </c>
       <c r="D103" t="n">
-        <v>4.071393691373229</v>
+        <v>4.040785003517978</v>
       </c>
       <c r="E103" t="n">
-        <v>1.434124984223837</v>
+        <v>1.423433451902168</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>94.64702458822532</v>
+        <v>93.73573715771599</v>
       </c>
       <c r="D104" t="n">
-        <v>6.382050700064777</v>
+        <v>6.265105634706655</v>
       </c>
       <c r="E104" t="n">
-        <v>2.130000627062434</v>
+        <v>2.092771658902968</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>102.387486569015</v>
+        <v>101.1514080650824</v>
       </c>
       <c r="D105" t="n">
-        <v>7.463682462841652</v>
+        <v>7.279582951069785</v>
       </c>
       <c r="E105" t="n">
-        <v>2.457952121525947</v>
+        <v>2.400097893284638</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.74675515893447</v>
+        <v>29.85256207911132</v>
       </c>
       <c r="D106" t="n">
-        <v>1.096190647256651</v>
+        <v>1.101119914154009</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5654495340558373</v>
+        <v>0.5669229478727149</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>84.44197582814206</v>
+        <v>83.99500104827737</v>
       </c>
       <c r="D107" t="n">
-        <v>4.852622815263159</v>
+        <v>4.807474237532213</v>
       </c>
       <c r="E107" t="n">
-        <v>1.734114704016488</v>
+        <v>1.719755546326501</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>100.8249103950408</v>
+        <v>99.89598006568967</v>
       </c>
       <c r="D108" t="n">
-        <v>6.788222102695127</v>
+        <v>6.661433870433741</v>
       </c>
       <c r="E108" t="n">
-        <v>2.355853470222038</v>
+        <v>2.315127272009743</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>106.9982911561998</v>
+        <v>105.8063214507689</v>
       </c>
       <c r="D109" t="n">
-        <v>7.694990497193334</v>
+        <v>7.510569078408111</v>
       </c>
       <c r="E109" t="n">
-        <v>2.648066820680601</v>
+        <v>2.588693007758801</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.29258008135429</v>
+        <v>17.27670714230465</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5748564073544443</v>
+        <v>0.5743254536009994</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3083047047742967</v>
+        <v>0.3081796096287105</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>74.95718845052389</v>
+        <v>74.6181838316076</v>
       </c>
       <c r="D111" t="n">
-        <v>4.116969890558289</v>
+        <v>4.08668438283538</v>
       </c>
       <c r="E111" t="n">
-        <v>1.457237335470151</v>
+        <v>1.447505318613801</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>96.52964690643104</v>
+        <v>95.62835357623929</v>
       </c>
       <c r="D112" t="n">
-        <v>6.453599443440839</v>
+        <v>6.33659588502104</v>
       </c>
       <c r="E112" t="n">
-        <v>2.178397940324242</v>
+        <v>2.141614520617494</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>104.2582044406843</v>
+        <v>103.0342765115657</v>
       </c>
       <c r="D113" t="n">
-        <v>7.547674934466181</v>
+        <v>7.362786598686431</v>
       </c>
       <c r="E113" t="n">
-        <v>2.517956161378621</v>
+        <v>2.459971510599476</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.45643246764799</v>
+        <v>16.45545690063862</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5445375797447748</v>
+        <v>0.5444827668469049</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3414438396275378</v>
+        <v>0.3411541101599669</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.45646892224991</v>
+        <v>16.45578313707478</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5445396121343787</v>
+        <v>0.5445011663852397</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3414544063070759</v>
+        <v>0.3412521577612451</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.45702924668762</v>
+        <v>16.45480654594495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5445706378463526</v>
+        <v>0.5444455419602902</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3416133814384243</v>
+        <v>0.3409498747711932</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.45538493690191</v>
+        <v>16.45377338075896</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5444786906473208</v>
+        <v>0.5443848432434659</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3411321982419993</v>
+        <v>0.3406002169493189</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.1574264067658</v>
+        <v>14.16243393177358</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4820869584738449</v>
+        <v>0.4822612645872333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3680761426877912</v>
+        <v>0.3678319685874337</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.15724494851104</v>
+        <v>14.16072840068155</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4820806440323824</v>
+        <v>0.4822018759115037</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3680850493146212</v>
+        <v>0.367914591516281</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.15453003072576</v>
+        <v>14.16599771259754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4819861988457115</v>
+        <v>0.4823853676029319</v>
       </c>
       <c r="E24" t="n">
-        <v>0.368219060826714</v>
+        <v>0.3676598902710841</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.16281560954729</v>
+        <v>14.17218087207283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4822745555273045</v>
+        <v>0.4826008238015983</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3678135049671445</v>
+        <v>0.3673653717739667</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.84819978055185</v>
+        <v>17.84079171786189</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5793281142875898</v>
+        <v>0.5790291765588573</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3695330348538499</v>
+        <v>0.3692010211561609</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17.84846966754114</v>
+        <v>17.84330041498947</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5793390084518203</v>
+        <v>0.5791303898624338</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3695451413606988</v>
+        <v>0.3693133919294655</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.85252917959967</v>
+        <v>17.83556034656269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5795028974608504</v>
+        <v>0.5788181836003436</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3697272635205527</v>
+        <v>0.3689669050069479</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.84023082581671</v>
+        <v>17.82661245769377</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5790065502177634</v>
+        <v>0.5784574231467731</v>
       </c>
       <c r="E29" t="n">
-        <v>0.369175906335997</v>
+        <v>0.3685659476178204</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.9615192360817</v>
+        <v>15.96143821323565</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5306714837062088</v>
+        <v>0.5306512353804241</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3536226643188078</v>
+        <v>0.3533411866297655</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.96152299132046</v>
+        <v>15.96146040756362</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5306722524639352</v>
+        <v>0.5306578902277878</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3536329302031415</v>
+        <v>0.3534364408266823</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.9615905386133</v>
+        <v>15.96141087399015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5306842342969857</v>
+        <v>0.5306380858106736</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3537873811969431</v>
+        <v>0.3531427729623514</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.96143390457711</v>
+        <v>15.96143474576056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5306497727840843</v>
+        <v>0.5306182325995278</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3533198991162528</v>
+        <v>0.3528030915131907</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.83053667983489</v>
+        <v>17.32075464006132</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5607369486660166</v>
+        <v>0.5812079273179459</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3699491307676956</v>
+        <v>0.3876290628168711</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16.67594599598237</v>
+        <v>18.79188210786948</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5542424989327381</v>
+        <v>0.6430207986310216</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3622220619141386</v>
+        <v>0.4200740258090613</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.57678082088321</v>
+        <v>19.45200131799033</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6339270395196024</v>
+        <v>0.6710792562874589</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4162796806253664</v>
+        <v>0.4308491971507026</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19.31117722760001</v>
+        <v>18.03968963969176</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6650760044710907</v>
+        <v>0.6113176787028349</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4286605965151168</v>
+        <v>0.405833649678785</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14.02056266475863</v>
+        <v>14.0495786445451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4775324820088914</v>
+        <v>0.4793264336497107</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3792236833415859</v>
+        <v>0.3912767607493615</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.01816650114845</v>
+        <v>14.17229121748699</v>
       </c>
       <c r="D39" t="n">
-        <v>0.477473168663818</v>
+        <v>0.484627573021197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.37980744948903</v>
+        <v>0.4002661452449434</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.05600340693091</v>
+        <v>14.29993046348211</v>
       </c>
       <c r="D40" t="n">
-        <v>0.479614207142316</v>
+        <v>0.4899902057008234</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3919618420723404</v>
+        <v>0.4060503511976691</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.01342921936084</v>
+        <v>14.20179985736322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4775782226835885</v>
+        <v>0.4858723917523559</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3849823696835236</v>
+        <v>0.4017574833038038</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.61849380404029</v>
+        <v>17.43810826613687</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5672651959398646</v>
+        <v>0.562351127668055</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3160498617160087</v>
+        <v>0.3400664177098793</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.44000833084504</v>
+        <v>17.57078774105502</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5624475712393237</v>
+        <v>0.5680782566544866</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3405327657569808</v>
+        <v>0.3546083810870873</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17.81245144644634</v>
+        <v>18.07884644930626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.577886775518698</v>
+        <v>0.588640617148224</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3679295086740169</v>
+        <v>0.3790032746131438</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.66731958790636</v>
+        <v>18.22023275887302</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5720180529164043</v>
+        <v>0.5943625304731018</v>
       </c>
       <c r="E45" t="n">
-        <v>0.360620024002565</v>
+        <v>0.3842066808454722</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.27215384246307</v>
+        <v>16.74438563120429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5443441466767553</v>
+        <v>0.5640388240132236</v>
       </c>
       <c r="E46" t="n">
-        <v>0.381356550618897</v>
+        <v>0.398597542018188</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.13127155073408</v>
+        <v>18.22635013900527</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5384098464407723</v>
+        <v>0.6261532661740931</v>
       </c>
       <c r="E47" t="n">
-        <v>0.373830678928987</v>
+        <v>0.4303088645935113</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18.0088420512008</v>
+        <v>18.89604066531984</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6169775255860401</v>
+        <v>0.6545588045125138</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4265958421291038</v>
+        <v>0.4408591085851558</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18.75347216385222</v>
+        <v>17.46673112139993</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6484929778004139</v>
+        <v>0.5942093831887869</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4387154894079279</v>
+        <v>0.4163796388891831</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>16.83053667983489</v>
+        <v>17.32075464006132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5607369486660166</v>
+        <v>0.5812079273179459</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3699491307676956</v>
+        <v>0.3876290628168711</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16.67594599598237</v>
+        <v>18.79188210786948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5542424989327381</v>
+        <v>0.6430207986310216</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3622220619141386</v>
+        <v>0.4200740258090613</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.57678082088321</v>
+        <v>19.45200131799033</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6339270395196024</v>
+        <v>0.6710792562874589</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4162796806253664</v>
+        <v>0.4308491971507026</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19.31117722760001</v>
+        <v>18.03968963969176</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6650760044710907</v>
+        <v>0.6113176787028349</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4286605965151168</v>
+        <v>0.405833649678785</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14.02056266475863</v>
+        <v>14.0495786445451</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4775324820088914</v>
+        <v>0.4793264336497107</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3792236833415859</v>
+        <v>0.3912767607493615</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.01816650114845</v>
+        <v>14.17229121748699</v>
       </c>
       <c r="D55" t="n">
-        <v>0.477473168663818</v>
+        <v>0.484627573021197</v>
       </c>
       <c r="E55" t="n">
-        <v>0.37980744948903</v>
+        <v>0.4002661452449434</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.05600340693091</v>
+        <v>14.29993046348211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.479614207142316</v>
+        <v>0.4899902057008234</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3919618420723404</v>
+        <v>0.4060503511976691</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.01342921936084</v>
+        <v>14.20179985736322</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4775782226835885</v>
+        <v>0.4858723917523559</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3849823696835236</v>
+        <v>0.4017574833038038</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.61849380404029</v>
+        <v>17.43810826613687</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5672651959398646</v>
+        <v>0.562351127668055</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3160498617160087</v>
+        <v>0.3400664177098793</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17.44000833084504</v>
+        <v>17.57078774105502</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5624475712393237</v>
+        <v>0.5680782566544866</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3405327657569808</v>
+        <v>0.3546083810870873</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17.81245144644634</v>
+        <v>18.07884644930626</v>
       </c>
       <c r="D60" t="n">
-        <v>0.577886775518698</v>
+        <v>0.588640617148224</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3679295086740169</v>
+        <v>0.3790032746131438</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17.66731958790636</v>
+        <v>18.22023275887302</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5720180529164043</v>
+        <v>0.5943625304731018</v>
       </c>
       <c r="E61" t="n">
-        <v>0.360620024002565</v>
+        <v>0.3842066808454722</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16.27215384246307</v>
+        <v>16.74438563120429</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5443441466767553</v>
+        <v>0.5640388240132236</v>
       </c>
       <c r="E62" t="n">
-        <v>0.381356550618897</v>
+        <v>0.398597542018188</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.13127155073408</v>
+        <v>18.22635013900527</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5384098464407723</v>
+        <v>0.6261532661740931</v>
       </c>
       <c r="E63" t="n">
-        <v>0.373830678928987</v>
+        <v>0.4303088645935113</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18.0088420512008</v>
+        <v>18.89604066531984</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6169775255860401</v>
+        <v>0.6545588045125138</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4265958421291038</v>
+        <v>0.4408591085851558</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>18.75347216385222</v>
+        <v>17.46673112139993</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6484929778004139</v>
+        <v>0.5942093831887869</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4387154894079279</v>
+        <v>0.4163796388891831</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1287866444003696</v>
+        <v>0.1219819464388646</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004409330071258001</v>
+        <v>0.004117111994741014</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001351455156049255</v>
+        <v>0.001304115405317439</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.06901345941646264</v>
+        <v>0.2045379837803901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002253830621206561</v>
+        <v>0.007007697043591891</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0008438004377388983</v>
+        <v>0.002099393739351197</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.04125901766736286</v>
+        <v>0.07334265805959055</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001380894726458929</v>
+        <v>0.002430050271265953</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000631610054310421</v>
+        <v>0.0008924454688570944</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1416155461522786</v>
+        <v>0.244364553840343</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004898068980688569</v>
+        <v>0.008422485241781096</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001481790439805651</v>
+        <v>0.002484713329529121</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1345482509187515</v>
+        <v>0.1272578378486011</v>
       </c>
       <c r="D70" t="n">
-        <v>0.004522917880426008</v>
+        <v>0.004194988802696149</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003033451893516856</v>
+        <v>0.003219255486741958</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.07417085829759297</v>
+        <v>0.2105040295337892</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002275644247582232</v>
+        <v>0.007171765083207226</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003112693019003674</v>
+        <v>0.003809945470370586</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.04862416177318916</v>
+        <v>0.07977315645454003</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001436281208758892</v>
+        <v>0.00247444494473111</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003053906801591328</v>
+        <v>0.003321630991614327</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1491620798006096</v>
+        <v>0.2504692705586129</v>
       </c>
       <c r="D73" t="n">
-        <v>0.005054805568807905</v>
+        <v>0.008636623195806383</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003352957815832983</v>
+        <v>0.003969976440519688</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1315712547991391</v>
+        <v>0.1257850018625566</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004381722933508356</v>
+        <v>0.004127859583301443</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001350596328324093</v>
+        <v>0.001306584412453891</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.07277226337853816</v>
+        <v>0.208169531830339</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002314391279045631</v>
+        <v>0.006926347564980296</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0008215627785839639</v>
+        <v>0.002112201699459599</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.04304230065566463</v>
+        <v>0.07666474367377792</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001405290181035175</v>
+        <v>0.002472246368709896</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0005656746639414565</v>
+        <v>0.0008586079665413219</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1432115042323544</v>
+        <v>0.2475446054263027</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004815686614086712</v>
+        <v>0.008285635109585351</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001465999565304963</v>
+        <v>0.002498887337457874</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1309050906265604</v>
+        <v>0.1240972446979276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004439544133802022</v>
+        <v>0.004141981428262238</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002009700062247751</v>
+        <v>0.002073809009503943</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.07108701220935576</v>
+        <v>0.2068363338484271</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002268853422686765</v>
+        <v>0.00704553264530537</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001843929809384755</v>
+        <v>0.002729048474930883</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.04371838051033929</v>
+        <v>0.07573703119472643</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001400927187794761</v>
+        <v>0.002449276947754728</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001751087658238325</v>
+        <v>0.001964543141658231</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1441031053669631</v>
+        <v>0.2466413009199175</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004933560379984825</v>
+        <v>0.008467573122732743</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002214357662404768</v>
+        <v>0.003009980383255729</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>36.79087446294746</v>
+        <v>35.74207093426751</v>
       </c>
       <c r="D82" t="n">
-        <v>1.488865842363128</v>
+        <v>1.43447282021623</v>
       </c>
       <c r="E82" t="n">
-        <v>2.395357986337655</v>
+        <v>2.323344885098487</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>70.95293562372184</v>
+        <v>69.53395575056987</v>
       </c>
       <c r="D83" t="n">
-        <v>3.747028610601116</v>
+        <v>3.629573558836483</v>
       </c>
       <c r="E83" t="n">
-        <v>5.568479084995174</v>
+        <v>5.399663527850711</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>77.17217178712194</v>
+        <v>75.95424779982574</v>
       </c>
       <c r="D84" t="n">
-        <v>4.293951037285574</v>
+        <v>4.182511309841386</v>
       </c>
       <c r="E84" t="n">
-        <v>6.356676110178411</v>
+        <v>6.195857121386135</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>79.36604457822297</v>
+        <v>78.74299863719227</v>
       </c>
       <c r="D85" t="n">
-        <v>4.500384963359387</v>
+        <v>4.440996269297949</v>
       </c>
       <c r="E85" t="n">
-        <v>6.654884031346554</v>
+        <v>6.569078421805584</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.71644255205608</v>
+        <v>15.6216538416968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5366026754158859</v>
+        <v>0.5333303254503747</v>
       </c>
       <c r="E86" t="n">
-        <v>1.017387976555359</v>
+        <v>1.014399807198269</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>63.84564181348087</v>
+        <v>62.35142167399389</v>
       </c>
       <c r="D87" t="n">
-        <v>3.298439471139322</v>
+        <v>3.184034315776027</v>
       </c>
       <c r="E87" t="n">
-        <v>5.422607502108934</v>
+        <v>5.24104071582413</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>73.64352968407347</v>
+        <v>72.34557177747867</v>
       </c>
       <c r="D88" t="n">
-        <v>4.115861399615471</v>
+        <v>4.000339826601913</v>
       </c>
       <c r="E88" t="n">
-        <v>6.725155458315516</v>
+        <v>6.540637696450315</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>76.62340157906436</v>
+        <v>75.92182126388852</v>
       </c>
       <c r="D89" t="n">
-        <v>4.390292691837501</v>
+        <v>4.324488175137541</v>
       </c>
       <c r="E89" t="n">
-        <v>7.163955118000909</v>
+        <v>7.058692851631474</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30.59261209889188</v>
+        <v>29.93633699771588</v>
       </c>
       <c r="D90" t="n">
-        <v>1.135687018918155</v>
+        <v>1.104981346709651</v>
       </c>
       <c r="E90" t="n">
-        <v>1.915872259377319</v>
+        <v>1.87832862259029</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>72.48988825521259</v>
+        <v>71.0688183479386</v>
       </c>
       <c r="D91" t="n">
-        <v>3.75513284030468</v>
+        <v>3.638238223873252</v>
       </c>
       <c r="E91" t="n">
-        <v>5.49524304141307</v>
+        <v>5.329942588450601</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79.52380189638704</v>
+        <v>78.2982680811472</v>
       </c>
       <c r="D92" t="n">
-        <v>4.374503679485453</v>
+        <v>4.261419635960096</v>
       </c>
       <c r="E92" t="n">
-        <v>6.373682671374019</v>
+        <v>6.213037159755331</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>81.90147816908245</v>
+        <v>81.26307061432787</v>
       </c>
       <c r="D93" t="n">
-        <v>4.600618988457768</v>
+        <v>4.539015234901718</v>
       </c>
       <c r="E93" t="n">
-        <v>6.695221124755965</v>
+        <v>6.607594350491413</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.28487813383858</v>
+        <v>17.18858352815261</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5745954062279849</v>
+        <v>0.5713703008278254</v>
       </c>
       <c r="E94" t="n">
-        <v>1.015056925045376</v>
+        <v>1.012406477089219</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>65.95541189008235</v>
+        <v>64.47389203166757</v>
       </c>
       <c r="D95" t="n">
-        <v>3.364756815803063</v>
+        <v>3.250595250387957</v>
       </c>
       <c r="E95" t="n">
-        <v>5.120860439295867</v>
+        <v>4.953862570147042</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>75.85272606335514</v>
+        <v>74.56720884206011</v>
       </c>
       <c r="D96" t="n">
-        <v>4.197595616499184</v>
+        <v>4.081968954791627</v>
       </c>
       <c r="E96" t="n">
-        <v>6.344674420897738</v>
+        <v>6.17431475442427</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>78.83672343475268</v>
+        <v>78.14052837925716</v>
       </c>
       <c r="D97" t="n">
-        <v>4.475495985845305</v>
+        <v>4.409442844918542</v>
       </c>
       <c r="E97" t="n">
-        <v>6.754617801377627</v>
+        <v>6.657137459598703</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>36.25458973421789</v>
+        <v>36.17292876981041</v>
       </c>
       <c r="D98" t="n">
-        <v>1.461034664725509</v>
+        <v>1.45677377816929</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6513112948902454</v>
+        <v>0.6498914980606657</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>83.77524195021776</v>
+        <v>84.03869630860346</v>
       </c>
       <c r="D99" t="n">
-        <v>4.93907871784675</v>
+        <v>4.966279990925528</v>
       </c>
       <c r="E99" t="n">
-        <v>1.703782175622004</v>
+        <v>1.711962661243274</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>98.17366356503223</v>
+        <v>98.71396685917283</v>
       </c>
       <c r="D100" t="n">
-        <v>6.63652445656569</v>
+        <v>6.709564543741117</v>
       </c>
       <c r="E100" t="n">
-        <v>2.230639883493151</v>
+        <v>2.253108444396863</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>103.6608051158953</v>
+        <v>104.368382424632</v>
       </c>
       <c r="D101" t="n">
-        <v>7.417297874737942</v>
+        <v>7.524432369915991</v>
       </c>
       <c r="E101" t="n">
-        <v>2.473751635814303</v>
+        <v>2.506866925082536</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.7254809967866</v>
+        <v>15.75769795244564</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5369037950426675</v>
+        <v>0.5380238446646007</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3343803021877362</v>
+        <v>0.3346500973557405</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>72.80235440445358</v>
+        <v>72.95262827441341</v>
       </c>
       <c r="D103" t="n">
-        <v>4.040785003517978</v>
+        <v>4.054159648148125</v>
       </c>
       <c r="E103" t="n">
-        <v>1.423433451902168</v>
+        <v>1.428232115434517</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>93.73573715771599</v>
+        <v>94.22708603761248</v>
       </c>
       <c r="D104" t="n">
-        <v>6.265105634706655</v>
+        <v>6.327960744236548</v>
       </c>
       <c r="E104" t="n">
-        <v>2.092771658902968</v>
+        <v>2.112779979928838</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>101.1514080650824</v>
+        <v>101.8559750543742</v>
       </c>
       <c r="D105" t="n">
-        <v>7.279582951069785</v>
+        <v>7.384013619047846</v>
       </c>
       <c r="E105" t="n">
-        <v>2.400097893284638</v>
+        <v>2.432864053927482</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.85256207911132</v>
+        <v>29.74085476863527</v>
       </c>
       <c r="D106" t="n">
-        <v>1.101119914154009</v>
+        <v>1.095933134780336</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5669229478727149</v>
+        <v>0.5655222961285605</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>83.99500104827737</v>
+        <v>84.20334684698022</v>
       </c>
       <c r="D107" t="n">
-        <v>4.807474237532213</v>
+        <v>4.828544103608441</v>
       </c>
       <c r="E107" t="n">
-        <v>1.719755546326501</v>
+        <v>1.726638698207577</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>99.89598006568967</v>
+        <v>100.3954115521607</v>
       </c>
       <c r="D108" t="n">
-        <v>6.661433870433741</v>
+        <v>6.729408468754983</v>
       </c>
       <c r="E108" t="n">
-        <v>2.315127272009743</v>
+        <v>2.337203587263744</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>105.8063214507689</v>
+        <v>106.4825572512114</v>
       </c>
       <c r="D109" t="n">
-        <v>7.510569078408111</v>
+        <v>7.614736234417654</v>
       </c>
       <c r="E109" t="n">
-        <v>2.588693007758801</v>
+        <v>2.622500750345188</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.27670714230465</v>
+        <v>17.29563994285053</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5743254536009994</v>
+        <v>0.5749598961757642</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3081796096287105</v>
+        <v>0.3080295528796452</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>74.6181838316076</v>
+        <v>74.76909605379241</v>
       </c>
       <c r="D111" t="n">
-        <v>4.08668438283538</v>
+        <v>4.100125539515092</v>
       </c>
       <c r="E111" t="n">
-        <v>1.447505318613801</v>
+        <v>1.45177500809453</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>95.62835357623929</v>
+        <v>96.11744991431425</v>
       </c>
       <c r="D112" t="n">
-        <v>6.33659588502104</v>
+        <v>6.399808835219934</v>
       </c>
       <c r="E112" t="n">
-        <v>2.141614520617494</v>
+        <v>2.161380518146661</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>103.0342765115657</v>
+        <v>103.7349941224868</v>
       </c>
       <c r="D113" t="n">
-        <v>7.362786598686431</v>
+        <v>7.468030208560814</v>
       </c>
       <c r="E113" t="n">
-        <v>2.459971510599476</v>
+        <v>2.492844867795614</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.988434359412629</v>
+        <v>21.32374758642121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.7688601235911339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.7688601235911339</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.87456947849598</v>
+        <v>33.77580129049381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5710347252978022</v>
+        <v>1.118004846550716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.153219578295841</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.84818794562885</v>
+        <v>24.67964349757693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8352527958678043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.910117116551952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Treinamento</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25.67488373140685</v>
+        <v>6.571425941238434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.231064497056882</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.2911885025421875</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.988434359412629</v>
+        <v>18.31765953043914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4998950077996938</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4998950077996938</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.87456947849598</v>
+        <v>29.75237325010648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.9275206277797219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.054461639867572</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.84818794562885</v>
+        <v>23.91451855174337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8019740598483512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.9707863677527012</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Teste</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.67488373140685</v>
+        <v>5.038801975609742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.1678786911565261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.1906524665254962</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.988434359412629</v>
+        <v>14.03136821787605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4592556194200199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4592556194200199</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.87456947849598</v>
+        <v>7.161351362934841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.2464326094109754</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6377738242135205</v>
+        <v>0.2807440340664921</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.84818794562885</v>
+        <v>14.60982505874073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.5402120726403498</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8918214311469682</v>
+        <v>0.5906546290786119</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Validação</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.67488373140685</v>
+        <v>13.40530878053406</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.4254127155422928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.557624607150262</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 horas à frente</t>
+          <t>1 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.988434359412629</v>
+        <v>17.20865479529284</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4667806311407086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2333167509063592</v>
+        <v>0.4667806311407086</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6 horas à frente</t>
+          <t>6 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19.87456947849598</v>
+        <v>29.52457545254435</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5710347252978022</v>
+        <v>0.9163942640098526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6377738242135205</v>
+        <v>1.033971870378751</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 horas à frente</t>
+          <t>12 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.84818794562885</v>
+        <v>24.67861198793459</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7921834624176162</v>
+        <v>0.8303916600458967</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8918214311469682</v>
+        <v>1.000601240551842</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>24 horas à frente - Todos os Dados</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.67488373140685</v>
+        <v>4.745074441757981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8437648774920694</v>
+        <v>0.1543456534422934</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9747555842018369</v>
+        <v>0.1835179210799815</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,17 +893,17 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.45545690063862</v>
+        <v>17.32747039874566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5444827668469049</v>
+        <v>0.5814882188282157</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3411541101599669</v>
+        <v>0.3878286213688129</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.45578313707478</v>
+        <v>18.10638746428387</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5445011663852397</v>
+        <v>0.6141183292664074</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3412521577612451</v>
+        <v>0.4072265084945526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.45480654594495</v>
+        <v>23.39634282410577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5444455419602902</v>
+        <v>0.8430884341427224</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3409498747711932</v>
+        <v>0.4817954791902914</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -971,17 +971,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.45377338075896</v>
+        <v>23.82673799478966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5443848432434659</v>
+        <v>0.8623090256089052</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3406002169493189</v>
+        <v>0.4868965324318169</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -997,17 +997,17 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.16243393177358</v>
+        <v>16.0966734516966</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4822612645872333</v>
+        <v>0.565188477457488</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3678319685874337</v>
+        <v>0.4435433544221664</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.16072840068155</v>
+        <v>17.66687383932321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4822018759115037</v>
+        <v>0.6321995454594643</v>
       </c>
       <c r="E23" t="n">
-        <v>0.367914591516281</v>
+        <v>0.4641332501287104</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.16599771259754</v>
+        <v>15.73631878000552</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4823853676029319</v>
+        <v>0.5499910262344408</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3676598902710841</v>
+        <v>0.4380441156160831</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.17218087207283</v>
+        <v>14.94191700154964</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4826008238015983</v>
+        <v>0.5167294485455165</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3673653717739667</v>
+        <v>0.4237081181521509</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.84079171786189</v>
+        <v>17.65616710798431</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5790291765588573</v>
+        <v>0.5715653401610805</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3692010211561609</v>
+        <v>0.359990786468386</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1127,17 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17.84330041498947</v>
+        <v>20.05187869303716</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5791303898624338</v>
+        <v>0.6695453718249962</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3693133919294655</v>
+        <v>0.4313281493663931</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1153,17 +1153,17 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.83556034656269</v>
+        <v>21.62274746852294</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5788181836003436</v>
+        <v>0.7354817399189417</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3689669050069479</v>
+        <v>0.4583706494393824</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.82661245769377</v>
+        <v>23.98380773245721</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5784574231467731</v>
+        <v>0.8368986193326071</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3685659476178204</v>
+        <v>0.4915110672607814</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1205,17 +1205,17 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.96143821323565</v>
+        <v>16.7509693649844</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5306512353804241</v>
+        <v>0.5643130587178977</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3533411866297655</v>
+        <v>0.3987923111549289</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1231,17 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.96146040756362</v>
+        <v>17.53425273326201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5306578902277878</v>
+        <v>0.5970373240021752</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3534364408266823</v>
+        <v>0.4177413383274801</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1257,17 +1257,17 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.96141087399015</v>
+        <v>22.85464530009707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5306380858106736</v>
+        <v>0.8269393034428171</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3531427729623514</v>
+        <v>0.4908497004065245</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1283,17 +1283,17 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.96143474576056</v>
+        <v>23.28512858564045</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5306182325995278</v>
+        <v>0.846140673022852</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3528030915131907</v>
+        <v>0.4958637865871715</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17.32075464006132</v>
+        <v>17.32747039874566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5812079273179459</v>
+        <v>0.5814882188282157</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3876290628168711</v>
+        <v>0.3878286213688129</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1335,17 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.79188210786948</v>
+        <v>18.10638746428387</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6430207986310216</v>
+        <v>0.6141183292664074</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4200740258090613</v>
+        <v>0.4072265084945526</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.45200131799033</v>
+        <v>23.39634282410577</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6710792562874589</v>
+        <v>0.8430884341427224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4308491971507026</v>
+        <v>0.4817954791902914</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18.03968963969176</v>
+        <v>23.82673799478966</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6113176787028349</v>
+        <v>0.8623090256089052</v>
       </c>
       <c r="E37" t="n">
-        <v>0.405833649678785</v>
+        <v>0.4868965324318169</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14.0495786445451</v>
+        <v>16.0966734516966</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4793264336497107</v>
+        <v>0.565188477457488</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3912767607493615</v>
+        <v>0.4435433544221664</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.17229121748699</v>
+        <v>17.66687383932321</v>
       </c>
       <c r="D39" t="n">
-        <v>0.484627573021197</v>
+        <v>0.6321995454594643</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4002661452449434</v>
+        <v>0.4641332501287104</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1465,17 +1465,17 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.29993046348211</v>
+        <v>15.73631878000552</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4899902057008234</v>
+        <v>0.5499910262344408</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4060503511976691</v>
+        <v>0.4380441156160831</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.20179985736322</v>
+        <v>14.94191700154964</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4858723917523559</v>
+        <v>0.5167294485455165</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4017574833038038</v>
+        <v>0.4237081181521509</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1517,17 +1517,17 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.43810826613687</v>
+        <v>17.65616710798431</v>
       </c>
       <c r="D42" t="n">
-        <v>0.562351127668055</v>
+        <v>0.5715653401610805</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3400664177098793</v>
+        <v>0.359990786468386</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.57078774105502</v>
+        <v>20.05187869303716</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5680782566544866</v>
+        <v>0.6695453718249962</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3546083810870873</v>
+        <v>0.4313281493663931</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.07884644930626</v>
+        <v>21.62274746852294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.588640617148224</v>
+        <v>0.7354817399189417</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3790032746131438</v>
+        <v>0.4583706494393824</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1595,17 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.22023275887302</v>
+        <v>23.98380773245721</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5943625304731018</v>
+        <v>0.8368986193326071</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3842066808454722</v>
+        <v>0.4915110672607814</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.74438563120429</v>
+        <v>16.7509693649844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5640388240132236</v>
+        <v>0.5643130587178977</v>
       </c>
       <c r="E46" t="n">
-        <v>0.398597542018188</v>
+        <v>0.3987923111549289</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18.22635013900527</v>
+        <v>17.53425273326201</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6261532661740931</v>
+        <v>0.5970373240021752</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4303088645935113</v>
+        <v>0.4177413383274801</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18.89604066531984</v>
+        <v>22.85464530009707</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6545588045125138</v>
+        <v>0.8269393034428171</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4408591085851558</v>
+        <v>0.4908497004065245</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1699,17 +1699,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17.46673112139993</v>
+        <v>23.28512858564045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5942093831887869</v>
+        <v>0.846140673022852</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4163796388891831</v>
+        <v>0.4958637865871715</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17.32075464006132</v>
+        <v>0.1909287232740331</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5812079273179459</v>
+        <v>0.006582724394430883</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3876290628168711</v>
+        <v>0.001941118065786682</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1751,17 +1751,17 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18.79188210786948</v>
+        <v>0.05117834476338104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6430207986310216</v>
+        <v>0.001681366788820981</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4200740258090613</v>
+        <v>0.0006215564657387187</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1777,17 +1777,17 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19.45200131799033</v>
+        <v>0.06628792615712539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6710792562874589</v>
+        <v>0.002353668589520056</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4308491971507026</v>
+        <v>0.0007639789560351453</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.03968963969176</v>
+        <v>0.1650347708157988</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6113176787028349</v>
+        <v>0.00568177420729479</v>
       </c>
       <c r="E53" t="n">
-        <v>0.405833649678785</v>
+        <v>0.001699689521807559</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14.0495786445451</v>
+        <v>0.1947927690148551</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4793264336497107</v>
+        <v>0.006749417707224819</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3912767607493615</v>
+        <v>0.002893978848490501</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1855,17 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.17229121748699</v>
+        <v>0.05433661628209265</v>
       </c>
       <c r="D55" t="n">
-        <v>0.484627573021197</v>
+        <v>0.001700307227868147</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4002661452449434</v>
+        <v>0.002079151835434995</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.29993046348211</v>
+        <v>0.07380304185904463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4899902057008234</v>
+        <v>0.002476879857396907</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4060503511976691</v>
+        <v>0.002361558733656434</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1907,17 +1907,17 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.20179985736322</v>
+        <v>0.1704518253587695</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4858723917523559</v>
+        <v>0.005836099817064839</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4017574833038038</v>
+        <v>0.003102072817920425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1933,17 +1933,17 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.43810826613687</v>
+        <v>0.1935320707704785</v>
       </c>
       <c r="D58" t="n">
-        <v>0.562351127668055</v>
+        <v>0.006482944360228397</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3400664177098793</v>
+        <v>0.001957007385978972</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17.57078774105502</v>
+        <v>0.05425410585922937</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5680782566544866</v>
+        <v>0.001739899892492096</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3546083810870873</v>
+        <v>0.0006148625712664034</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18.07884644930626</v>
+        <v>0.06373312469079177</v>
       </c>
       <c r="D60" t="n">
-        <v>0.588640617148224</v>
+        <v>0.002196307868506536</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3790032746131438</v>
+        <v>0.000703080190270103</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.22023275887302</v>
+        <v>0.1670891048834529</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5943625304731018</v>
+        <v>0.005582774652542507</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3842066808454722</v>
+        <v>0.001699183282833292</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2037,17 +2037,17 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16.74438563120429</v>
+        <v>0.1924524819698601</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5640388240132236</v>
+        <v>0.006618767444394302</v>
       </c>
       <c r="E62" t="n">
-        <v>0.398597542018188</v>
+        <v>0.002271314136153503</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2063,17 +2063,17 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18.22635013900527</v>
+        <v>0.05255649082787043</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6261532661740931</v>
+        <v>0.001695243720185905</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4303088645935113</v>
+        <v>0.001251489357997342</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2089,17 +2089,17 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18.89604066531984</v>
+        <v>0.06818497188524278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6545588045125138</v>
+        <v>0.002368605000122866</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4408591085851558</v>
+        <v>0.001438491950529089</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2115,17 +2115,17 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17.46673112139993</v>
+        <v>0.166947608231639</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5942093831887869</v>
+        <v>0.005714215927575226</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4163796388891831</v>
+        <v>0.0022156332508777</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1219819464388646</v>
+        <v>35.86478116486672</v>
       </c>
       <c r="D66" t="n">
-        <v>0.004117111994741014</v>
+        <v>1.440801468877903</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001304115405317439</v>
+        <v>2.331697543662137</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2167,17 +2167,17 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2045379837803901</v>
+        <v>65.40767422902329</v>
       </c>
       <c r="D67" t="n">
-        <v>0.007007697043591891</v>
+        <v>3.302153448468318</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002099393739351197</v>
+        <v>4.930056948954313</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2193,17 +2193,17 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.07334265805959055</v>
+        <v>71.44383912882913</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002430050271265953</v>
+        <v>3.788264917849863</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0008924454688570944</v>
+        <v>5.627799423789352</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2219,17 +2219,17 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.244364553840343</v>
+        <v>74.00603389908218</v>
       </c>
       <c r="D69" t="n">
-        <v>0.008422485241781096</v>
+        <v>4.008744308347611</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002484713329529121</v>
+        <v>5.945275135297474</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1272578378486011</v>
+        <v>15.63006414963839</v>
       </c>
       <c r="D70" t="n">
-        <v>0.004194988802696149</v>
+        <v>0.5336213325374771</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003219255486741958</v>
+        <v>1.014669816934088</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2271,17 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.2105040295337892</v>
+        <v>58.78890991943187</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007171765083207226</v>
+        <v>2.921071004919709</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003809945470370586</v>
+        <v>4.824603229451422</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2297,17 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.07977315645454003</v>
+        <v>67.79513169616828</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00247444494473111</v>
+        <v>3.613307356664339</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003321630991614327</v>
+        <v>5.923362893250148</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.2504692705586129</v>
+        <v>71.13111672710116</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008636623195806383</v>
+        <v>3.894356602234194</v>
       </c>
       <c r="E73" t="n">
-        <v>0.003969976440519688</v>
+        <v>6.371423560561456</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2349,17 +2349,17 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1257850018625566</v>
+        <v>30.30840478274837</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004127859583301443</v>
+        <v>1.12236172541569</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001306584412453891</v>
+        <v>1.899576878682017</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2375,17 +2375,17 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.208169531830339</v>
+        <v>67.13027797847523</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006926347564980296</v>
+        <v>3.32739804892262</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002112201699459599</v>
+        <v>4.891366545990034</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2401,17 +2401,17 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.07666474367377792</v>
+        <v>73.84889649400479</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002472246368709896</v>
+        <v>3.869414476389988</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0008586079665413219</v>
+        <v>5.657087747166833</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2427,17 +2427,17 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2475446054263027</v>
+        <v>76.58806803282987</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008285635109585351</v>
+        <v>4.107400728059311</v>
       </c>
       <c r="E77" t="n">
-        <v>0.002498887337457874</v>
+        <v>5.99445619419092</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2453,17 +2453,17 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1240972446979276</v>
+        <v>17.21172237740344</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004141981428262238</v>
+        <v>0.5721404045673963</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002073809009503943</v>
+        <v>1.01320142426325</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2479,17 +2479,17 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2068363338484271</v>
+        <v>60.98546069102427</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00704553264530537</v>
+        <v>2.9914174279575</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002729048474930883</v>
+        <v>4.575615634645157</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.07573703119472643</v>
+        <v>70.06705555537329</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002449276947754728</v>
+        <v>3.695268306016732</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001964543141658231</v>
+        <v>5.605508291110394</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.2466413009199175</v>
+        <v>73.40435312472719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.008467573122732743</v>
+        <v>3.979401106915236</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003009980383255729</v>
+        <v>6.023293195644247</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2557,17 +2557,17 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.74207093426751</v>
+        <v>36.25091990618305</v>
       </c>
       <c r="D82" t="n">
-        <v>1.43447282021623</v>
+        <v>1.460839969372924</v>
       </c>
       <c r="E82" t="n">
-        <v>2.323344885098487</v>
+        <v>0.6511274766811151</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>69.53395575056987</v>
+        <v>83.95678150935612</v>
       </c>
       <c r="D83" t="n">
-        <v>3.629573558836483</v>
+        <v>4.957845431679227</v>
       </c>
       <c r="E83" t="n">
-        <v>5.399663527850711</v>
+        <v>1.70943842390823</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2609,17 +2609,17 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>75.95424779982574</v>
+        <v>98.3986542621773</v>
       </c>
       <c r="D84" t="n">
-        <v>4.182511309841386</v>
+        <v>6.666871678930033</v>
       </c>
       <c r="E84" t="n">
-        <v>6.195857121386135</v>
+        <v>2.239920152931994</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2635,17 +2635,17 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>78.74299863719227</v>
+        <v>103.7855849112602</v>
       </c>
       <c r="D85" t="n">
-        <v>4.440996269297949</v>
+        <v>7.436086919536845</v>
       </c>
       <c r="E85" t="n">
-        <v>6.569078421805584</v>
+        <v>2.479440054904786</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.6216538416968</v>
+        <v>15.73990101656658</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5333303254503747</v>
+        <v>0.5374104092618642</v>
       </c>
       <c r="E86" t="n">
-        <v>1.014399807198269</v>
+        <v>0.3350789506473397</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2687,17 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>62.35142167399389</v>
+        <v>72.93184594124502</v>
       </c>
       <c r="D87" t="n">
-        <v>3.184034315776027</v>
+        <v>4.052355019599965</v>
       </c>
       <c r="E87" t="n">
-        <v>5.24104071582413</v>
+        <v>1.427948224453832</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2713,17 +2713,17 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>72.34557177747867</v>
+        <v>93.9563020897548</v>
       </c>
       <c r="D88" t="n">
-        <v>4.000339826601913</v>
+        <v>6.293335841764215</v>
       </c>
       <c r="E88" t="n">
-        <v>6.540637696450315</v>
+        <v>2.102573900188805</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2739,17 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>75.92182126388852</v>
+        <v>101.2819091085161</v>
       </c>
       <c r="D89" t="n">
-        <v>4.324488175137541</v>
+        <v>7.298930210137018</v>
       </c>
       <c r="E89" t="n">
-        <v>7.058692851631474</v>
+        <v>2.40733443898336</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2765,17 +2765,17 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.93633699771588</v>
+        <v>29.82547403698729</v>
       </c>
       <c r="D90" t="n">
-        <v>1.104981346709651</v>
+        <v>1.099891832202394</v>
       </c>
       <c r="E90" t="n">
-        <v>1.87832862259029</v>
+        <v>0.5666115913881509</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2791,17 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>71.0688183479386</v>
+        <v>84.15224094323781</v>
       </c>
       <c r="D91" t="n">
-        <v>3.638238223873252</v>
+        <v>4.823488415186618</v>
       </c>
       <c r="E91" t="n">
-        <v>5.329942588450601</v>
+        <v>1.725011963321441</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>78.2982680811472</v>
+        <v>100.1094308218557</v>
       </c>
       <c r="D92" t="n">
-        <v>4.261419635960096</v>
+        <v>6.690617197929379</v>
       </c>
       <c r="E92" t="n">
-        <v>6.213037159755331</v>
+        <v>2.324708723729225</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2843,17 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>81.26307061432787</v>
+        <v>105.9241115324454</v>
       </c>
       <c r="D93" t="n">
-        <v>4.539015234901718</v>
+        <v>7.528892676586333</v>
       </c>
       <c r="E93" t="n">
-        <v>6.607594350491413</v>
+        <v>2.594817987662482</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2869,17 +2869,17 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.18858352815261</v>
+        <v>17.28423675230141</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5713703008278254</v>
+        <v>0.5745843032453855</v>
       </c>
       <c r="E94" t="n">
-        <v>1.012406477089219</v>
+        <v>0.3083899473037413</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>64.47389203166757</v>
+        <v>74.75391995431531</v>
       </c>
       <c r="D95" t="n">
-        <v>3.250595250387957</v>
+        <v>4.098839939484217</v>
       </c>
       <c r="E95" t="n">
-        <v>4.953862570147042</v>
+        <v>1.451586022013361</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>74.56720884206011</v>
+        <v>95.85487544484238</v>
       </c>
       <c r="D96" t="n">
-        <v>4.081968954791627</v>
+        <v>6.365884742995618</v>
       </c>
       <c r="E96" t="n">
-        <v>6.17431475442427</v>
+        <v>2.151101554313277</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>GRU</t>
         </is>
       </c>
     </row>
@@ -2947,431 +2947,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>78.14052837925716</v>
+        <v>103.1721652437959</v>
       </c>
       <c r="D97" t="n">
-        <v>4.409442844918542</v>
+        <v>7.383463335253579</v>
       </c>
       <c r="E97" t="n">
-        <v>6.657137459598703</v>
+        <v>2.466831138790585</v>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>LSTM</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>1 horas à frente</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>36.17292876981041</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.45677377816929</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.6498914980606657</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>6 horas à frente</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>84.03869630860346</v>
-      </c>
-      <c r="D99" t="n">
-        <v>4.966279990925528</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.711962661243274</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>12 horas à frente</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>98.71396685917283</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.709564543741117</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.253108444396863</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>24 horas à frente</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>104.368382424632</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7.524432369915991</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.506866925082536</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>1 horas à frente</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>15.75769795244564</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.5380238446646007</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.3346500973557405</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>6 horas à frente</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>72.95262827441341</v>
-      </c>
-      <c r="D103" t="n">
-        <v>4.054159648148125</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.428232115434517</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>12 horas à frente</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>94.22708603761248</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6.327960744236548</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.112779979928838</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>24 horas à frente</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>101.8559750543742</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.384013619047846</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.432864053927482</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1 horas à frente</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>29.74085476863527</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.095933134780336</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.5655222961285605</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>6 horas à frente</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>84.20334684698022</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4.828544103608441</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.726638698207577</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>12 horas à frente</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>100.3954115521607</v>
-      </c>
-      <c r="D108" t="n">
-        <v>6.729408468754983</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.337203587263744</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>24 horas à frente</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Validação</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>106.4825572512114</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.614736234417654</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2.622500750345188</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>1 horas à frente</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Todos os Dados</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>17.29563994285053</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.5749598961757642</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.3080295528796452</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>6 horas à frente</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Todos os Dados</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>74.76909605379241</v>
-      </c>
-      <c r="D111" t="n">
-        <v>4.100125539515092</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.45177500809453</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>12 horas à frente</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Todos os Dados</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>96.11744991431425</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.399808835219934</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.161380518146661</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>GRU</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>24 horas à frente</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Todos os Dados</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>103.7349941224868</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.468030208560814</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.492844867795614</v>
-      </c>
-      <c r="F113" t="inlineStr">
         <is>
           <t>GRU</t>
         </is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 horas à frente - Treinamento</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.32374758642121</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7688601235911339</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7688601235911339</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6 horas à frente - Treinamento</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.77580129049381</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D3" t="n">
-        <v>1.118004846550716</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E3" t="n">
-        <v>1.153219578295841</v>
+        <v>0.6378155829601485</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12 horas à frente - Treinamento</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.67964349757693</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8352527958678043</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.910117116551952</v>
+        <v>0.8929105216016707</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24 horas à frente - Treinamento</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.571425941238434</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231064497056882</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2911885025421875</v>
+        <v>0.9762626006938974</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 horas à frente - Teste</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.31765953043914</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4998950077996938</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4998950077996938</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 horas à frente - Teste</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29.75237325010648</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9275206277797219</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E7" t="n">
-        <v>1.054461639867572</v>
+        <v>0.6378155829601485</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12 horas à frente - Teste</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.91451855174337</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8019740598483512</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9707863677527012</v>
+        <v>0.8929105216016707</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24 horas à frente - Teste</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.038801975609742</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1678786911565261</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1906524665254962</v>
+        <v>0.9762626006938974</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 horas à frente - Validação</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.03136821787605</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4592556194200199</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4592556194200199</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6 horas à frente - Validação</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.161351362934841</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2464326094109754</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2807440340664921</v>
+        <v>0.6378155829601485</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12 horas à frente - Validação</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.60982505874073</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5402120726403498</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5906546290786119</v>
+        <v>0.8929105216016707</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24 horas à frente - Validação</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.40530878053406</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4254127155422928</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.557624607150262</v>
+        <v>0.9762626006938974</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 horas à frente - Todos os Dados</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.20865479529284</v>
+        <v>8.927479558648725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4667806311407086</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4667806311407086</v>
+        <v>0.2316605937404645</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6 horas à frente - Todos os Dados</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.52457545254435</v>
+        <v>19.87638474985452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9163942640098526</v>
+        <v>0.571003051784147</v>
       </c>
       <c r="E15" t="n">
-        <v>1.033971870378751</v>
+        <v>0.6378155829601485</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 horas à frente - Todos os Dados</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.67861198793459</v>
+        <v>24.87790782852682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8303916600458967</v>
+        <v>0.7930250167056411</v>
       </c>
       <c r="E16" t="n">
-        <v>1.000601240551842</v>
+        <v>0.8929105216016707</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24 horas à frente - Todos os Dados</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.745074441757981</v>
+        <v>25.71636958073682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1543456534422934</v>
+        <v>0.8449712644079667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1835179210799815</v>
+        <v>0.9762626006938974</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,17 +893,17 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17.32747039874566</v>
+        <v>16.4701089157334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5814882188282157</v>
+        <v>0.544362553779174</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3878286213688129</v>
+        <v>0.3305868618788721</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18.10638746428387</v>
+        <v>16.47002212477631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6141183292664074</v>
+        <v>0.544360219600052</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4072265084945526</v>
+        <v>0.3306008722998672</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23.39634282410577</v>
+        <v>16.47091292661739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8430884341427224</v>
+        <v>0.5443843012372669</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4817954791902914</v>
+        <v>0.3304591273824778</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -971,17 +971,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.82673799478966</v>
+        <v>16.46734797036697</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8623090256089052</v>
+        <v>0.5442890598671416</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4868965324318169</v>
+        <v>0.33104513650123</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -997,17 +997,17 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16.0966734516966</v>
+        <v>14.4000739691263</v>
       </c>
       <c r="D22" t="n">
-        <v>0.565188477457488</v>
+        <v>0.4906119695629528</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4435433544221664</v>
+        <v>0.3589790195391989</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17.66687383932321</v>
+        <v>14.39968741705429</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6321995454594643</v>
+        <v>0.4905983352130507</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4641332501287104</v>
+        <v>0.3589906856047903</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15.73631878000552</v>
+        <v>14.40361426508238</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5499910262344408</v>
+        <v>0.4907368537317058</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4380441156160831</v>
+        <v>0.3588726679878595</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.94191700154964</v>
+        <v>14.38757632046699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5167294485455165</v>
+        <v>0.4901712444519303</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4237081181521509</v>
+        <v>0.3593607145795645</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.65616710798431</v>
+        <v>17.6062905258708</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5715653401610805</v>
+        <v>0.5695346956878986</v>
       </c>
       <c r="E26" t="n">
-        <v>0.359990786468386</v>
+        <v>0.3570003189236509</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1127,17 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20.05187869303716</v>
+        <v>17.60654903250192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6695453718249962</v>
+        <v>0.5695452481155924</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4313281493663931</v>
+        <v>0.3570166233487631</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1153,17 +1153,17 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21.62274746852294</v>
+        <v>17.60393765019309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7354817399189417</v>
+        <v>0.5694386447831848</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4583706494393824</v>
+        <v>0.3568516525948062</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.98380773245721</v>
+        <v>17.61479806435992</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8368986193326071</v>
+        <v>0.5698818958296467</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4915110672607814</v>
+        <v>0.3575334374907904</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1205,17 +1205,17 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.7509693649844</v>
+        <v>16.00811141404144</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5643130587178977</v>
+        <v>0.5317601364111467</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3987923111549289</v>
+        <v>0.3430803606445271</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1231,17 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.53425273326201</v>
+        <v>16.00798302799262</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5970373240021752</v>
+        <v>0.5317562159889434</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4177413383274801</v>
+        <v>0.3430939579659392</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1257,17 +1257,17 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22.85464530009707</v>
+        <v>16.00929442320692</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8269393034428171</v>
+        <v>0.5317963360039261</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4908497004065245</v>
+        <v>0.3429563932272644</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1283,17 +1283,17 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23.28512858564045</v>
+        <v>16.00400677170474</v>
       </c>
       <c r="D33" t="n">
-        <v>0.846140673022852</v>
+        <v>0.5316353600028715</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4958637865871715</v>
+        <v>0.343525132054142</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANN</t>
+          <t>Transformer</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17.32747039874566</v>
+        <v>18.22320637257929</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5814882188282157</v>
+        <v>0.6190276928291581</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3878286213688129</v>
+        <v>0.4095861585123352</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1335,17 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18.10638746428387</v>
+        <v>16.74020813130523</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6141183292664074</v>
+        <v>0.5569494849642684</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4072265084945526</v>
+        <v>0.3656630661394688</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23.39634282410577</v>
+        <v>18.96839148968768</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8430884341427224</v>
+        <v>0.6505018150653346</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4817954791902914</v>
+        <v>0.4230807807707752</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23.82673799478966</v>
+        <v>18.1298669513631</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8623090256089052</v>
+        <v>0.6151045875200873</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4868965324318169</v>
+        <v>0.4077080526973467</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16.0966734516966</v>
+        <v>14.07256595634955</v>
       </c>
       <c r="D38" t="n">
-        <v>0.565188477457488</v>
+        <v>0.4791718809940708</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4435433544221664</v>
+        <v>0.3731487171952046</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17.66687383932321</v>
+        <v>14.64986338765114</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6321995454594643</v>
+        <v>0.4994202737620468</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4641332501287104</v>
+        <v>0.3524283788269491</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1465,17 +1465,17 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15.73631878000552</v>
+        <v>14.389891298401</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5499910262344408</v>
+        <v>0.4902528720888911</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4380441156160831</v>
+        <v>0.3592894031419612</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.94191700154964</v>
+        <v>14.68535888087347</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5167294485455165</v>
+        <v>0.5006698224511418</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4237081181521509</v>
+        <v>0.351613341828225</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1517,17 +1517,17 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.65616710798431</v>
+        <v>17.94560633938095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5715653401610805</v>
+        <v>0.5778757672478995</v>
       </c>
       <c r="E42" t="n">
-        <v>0.359990786468386</v>
+        <v>0.3050528536066816</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1543,17 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20.05187869303716</v>
+        <v>17.51391273105309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6695453718249962</v>
+        <v>0.5639427363313658</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4313281493663931</v>
+        <v>0.3217022924749084</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.62274746852294</v>
+        <v>17.50016476624138</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7354817399189417</v>
+        <v>0.5651393538341686</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4583706494393824</v>
+        <v>0.348904803077099</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1595,17 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23.98380773245721</v>
+        <v>17.50128251543811</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8368986193326071</v>
+        <v>0.5651867622946215</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4915110672607814</v>
+        <v>0.3490129112277376</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16.7509693649844</v>
+        <v>17.65206373793506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5643130587178977</v>
+        <v>0.6019767140120271</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3987923111549289</v>
+        <v>0.420048566295703</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17.53425273326201</v>
+        <v>16.18915900145932</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5970373240021752</v>
+        <v>0.5408576235367329</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4177413383274801</v>
+        <v>0.3771813678756654</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22.85464530009707</v>
+        <v>18.40556216983528</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8269393034428171</v>
+        <v>0.6337320607773396</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4908497004065245</v>
+        <v>0.4332519704857571</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1699,17 +1699,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23.28512858564045</v>
+        <v>17.55793032034456</v>
       </c>
       <c r="D49" t="n">
-        <v>0.846140673022852</v>
+        <v>0.598029527043986</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4958637865871715</v>
+        <v>0.418212147340873</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>ANN</t>
         </is>
       </c>
     </row>
@@ -1725,17 +1725,17 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1909287232740331</v>
+        <v>18.22320637257929</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006582724394430883</v>
+        <v>0.6190276928291581</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001941118065786682</v>
+        <v>0.4095861585123352</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1751,17 +1751,17 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.05117834476338104</v>
+        <v>16.74020813130523</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001681366788820981</v>
+        <v>0.5569494849642684</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0006215564657387187</v>
+        <v>0.3656630661394688</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1777,17 +1777,17 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.06628792615712539</v>
+        <v>18.96839148968768</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002353668589520056</v>
+        <v>0.6505018150653346</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0007639789560351453</v>
+        <v>0.4230807807707752</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1650347708157988</v>
+        <v>18.1298669513631</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00568177420729479</v>
+        <v>0.6151045875200873</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001699689521807559</v>
+        <v>0.4077080526973467</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1947927690148551</v>
+        <v>14.07256595634955</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006749417707224819</v>
+        <v>0.4791718809940708</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002893978848490501</v>
+        <v>0.3731487171952046</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1855,17 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.05433661628209265</v>
+        <v>14.64986338765114</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001700307227868147</v>
+        <v>0.4994202737620468</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002079151835434995</v>
+        <v>0.3524283788269491</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.07380304185904463</v>
+        <v>14.389891298401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002476879857396907</v>
+        <v>0.4902528720888911</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002361558733656434</v>
+        <v>0.3592894031419612</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1907,17 +1907,17 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1704518253587695</v>
+        <v>14.68535888087347</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005836099817064839</v>
+        <v>0.5006698224511418</v>
       </c>
       <c r="E57" t="n">
-        <v>0.003102072817920425</v>
+        <v>0.351613341828225</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1933,17 +1933,17 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1935320707704785</v>
+        <v>17.94560633938095</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006482944360228397</v>
+        <v>0.5778757672478995</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001957007385978972</v>
+        <v>0.3050528536066816</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.05425410585922937</v>
+        <v>17.51391273105309</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001739899892492096</v>
+        <v>0.5639427363313658</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0006148625712664034</v>
+        <v>0.3217022924749084</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.06373312469079177</v>
+        <v>17.50016476624138</v>
       </c>
       <c r="D60" t="n">
-        <v>0.002196307868506536</v>
+        <v>0.5651393538341686</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000703080190270103</v>
+        <v>0.348904803077099</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1670891048834529</v>
+        <v>17.50128251543811</v>
       </c>
       <c r="D61" t="n">
-        <v>0.005582774652542507</v>
+        <v>0.5651867622946215</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001699183282833292</v>
+        <v>0.3490129112277376</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2037,17 +2037,17 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1924524819698601</v>
+        <v>17.65206373793506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006618767444394302</v>
+        <v>0.6019767140120271</v>
       </c>
       <c r="E62" t="n">
-        <v>0.002271314136153503</v>
+        <v>0.420048566295703</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2063,17 +2063,17 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.05255649082787043</v>
+        <v>16.18915900145932</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001695243720185905</v>
+        <v>0.5408576235367329</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001251489357997342</v>
+        <v>0.3771813678756654</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2089,17 +2089,17 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.06818497188524278</v>
+        <v>18.40556216983528</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002368605000122866</v>
+        <v>0.6337320607773396</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001438491950529089</v>
+        <v>0.4332519704857571</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2115,17 +2115,17 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.166947608231639</v>
+        <v>17.55793032034456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005714215927575226</v>
+        <v>0.598029527043986</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0022156332508777</v>
+        <v>0.418212147340873</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>CNN</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35.86478116486672</v>
+        <v>0.1151350015811855</v>
       </c>
       <c r="D66" t="n">
-        <v>1.440801468877903</v>
+        <v>0.003836557797592512</v>
       </c>
       <c r="E66" t="n">
-        <v>2.331697543662137</v>
+        <v>0.0012395144697555</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2167,17 +2167,17 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>65.40767422902329</v>
+        <v>0.05286512974316843</v>
       </c>
       <c r="D67" t="n">
-        <v>3.302153448468318</v>
+        <v>0.001659083034717157</v>
       </c>
       <c r="E67" t="n">
-        <v>4.930056948954313</v>
+        <v>0.0007280446822166233</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2193,17 +2193,17 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>71.44383912882913</v>
+        <v>0.3520356134925257</v>
       </c>
       <c r="D68" t="n">
-        <v>3.788264917849863</v>
+        <v>0.01223156432011057</v>
       </c>
       <c r="E68" t="n">
-        <v>5.627799423789352</v>
+        <v>0.0035449117389034</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2219,17 +2219,17 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>74.00603389908218</v>
+        <v>0.3547788852979181</v>
       </c>
       <c r="D69" t="n">
-        <v>4.008744308347611</v>
+        <v>0.01218331777412844</v>
       </c>
       <c r="E69" t="n">
-        <v>5.945275135297474</v>
+        <v>0.003586644254342158</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2245,17 +2245,17 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15.63006414963839</v>
+        <v>0.1185338555507958</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5336213325374771</v>
+        <v>0.003878170889050239</v>
       </c>
       <c r="E70" t="n">
-        <v>1.014669816934088</v>
+        <v>0.002926057328734439</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2271,17 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>58.78890991943187</v>
+        <v>0.05718289290088653</v>
       </c>
       <c r="D71" t="n">
-        <v>2.921071004919709</v>
+        <v>0.001646314473212933</v>
       </c>
       <c r="E71" t="n">
-        <v>4.824603229451422</v>
+        <v>0.003049294055353441</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2297,17 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>67.79513169616828</v>
+        <v>0.3574795416641355</v>
       </c>
       <c r="D72" t="n">
-        <v>3.613307356664339</v>
+        <v>0.01256671236090636</v>
       </c>
       <c r="E72" t="n">
-        <v>5.923362893250148</v>
+        <v>0.00443998849914292</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>71.13111672710116</v>
+        <v>0.3568929005194277</v>
       </c>
       <c r="D73" t="n">
-        <v>3.894356602234194</v>
+        <v>0.01243302708504793</v>
       </c>
       <c r="E73" t="n">
-        <v>6.371423560561456</v>
+        <v>0.004438368620866401</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2349,17 +2349,17 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30.30840478274837</v>
+        <v>0.1197616575196842</v>
       </c>
       <c r="D74" t="n">
-        <v>1.12236172541569</v>
+        <v>0.003879812047571928</v>
       </c>
       <c r="E74" t="n">
-        <v>1.899576878682017</v>
+        <v>0.001256321760503647</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2375,17 +2375,17 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>67.13027797847523</v>
+        <v>0.05710453386971579</v>
       </c>
       <c r="D75" t="n">
-        <v>3.32739804892262</v>
+        <v>0.001748347957912776</v>
       </c>
       <c r="E75" t="n">
-        <v>4.891366545990034</v>
+        <v>0.0007016174725138561</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2401,17 +2401,17 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>73.84889649400479</v>
+        <v>0.3545838848674477</v>
       </c>
       <c r="D76" t="n">
-        <v>3.869414476389988</v>
+        <v>0.01196949262304108</v>
       </c>
       <c r="E76" t="n">
-        <v>5.657087747166833</v>
+        <v>0.003564981068818859</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2427,17 +2427,17 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>76.58806803282987</v>
+        <v>0.3602823000712355</v>
       </c>
       <c r="D77" t="n">
-        <v>4.107400728059311</v>
+        <v>0.01201262237876957</v>
       </c>
       <c r="E77" t="n">
-        <v>5.99445619419092</v>
+        <v>0.003638167925153003</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2453,17 +2453,17 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17.21172237740344</v>
+        <v>0.1168024460701353</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5721404045673963</v>
+        <v>0.003855098072503639</v>
       </c>
       <c r="E78" t="n">
-        <v>1.01320142426325</v>
+        <v>0.001910511364512469</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2479,17 +2479,17 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>60.98546069102427</v>
+        <v>0.05475405448021585</v>
       </c>
       <c r="D79" t="n">
-        <v>2.9914174279575</v>
+        <v>0.001667748856471018</v>
       </c>
       <c r="E79" t="n">
-        <v>4.575615634645157</v>
+        <v>0.001776345538039128</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2505,17 +2505,17 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>70.06705555537329</v>
+        <v>0.3540256625782942</v>
       </c>
       <c r="D80" t="n">
-        <v>3.695268306016732</v>
+        <v>0.01229542754220576</v>
       </c>
       <c r="E80" t="n">
-        <v>5.605508291110394</v>
+        <v>0.003838055242289645</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>73.40435312472719</v>
+        <v>0.3561835910654346</v>
       </c>
       <c r="D81" t="n">
-        <v>3.979401106915236</v>
+        <v>0.01223433969187119</v>
       </c>
       <c r="E81" t="n">
-        <v>6.023293195644247</v>
+        <v>0.003868696923096002</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
     </row>
@@ -2557,17 +2557,17 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>36.25091990618305</v>
+        <v>35.225628364225</v>
       </c>
       <c r="D82" t="n">
-        <v>1.460839969372924</v>
+        <v>1.407945744289314</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6511274766811151</v>
+        <v>2.288383875651736</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>83.95678150935612</v>
+        <v>70.27627598391165</v>
       </c>
       <c r="D83" t="n">
-        <v>4.957845431679227</v>
+        <v>3.690690894947944</v>
       </c>
       <c r="E83" t="n">
-        <v>1.70943842390823</v>
+        <v>5.487469759199406</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2609,17 +2609,17 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98.3986542621773</v>
+        <v>78.67667228456638</v>
       </c>
       <c r="D84" t="n">
-        <v>6.666871678930033</v>
+        <v>4.434702665300161</v>
       </c>
       <c r="E84" t="n">
-        <v>2.239920152931994</v>
+        <v>6.559960037180923</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2635,17 +2635,17 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>103.7855849112602</v>
+        <v>85.19057626643591</v>
       </c>
       <c r="D85" t="n">
-        <v>7.436086919536845</v>
+        <v>5.086844125688926</v>
       </c>
       <c r="E85" t="n">
-        <v>2.479440054904786</v>
+        <v>7.503623814394912</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.73990101656658</v>
+        <v>15.86407998874883</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5374104092618642</v>
+        <v>0.5416848427196725</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3350789506473397</v>
+        <v>1.022334877808583</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2687,17 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>72.93184594124502</v>
+        <v>62.61509928679382</v>
       </c>
       <c r="D87" t="n">
-        <v>4.052355019599965</v>
+        <v>3.204046714423794</v>
       </c>
       <c r="E87" t="n">
-        <v>1.427948224453832</v>
+        <v>5.272814962456181</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2713,17 +2713,17 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>93.9563020897548</v>
+        <v>74.6061905122566</v>
       </c>
       <c r="D88" t="n">
-        <v>6.293335841764215</v>
+        <v>4.203093579077598</v>
       </c>
       <c r="E88" t="n">
-        <v>2.102573900188805</v>
+        <v>6.864606464152867</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2739,17 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>101.2819091085161</v>
+        <v>82.028349423915</v>
       </c>
       <c r="D89" t="n">
-        <v>7.298930210137018</v>
+        <v>4.923544503027027</v>
       </c>
       <c r="E89" t="n">
-        <v>2.40733443898336</v>
+        <v>8.018084896784824</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2765,17 +2765,17 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.82547403698729</v>
+        <v>29.29540966219687</v>
       </c>
       <c r="D90" t="n">
-        <v>1.099891832202394</v>
+        <v>1.075229285446615</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5666115913881509</v>
+        <v>1.842288762267577</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2791,17 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>84.15224094323781</v>
+        <v>71.64543438065525</v>
       </c>
       <c r="D91" t="n">
-        <v>4.823488415186618</v>
+        <v>3.68539082377092</v>
       </c>
       <c r="E91" t="n">
-        <v>1.725011963321441</v>
+        <v>5.396682644922363</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100.1094308218557</v>
+        <v>80.83093575196159</v>
       </c>
       <c r="D92" t="n">
-        <v>6.690617197929379</v>
+        <v>4.497736705258288</v>
       </c>
       <c r="E92" t="n">
-        <v>2.324708723729225</v>
+        <v>6.548965251604696</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2843,17 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>105.9241115324454</v>
+        <v>87.49196996130405</v>
       </c>
       <c r="D93" t="n">
-        <v>7.528892676586333</v>
+        <v>5.170114306202238</v>
       </c>
       <c r="E93" t="n">
-        <v>2.594817987662482</v>
+        <v>7.506606940421081</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2869,17 +2869,17 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.28423675230141</v>
+        <v>17.38761517498689</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5745843032453855</v>
+        <v>0.5780487073133177</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3083899473037413</v>
+        <v>1.017558795764339</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>74.75391995431531</v>
+        <v>64.71738575017444</v>
       </c>
       <c r="D95" t="n">
-        <v>4.098839939484217</v>
+        <v>3.269195305778615</v>
       </c>
       <c r="E95" t="n">
-        <v>1.451586022013361</v>
+        <v>4.981080721148318</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>95.85487544484238</v>
+        <v>76.78304164250895</v>
       </c>
       <c r="D96" t="n">
-        <v>6.365884742995618</v>
+        <v>4.282794734676765</v>
       </c>
       <c r="E96" t="n">
-        <v>2.151101554313277</v>
+        <v>6.470306591517953</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>LSTM</t>
         </is>
       </c>
     </row>
@@ -2947,15 +2947,431 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>103.1721652437959</v>
+        <v>84.15752454031407</v>
       </c>
       <c r="D97" t="n">
-        <v>7.383463335253579</v>
+        <v>5.006664402441896</v>
       </c>
       <c r="E97" t="n">
-        <v>2.466831138790585</v>
+        <v>7.539644490418947</v>
       </c>
       <c r="F97" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1 horas à frente</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Treinamento</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>35.92314836138604</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.443854631493882</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6462766030983026</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6 horas à frente</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Treinamento</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>83.88857913207018</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4.950707777945839</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.707200645126078</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12 horas à frente</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Treinamento</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>98.58349317111201</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.691801304258087</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.247640135053602</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>24 horas à frente</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Treinamento</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>104.3049332562212</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.514712993552187</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.503901254730116</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1 horas à frente</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>15.86042211193656</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5415505765054488</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3332428853927568</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6 horas à frente</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>72.78963782062702</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.039644818932288</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.423487903300448</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>12 horas à frente</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>94.09221634221294</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.310603149664681</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.107005538682284</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>24 horas à frente</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>101.7840268108259</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.373217639926271</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.428999713719391</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1 horas à frente</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>29.47853024442441</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.083713257113526</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5616778459300542</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6 horas à frente</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>84.05777021766421</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.813713616951602</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.721389871466379</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>12 horas à frente</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>100.2709744816782</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.712216618009553</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.331076796254749</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>24 horas à frente</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Validação</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>106.4226290803689</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.605202484072542</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.618796228925455</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1 horas à frente</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Todos os Dados</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>17.38537822188053</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5779679661036055</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.3067768950841683</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6 horas à frente</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Todos os Dados</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>74.60362588218629</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.085377661792156</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.447193000668156</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>12 horas à frente</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Todos os Dados</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>95.98099412138511</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.382114335773824</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.155810949494425</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>24 horas à frente</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Todos os Dados</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>103.6605022195578</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.456775347203537</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.489247621599488</v>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>GRU</t>
         </is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.4701089157334</v>
+        <v>16.47035526436721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.544362553779174</v>
+        <v>0.5452531758578903</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3305868618788721</v>
+        <v>0.3444904345083882</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.47002212477631</v>
+        <v>16.47262449086007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.544360219600052</v>
+        <v>0.545363709014676</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3306008722998672</v>
+        <v>0.3448861020064163</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.47091292661739</v>
+        <v>16.47017557890619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5443843012372669</v>
+        <v>0.5452443547592424</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3304591273824778</v>
+        <v>0.3444579811945852</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.46734797036697</v>
+        <v>16.46781414198387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5442890598671416</v>
+        <v>0.5451273181112358</v>
       </c>
       <c r="E21" t="n">
-        <v>0.33104513650123</v>
+        <v>0.3440134061971224</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.4000739691263</v>
+        <v>14.10998675299594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4906119695629528</v>
+        <v>0.4804459406732265</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3589790195391989</v>
+        <v>0.3706481055835016</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14.39968741705429</v>
+        <v>14.10450973666423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4905983352130507</v>
+        <v>0.4802580632500397</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3589906856047903</v>
+        <v>0.3709827117159666</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14.40361426508238</v>
+        <v>14.11044221578357</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4907368537317058</v>
+        <v>0.4804615808775925</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3588726679878595</v>
+        <v>0.3706206664695544</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.38757632046699</v>
+        <v>14.11681674330407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4901712444519303</v>
+        <v>0.4806808464219186</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3593607145795645</v>
+        <v>0.3702448700603347</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17.6062905258708</v>
+        <v>17.92851339884361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5695346956878986</v>
+        <v>0.5825698636183678</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3570003189236509</v>
+        <v>0.3730170122999152</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17.60654903250192</v>
+        <v>17.93929521851873</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5695452481155924</v>
+        <v>0.5830051242892129</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3570166233487631</v>
+        <v>0.3734685385401995</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.60393765019309</v>
+        <v>17.92763573824649</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5694386447831848</v>
+        <v>0.5825344244898265</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3568516525948062</v>
+        <v>0.3729799679286909</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.61479806435992</v>
+        <v>17.91565159304532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5698818958296467</v>
+        <v>0.5820505749289959</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3575334374907904</v>
+        <v>0.3724723556114167</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.00811141404144</v>
+        <v>15.96632630874524</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5317601364111467</v>
+        <v>0.531033691764218</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3430803606445271</v>
+        <v>0.3565829849351624</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16.00798302799262</v>
+        <v>15.96746320973572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5317562159889434</v>
+        <v>0.5311001553041262</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3430939579659392</v>
+        <v>0.356967514527337</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16.00929442320692</v>
+        <v>15.96623946892594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5317963360039261</v>
+        <v>0.5310284832122323</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3429563932272644</v>
+        <v>0.3565514458537175</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16.00400677170474</v>
+        <v>15.9651518855402</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5316353600028715</v>
+        <v>0.5309609927661396</v>
       </c>
       <c r="E33" t="n">
-        <v>0.343525132054142</v>
+        <v>0.3561194052528064</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18.22320637257929</v>
+        <v>17.15717524600906</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6190276928291581</v>
+        <v>0.574384486188074</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4095861585123352</v>
+        <v>0.3825204764997234</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16.74020813130523</v>
+        <v>16.65600069683091</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5569494849642684</v>
+        <v>0.5533988743267203</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3656630661394688</v>
+        <v>0.361062950880469</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.96839148968768</v>
+        <v>16.96282560984733</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6505018150653346</v>
+        <v>0.5662695838330573</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4230807807707752</v>
+        <v>0.3754965235489971</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18.1298669513631</v>
+        <v>16.51969147086875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6151045875200873</v>
+        <v>0.5475338157213225</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4077080526973467</v>
+        <v>0.3509865766683467</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14.07256595634955</v>
+        <v>14.93203678442511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4791718809940708</v>
+        <v>0.5093333942368159</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3731487171952046</v>
+        <v>0.3465478481608955</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>14.64986338765114</v>
+        <v>15.34460837393058</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4994202737620468</v>
+        <v>0.5237310230108366</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3524283788269491</v>
+        <v>0.3398051835958494</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.389891298401</v>
+        <v>15.15167040439937</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4902528720888911</v>
+        <v>0.5170126889557899</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3592894031419612</v>
+        <v>0.3427237647350029</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14.68535888087347</v>
+        <v>16.0035908228544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5006698224511418</v>
+        <v>0.5464730239513144</v>
       </c>
       <c r="E41" t="n">
-        <v>0.351613341828225</v>
+        <v>0.3319441164824077</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.94560633938095</v>
+        <v>18.39824377793382</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5778757672478995</v>
+        <v>0.5925875485372667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3050528536066816</v>
+        <v>0.2957177627773305</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.51391273105309</v>
+        <v>17.96213988542372</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5639427363313658</v>
+        <v>0.5784142214669726</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3217022924749084</v>
+        <v>0.3046312908358129</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17.50016476624138</v>
+        <v>17.65952422578349</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5651393538341686</v>
+        <v>0.5685864980007939</v>
       </c>
       <c r="E44" t="n">
-        <v>0.348904803077099</v>
+        <v>0.3142813666400586</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.50128251543811</v>
+        <v>17.44342416799783</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5651867622946215</v>
+        <v>0.5618588042852104</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3490129112277376</v>
+        <v>0.3285739726333122</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17.65206373793506</v>
+        <v>16.58475071864238</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6019767140120271</v>
+        <v>0.5573922350871727</v>
       </c>
       <c r="E46" t="n">
-        <v>0.420048566295703</v>
+        <v>0.3936127959069863</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.18915900145932</v>
+        <v>16.11355229009763</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5408576235367329</v>
+        <v>0.5376563170241678</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3771813678756654</v>
+        <v>0.3727022523548009</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18.40556216983528</v>
+        <v>16.39639342615428</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6337320607773396</v>
+        <v>0.5495410997523876</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4332519704857571</v>
+        <v>0.3867630563513991</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17.55793032034456</v>
+        <v>15.99936488078484</v>
       </c>
       <c r="D49" t="n">
-        <v>0.598029527043986</v>
+        <v>0.5326743577729757</v>
       </c>
       <c r="E49" t="n">
-        <v>0.418212147340873</v>
+        <v>0.3628982185534598</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18.22320637257929</v>
+        <v>17.15717524600906</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6190276928291581</v>
+        <v>0.574384486188074</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4095861585123352</v>
+        <v>0.3825204764997234</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16.74020813130523</v>
+        <v>16.65600069683091</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5569494849642684</v>
+        <v>0.5533988743267203</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3656630661394688</v>
+        <v>0.361062950880469</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.96839148968768</v>
+        <v>16.96282560984733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6505018150653346</v>
+        <v>0.5662695838330573</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4230807807707752</v>
+        <v>0.3754965235489971</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.1298669513631</v>
+        <v>16.51969147086875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6151045875200873</v>
+        <v>0.5475338157213225</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4077080526973467</v>
+        <v>0.3509865766683467</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14.07256595634955</v>
+        <v>14.93203678442511</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4791718809940708</v>
+        <v>0.5093333942368159</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3731487171952046</v>
+        <v>0.3465478481608955</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14.64986338765114</v>
+        <v>15.34460837393058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4994202737620468</v>
+        <v>0.5237310230108366</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3524283788269491</v>
+        <v>0.3398051835958494</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.389891298401</v>
+        <v>15.15167040439937</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4902528720888911</v>
+        <v>0.5170126889557899</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3592894031419612</v>
+        <v>0.3427237647350029</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14.68535888087347</v>
+        <v>16.0035908228544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5006698224511418</v>
+        <v>0.5464730239513144</v>
       </c>
       <c r="E57" t="n">
-        <v>0.351613341828225</v>
+        <v>0.3319441164824077</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.94560633938095</v>
+        <v>18.39824377793382</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5778757672478995</v>
+        <v>0.5925875485372667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3050528536066816</v>
+        <v>0.2957177627773305</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17.51391273105309</v>
+        <v>17.96213988542372</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5639427363313658</v>
+        <v>0.5784142214669726</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3217022924749084</v>
+        <v>0.3046312908358129</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17.50016476624138</v>
+        <v>17.65952422578349</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5651393538341686</v>
+        <v>0.5685864980007939</v>
       </c>
       <c r="E60" t="n">
-        <v>0.348904803077099</v>
+        <v>0.3142813666400586</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17.50128251543811</v>
+        <v>17.44342416799783</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5651867622946215</v>
+        <v>0.5618588042852104</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3490129112277376</v>
+        <v>0.3285739726333122</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17.65206373793506</v>
+        <v>16.58475071864238</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6019767140120271</v>
+        <v>0.5573922350871727</v>
       </c>
       <c r="E62" t="n">
-        <v>0.420048566295703</v>
+        <v>0.3936127959069863</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.18915900145932</v>
+        <v>16.11355229009763</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5408576235367329</v>
+        <v>0.5376563170241678</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3771813678756654</v>
+        <v>0.3727022523548009</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18.40556216983528</v>
+        <v>16.39639342615428</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6337320607773396</v>
+        <v>0.5495410997523876</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4332519704857571</v>
+        <v>0.3867630563513991</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17.55793032034456</v>
+        <v>15.99936488078484</v>
       </c>
       <c r="D65" t="n">
-        <v>0.598029527043986</v>
+        <v>0.5326743577729757</v>
       </c>
       <c r="E65" t="n">
-        <v>0.418212147340873</v>
+        <v>0.3628982185534598</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1151350015811855</v>
+        <v>0.2582587070930112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003836557797592512</v>
+        <v>0.008858467036492962</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0012395144697555</v>
+        <v>0.002621161057536423</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.05286512974316843</v>
+        <v>0.1983432661894703</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001659083034717157</v>
+        <v>0.006774801850513298</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0007280446822166233</v>
+        <v>0.002042417810377954</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.3520356134925257</v>
+        <v>0.2096406211243017</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01223156432011057</v>
+        <v>0.007138360861219584</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0035449117389034</v>
+        <v>0.002149529926014278</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.3547788852979181</v>
+        <v>0.3986605121039202</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01218331777412844</v>
+        <v>0.01372577772425283</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003586644254342158</v>
+        <v>0.004023562493470378</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1185338555507958</v>
+        <v>0.2619220127141447</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003878170889050239</v>
+        <v>0.009044884739662274</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002926057328734439</v>
+        <v>0.003704838058653116</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.05718289290088653</v>
+        <v>0.2040938317603906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001646314473212933</v>
+        <v>0.006921274859981888</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003049294055353441</v>
+        <v>0.003762016052828531</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.3574795416641355</v>
+        <v>0.2136812433630942</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01256671236090636</v>
+        <v>0.007271227204847273</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00443998849914292</v>
+        <v>0.003578185690582611</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.3568929005194277</v>
+        <v>0.4013710451820383</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01243302708504793</v>
+        <v>0.01402112825165825</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004438368620866401</v>
+        <v>0.004869926186966396</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1197616575196842</v>
+        <v>0.263217516019562</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003879812047571928</v>
+        <v>0.008776871661385662</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001256321760503647</v>
+        <v>0.002659117872833444</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.05710453386971579</v>
+        <v>0.2027035743485914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.001748347957912776</v>
+        <v>0.006728575271438493</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0007016174725138561</v>
+        <v>0.002059499952013709</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.3545838848674477</v>
+        <v>0.2147105800753512</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01196949262304108</v>
+        <v>0.007104049130356949</v>
       </c>
       <c r="E76" t="n">
-        <v>0.003564981068818859</v>
+        <v>0.002180880237737142</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.3602823000712355</v>
+        <v>0.4044328884681959</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01201262237876957</v>
+        <v>0.01352383079112815</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003638167925153003</v>
+        <v>0.004077081035735041</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1168024460701353</v>
+        <v>0.2600519930162579</v>
       </c>
       <c r="D78" t="n">
-        <v>0.003855098072503639</v>
+        <v>0.00890297362309397</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001910511364512469</v>
+        <v>0.002992541053469462</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.05475405448021585</v>
+        <v>0.2006789903716785</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001667748856471018</v>
+        <v>0.006812275587090509</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001776345538039128</v>
+        <v>0.002678786304683065</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3540256625782942</v>
+        <v>0.2115626711423508</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01229542754220576</v>
+        <v>0.007173420311775726</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003838055242289645</v>
+        <v>0.002663559953497604</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.3561835910654346</v>
+        <v>0.400281840240733</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01223433969187119</v>
+        <v>0.01378611797625691</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003868696923096002</v>
+        <v>0.004302099210731446</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.225628364225</v>
+        <v>36.55989972605578</v>
       </c>
       <c r="D82" t="n">
-        <v>1.407945744289314</v>
+        <v>1.476826172888498</v>
       </c>
       <c r="E82" t="n">
-        <v>2.288383875651736</v>
+        <v>2.379379149658434</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>70.27627598391165</v>
+        <v>76.0540874538267</v>
       </c>
       <c r="D83" t="n">
-        <v>3.690690894947944</v>
+        <v>4.191563101013825</v>
       </c>
       <c r="E83" t="n">
-        <v>5.487469759199406</v>
+        <v>6.208902856799111</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>78.67667228456638</v>
+        <v>84.04713608363656</v>
       </c>
       <c r="D84" t="n">
-        <v>4.434702665300161</v>
+        <v>4.967056710544869</v>
       </c>
       <c r="E84" t="n">
-        <v>6.559960037180923</v>
+        <v>7.330108023169332</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>85.19057626643591</v>
+        <v>86.54709409196866</v>
       </c>
       <c r="D85" t="n">
-        <v>5.086844125688926</v>
+        <v>5.232110559545485</v>
       </c>
       <c r="E85" t="n">
-        <v>7.503623814394912</v>
+        <v>7.714161280518913</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.86407998874883</v>
+        <v>15.64912955664849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5416848427196725</v>
+        <v>0.5342803053445908</v>
       </c>
       <c r="E86" t="n">
-        <v>1.022334877808583</v>
+        <v>1.015249416158094</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>62.61509928679382</v>
+        <v>67.86863662592556</v>
       </c>
       <c r="D87" t="n">
-        <v>3.204046714423794</v>
+        <v>3.619351673006036</v>
       </c>
       <c r="E87" t="n">
-        <v>5.272814962456181</v>
+        <v>5.933006779535069</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>74.6061905122566</v>
+        <v>80.39937843646852</v>
       </c>
       <c r="D88" t="n">
-        <v>4.203093579077598</v>
+        <v>4.757728558054255</v>
       </c>
       <c r="E88" t="n">
-        <v>6.864606464152867</v>
+        <v>7.752276743228586</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>82.028349423915</v>
+        <v>83.91157082075351</v>
       </c>
       <c r="D89" t="n">
-        <v>4.923544503027027</v>
+        <v>5.121015343973114</v>
       </c>
       <c r="E89" t="n">
-        <v>8.018084896784824</v>
+        <v>8.334713555225091</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.29540966219687</v>
+        <v>30.17802246841915</v>
       </c>
       <c r="D90" t="n">
-        <v>1.075229285446615</v>
+        <v>1.116261842345103</v>
       </c>
       <c r="E90" t="n">
-        <v>1.842288762267577</v>
+        <v>1.892085095214643</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>71.64543438065525</v>
+        <v>77.2229498838765</v>
       </c>
       <c r="D91" t="n">
-        <v>3.68539082377092</v>
+        <v>4.164059949514091</v>
       </c>
       <c r="E91" t="n">
-        <v>5.396682644922363</v>
+        <v>6.074788337409124</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>80.83093575196159</v>
+        <v>86.25360996988539</v>
       </c>
       <c r="D92" t="n">
-        <v>4.497736705258288</v>
+        <v>5.039073699258368</v>
       </c>
       <c r="E92" t="n">
-        <v>6.548965251604696</v>
+        <v>7.319662356571648</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>87.49196996130405</v>
+        <v>88.98941210633502</v>
       </c>
       <c r="D93" t="n">
-        <v>5.170114306202238</v>
+        <v>5.332349907170983</v>
       </c>
       <c r="E93" t="n">
-        <v>7.506606940421081</v>
+        <v>7.737935039271457</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.38761517498689</v>
+        <v>17.20746889691235</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5780487073133177</v>
+        <v>0.5720078145011268</v>
       </c>
       <c r="E94" t="n">
-        <v>1.017558795764339</v>
+        <v>1.012809942824404</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>64.71738575017444</v>
+        <v>69.87608810287578</v>
       </c>
       <c r="D95" t="n">
-        <v>3.269195305778615</v>
+        <v>3.679490031553531</v>
       </c>
       <c r="E95" t="n">
-        <v>4.981080721148318</v>
+        <v>5.582371296423568</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>76.78304164250895</v>
+        <v>82.51850849251225</v>
       </c>
       <c r="D96" t="n">
-        <v>4.282794734676765</v>
+        <v>4.837880031544928</v>
       </c>
       <c r="E96" t="n">
-        <v>6.470306591517953</v>
+        <v>7.289964887434651</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>84.15752454031407</v>
+        <v>86.03771704180701</v>
       </c>
       <c r="D97" t="n">
-        <v>5.006664402441896</v>
+        <v>5.206234758479344</v>
       </c>
       <c r="E97" t="n">
-        <v>7.539644490418947</v>
+        <v>7.83495604043638</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>35.92314836138604</v>
+        <v>36.34875318869669</v>
       </c>
       <c r="D98" t="n">
-        <v>1.443854631493882</v>
+        <v>1.465896920936962</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6462766030983026</v>
+        <v>0.6524807135720292</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>83.88857913207018</v>
+        <v>84.09769999575308</v>
       </c>
       <c r="D99" t="n">
-        <v>4.950707777945839</v>
+        <v>4.972389009422397</v>
       </c>
       <c r="E99" t="n">
-        <v>1.707200645126078</v>
+        <v>1.713821706876594</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>98.58349317111201</v>
+        <v>98.60805996345651</v>
       </c>
       <c r="D100" t="n">
-        <v>6.691801304258087</v>
+        <v>6.695145535671949</v>
       </c>
       <c r="E100" t="n">
-        <v>2.247640135053602</v>
+        <v>2.248579603375966</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>104.3049332562212</v>
+        <v>104.1017388716399</v>
       </c>
       <c r="D101" t="n">
-        <v>7.514712993552187</v>
+        <v>7.483811442062557</v>
       </c>
       <c r="E101" t="n">
-        <v>2.503901254730116</v>
+        <v>2.494162261819245</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.86042211193656</v>
+        <v>15.70856044321366</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5415505765054488</v>
+        <v>0.5363275629611938</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3332428853927568</v>
+        <v>0.3347231726710516</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>72.78963782062702</v>
+        <v>73.06034589937641</v>
       </c>
       <c r="D103" t="n">
-        <v>4.039644818932288</v>
+        <v>4.063800383083535</v>
       </c>
       <c r="E103" t="n">
-        <v>1.423487903300448</v>
+        <v>1.430357100608587</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>94.09221634221294</v>
+        <v>94.15757424472008</v>
       </c>
       <c r="D104" t="n">
-        <v>6.310603149664681</v>
+        <v>6.319118858846349</v>
       </c>
       <c r="E104" t="n">
-        <v>2.107005538682284</v>
+        <v>2.109201837176317</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>101.7840268108259</v>
+        <v>101.5966907142603</v>
       </c>
       <c r="D105" t="n">
-        <v>7.373217639926271</v>
+        <v>7.345521990452879</v>
       </c>
       <c r="E105" t="n">
-        <v>2.428999713719391</v>
+        <v>2.420208983141879</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>29.47853024442441</v>
+        <v>29.92475323531411</v>
       </c>
       <c r="D106" t="n">
-        <v>1.083713257113526</v>
+        <v>1.104483053434444</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5616778459300542</v>
+        <v>0.5677910099899411</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>84.05777021766421</v>
+        <v>84.28355433808208</v>
       </c>
       <c r="D107" t="n">
-        <v>4.813713616951602</v>
+        <v>4.836604376982243</v>
       </c>
       <c r="E107" t="n">
-        <v>1.721389871466379</v>
+        <v>1.728973170657993</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>100.2709744816782</v>
+        <v>100.3089985673473</v>
       </c>
       <c r="D108" t="n">
-        <v>6.712216618009553</v>
+        <v>6.717558909084571</v>
       </c>
       <c r="E108" t="n">
-        <v>2.331076796254749</v>
+        <v>2.333082472150286</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>106.4226290803689</v>
+        <v>106.2301120041484</v>
       </c>
       <c r="D109" t="n">
-        <v>7.605202484072542</v>
+        <v>7.575658700731497</v>
       </c>
       <c r="E109" t="n">
-        <v>2.618796228925455</v>
+        <v>2.609566526529882</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.38537822188053</v>
+        <v>17.25949869881602</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5779679661036055</v>
+        <v>0.5737521987284663</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3067768950841683</v>
+        <v>0.3085832015610178</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>74.60362588218629</v>
+        <v>74.87399166794022</v>
       </c>
       <c r="D111" t="n">
-        <v>4.085377661792156</v>
+        <v>4.109600889309943</v>
       </c>
       <c r="E111" t="n">
-        <v>1.447193000668156</v>
+        <v>1.454629395240313</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>95.98099412138511</v>
+        <v>96.04725461713934</v>
       </c>
       <c r="D112" t="n">
-        <v>6.382114335773824</v>
+        <v>6.390846928421078</v>
       </c>
       <c r="E112" t="n">
-        <v>2.155810949494425</v>
+        <v>2.158547594894934</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>103.6605022195578</v>
+        <v>103.476740963083</v>
       </c>
       <c r="D113" t="n">
-        <v>7.456775347203537</v>
+        <v>7.42922556795577</v>
       </c>
       <c r="E113" t="n">
-        <v>2.489247621599488</v>
+        <v>2.480734403261079</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18.76790553332279</v>
+        <v>25.57085718456294</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0995171070098877</v>
+        <v>0.4475958347320557</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4196582944098826</v>
+        <v>0.5076770585879955</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.36877811701569</v>
+        <v>24.40434129021229</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2001712322235107</v>
+        <v>0.3946464061737061</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4441502505358478</v>
+        <v>0.4937452897972159</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19.03633080488197</v>
+        <v>24.19344263074817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1185390949249268</v>
+        <v>0.3850748538970947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4242154459623119</v>
+        <v>0.4912445444652068</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19.62995870371939</v>
+        <v>23.76250027508626</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1570956707000732</v>
+        <v>0.3654515743255615</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4335571382498303</v>
+        <v>0.4861352637389654</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20.51988337718675</v>
+        <v>20.72638144240475</v>
       </c>
       <c r="D22" t="n">
-        <v>1.875869989395142</v>
+        <v>1.885254144668579</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4958795879274567</v>
+        <v>0.4981060031339273</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18.90030937398539</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D23" t="n">
-        <v>1.800986051559448</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4783600702730532</v>
+        <v>0.4893870586531898</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19.61674207267886</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D24" t="n">
-        <v>1.834474325180054</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4861392720028894</v>
+        <v>0.4893870586531898</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17.69200214819826</v>
+        <v>19.34316538700041</v>
       </c>
       <c r="D25" t="n">
-        <v>1.739979982376099</v>
+        <v>1.821823358535767</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4644353423399717</v>
+        <v>0.4831896565971898</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19.57195038153457</v>
+        <v>19.29487089258454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4477488994598389</v>
+        <v>0.422039270401001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4211218414868205</v>
+        <v>0.4148370111403122</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.08222271476163</v>
+        <v>22.5950090937642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.62131667137146</v>
+        <v>0.649402379989624</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4652408034340354</v>
+        <v>0.4726226916347984</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.14375013638333</v>
+        <v>24.36869610646901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7281243801116943</v>
+        <v>0.7390553951263428</v>
       </c>
       <c r="E28" t="n">
-        <v>0.49362062519849</v>
+        <v>0.4965698439099493</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.90445333704847</v>
+        <v>24.32609549250818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7163856029510498</v>
+        <v>0.7369925975799561</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4904622420117984</v>
+        <v>0.4960126990541005</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18.20200691086069</v>
+        <v>25.03048000129247</v>
       </c>
       <c r="D30" t="n">
-        <v>1.61051344871521</v>
+        <v>1.958592176437378</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4299019885824334</v>
+        <v>0.5163043680816526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19.82232612562308</v>
+        <v>23.86306340546137</v>
       </c>
       <c r="D31" t="n">
-        <v>1.711167573928833</v>
+        <v>1.905642747879028</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4538942032031291</v>
+        <v>0.502598014553144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18.47459242512189</v>
+        <v>23.65204771995229</v>
       </c>
       <c r="D32" t="n">
-        <v>1.629535436630249</v>
+        <v>1.896071195602417</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4343627962128009</v>
+        <v>0.5001387963170801</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19.07620738524527</v>
+        <v>23.22087590073025</v>
       </c>
       <c r="D33" t="n">
-        <v>1.668092012405396</v>
+        <v>1.876447916030884</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4435118802339768</v>
+        <v>0.4951154052805309</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18.76790553332279</v>
+        <v>25.57085718456294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0995171070098877</v>
+        <v>0.4475958347320557</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4196582944098826</v>
+        <v>0.5076770585879955</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20.36877811701569</v>
+        <v>24.40434129021229</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2001712322235107</v>
+        <v>0.3946464061737061</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4441502505358478</v>
+        <v>0.4937452897972159</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.03633080488197</v>
+        <v>24.19344263074817</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1185390949249268</v>
+        <v>0.3850748538970947</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4242154459623119</v>
+        <v>0.4912445444652068</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19.62995870371939</v>
+        <v>23.76250027508626</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1570956707000732</v>
+        <v>0.3654515743255615</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4335571382498303</v>
+        <v>0.4861352637389654</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20.51988337718675</v>
+        <v>20.72638144240475</v>
       </c>
       <c r="D38" t="n">
-        <v>1.875869989395142</v>
+        <v>1.885254144668579</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4958795879274567</v>
+        <v>0.4981060031339273</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18.90030937398539</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D39" t="n">
-        <v>1.800986051559448</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4783600702730532</v>
+        <v>0.4893870586531898</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.61674207267886</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D40" t="n">
-        <v>1.834474325180054</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4861392720028894</v>
+        <v>0.4893870586531898</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17.69200214819826</v>
+        <v>19.34316538700041</v>
       </c>
       <c r="D41" t="n">
-        <v>1.739979982376099</v>
+        <v>1.821823358535767</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4644353423399717</v>
+        <v>0.4831896565971898</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19.57195038153457</v>
+        <v>19.29487089258454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4477488994598389</v>
+        <v>0.422039270401001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4211218414868205</v>
+        <v>0.4148370111403122</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22.08222271476163</v>
+        <v>22.5950090937642</v>
       </c>
       <c r="D43" t="n">
-        <v>0.62131667137146</v>
+        <v>0.649402379989624</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4652408034340354</v>
+        <v>0.4726226916347984</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.14375013638333</v>
+        <v>24.36869610646901</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7281243801116943</v>
+        <v>0.7390553951263428</v>
       </c>
       <c r="E44" t="n">
-        <v>0.49362062519849</v>
+        <v>0.4965698439099493</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23.90445333704847</v>
+        <v>24.32609549250818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7163856029510498</v>
+        <v>0.7369925975799561</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4904622420117984</v>
+        <v>0.4960126990541005</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18.20200691086069</v>
+        <v>25.03048000129247</v>
       </c>
       <c r="D46" t="n">
-        <v>1.61051344871521</v>
+        <v>1.958592176437378</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4299019885824334</v>
+        <v>0.5163043680816526</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19.82232612562308</v>
+        <v>23.86306340546137</v>
       </c>
       <c r="D47" t="n">
-        <v>1.711167573928833</v>
+        <v>1.905642747879028</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4538942032031291</v>
+        <v>0.502598014553144</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18.47459242512189</v>
+        <v>23.65204771995229</v>
       </c>
       <c r="D48" t="n">
-        <v>1.629535436630249</v>
+        <v>1.896071195602417</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4343627962128009</v>
+        <v>0.5001387963170801</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19.07620738524527</v>
+        <v>23.22087590073025</v>
       </c>
       <c r="D49" t="n">
-        <v>1.668092012405396</v>
+        <v>1.876447916030884</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4435118802339768</v>
+        <v>0.4951154052805309</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23.36473680690187</v>
+        <v>21.66887444860928</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8698366673574417</v>
+        <v>0.7891394775702523</v>
       </c>
       <c r="E50" t="n">
-        <v>1.283791367103151</v>
+        <v>1.179191762834218</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>50.20210178996927</v>
+        <v>46.37560442243484</v>
       </c>
       <c r="D51" t="n">
-        <v>2.249462900838947</v>
+        <v>2.018603945593663</v>
       </c>
       <c r="E51" t="n">
-        <v>3.422293273243763</v>
+        <v>3.102338198859253</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>51.27753136727318</v>
+        <v>47.00958347803784</v>
       </c>
       <c r="D52" t="n">
-        <v>2.319078929725346</v>
+        <v>2.058198023774261</v>
       </c>
       <c r="E52" t="n">
-        <v>3.534481946613854</v>
+        <v>3.171596540666581</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>51.13102614685234</v>
+        <v>46.23469230536999</v>
       </c>
       <c r="D53" t="n">
-        <v>2.309981061076564</v>
+        <v>2.012434776169254</v>
       </c>
       <c r="E53" t="n">
-        <v>3.522377260121711</v>
+        <v>3.108679785247838</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>22.2630616798816</v>
+        <v>20.38265589895019</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8559129499246214</v>
+        <v>0.7672444679606929</v>
       </c>
       <c r="E54" t="n">
-        <v>1.396519462939626</v>
+        <v>1.267151397846634</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>47.26791871630413</v>
+        <v>43.39275398576498</v>
       </c>
       <c r="D55" t="n">
-        <v>2.153070755222122</v>
+        <v>1.921219520782458</v>
       </c>
       <c r="E55" t="n">
-        <v>3.606180713071105</v>
+        <v>3.249034203920165</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>48.27633647124097</v>
+        <v>43.96010017597122</v>
       </c>
       <c r="D56" t="n">
-        <v>2.217313219697298</v>
+        <v>1.956068949337035</v>
       </c>
       <c r="E56" t="n">
-        <v>3.719405466115329</v>
+        <v>3.315812643224894</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>48.12494662010626</v>
+        <v>43.17530325208476</v>
       </c>
       <c r="D57" t="n">
-        <v>2.207978900573724</v>
+        <v>1.910150647764313</v>
       </c>
       <c r="E57" t="n">
-        <v>3.705481921421076</v>
+        <v>3.245616048024202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.50959871167712</v>
+        <v>22.97352747052331</v>
       </c>
       <c r="D58" t="n">
-        <v>0.890430511963693</v>
+        <v>0.8173534398753449</v>
       </c>
       <c r="E58" t="n">
-        <v>1.291760467821855</v>
+        <v>1.198748843517266</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>53.00262232575853</v>
+        <v>49.21894634425978</v>
       </c>
       <c r="D59" t="n">
-        <v>2.347234972340692</v>
+        <v>2.117297582222013</v>
       </c>
       <c r="E59" t="n">
-        <v>3.507460399466073</v>
+        <v>3.193001951723991</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>54.13922341951795</v>
+        <v>49.91313282593821</v>
       </c>
       <c r="D60" t="n">
-        <v>2.421521313084518</v>
+        <v>2.161001695208388</v>
       </c>
       <c r="E60" t="n">
-        <v>3.624848269155809</v>
+        <v>3.267213972306771</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>53.9972552251978</v>
+        <v>49.14677210917831</v>
       </c>
       <c r="D61" t="n">
-        <v>2.412640658389098</v>
+        <v>2.115377007918702</v>
       </c>
       <c r="E61" t="n">
-        <v>3.613213381608049</v>
+        <v>3.205273290950763</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23.19448456054904</v>
+        <v>21.46562498717149</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8685422785994316</v>
+        <v>0.7865203007377047</v>
       </c>
       <c r="E62" t="n">
-        <v>1.308700472360103</v>
+        <v>1.199666111595038</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>49.71383997618884</v>
+        <v>45.87873608499238</v>
       </c>
       <c r="D63" t="n">
-        <v>2.234230700447847</v>
+        <v>2.003203053566136</v>
       </c>
       <c r="E63" t="n">
-        <v>3.466857435691942</v>
+        <v>3.13947990943957</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50.77772820677897</v>
+        <v>46.50115252295207</v>
       </c>
       <c r="D64" t="n">
-        <v>2.302888359405477</v>
+        <v>2.041949014517559</v>
       </c>
       <c r="E64" t="n">
-        <v>3.579545292522639</v>
+        <v>3.208492803144895</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>50.63039265340736</v>
+        <v>45.72448363090371</v>
       </c>
       <c r="D65" t="n">
-        <v>2.293749959559191</v>
+        <v>1.996158645402323</v>
       </c>
       <c r="E65" t="n">
-        <v>3.567089817764983</v>
+        <v>3.144116496053768</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.60254188733614</v>
+        <v>24.57675723387774</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9309467538747795</v>
+        <v>0.9280556448918675</v>
       </c>
       <c r="E66" t="n">
-        <v>1.36390884263904</v>
+        <v>1.360583230314488</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>58.21313883411175</v>
+        <v>58.99885863360031</v>
       </c>
       <c r="D67" t="n">
-        <v>2.772484257197652</v>
+        <v>2.826263792184096</v>
       </c>
       <c r="E67" t="n">
-        <v>4.154008242827323</v>
+        <v>4.226201169820202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>60.05532404034854</v>
+        <v>62.85202392530025</v>
       </c>
       <c r="D68" t="n">
-        <v>2.906150023031128</v>
+        <v>3.10763533599295</v>
       </c>
       <c r="E68" t="n">
-        <v>4.36400000853518</v>
+        <v>4.645360684602584</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>60.10451074850045</v>
+        <v>67.76786828761637</v>
       </c>
       <c r="D69" t="n">
-        <v>2.909830452293413</v>
+        <v>3.485301359564589</v>
       </c>
       <c r="E69" t="n">
-        <v>4.369983837058701</v>
+        <v>5.187072070732809</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23.63496878850264</v>
+        <v>23.56403777700401</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9239408406713332</v>
+        <v>0.9193928993562339</v>
       </c>
       <c r="E70" t="n">
-        <v>1.49611359052057</v>
+        <v>1.489659916769473</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>55.40705648459896</v>
+        <v>56.22879705034472</v>
       </c>
       <c r="D71" t="n">
-        <v>2.680017794212597</v>
+        <v>2.735980142527985</v>
       </c>
       <c r="E71" t="n">
-        <v>4.425598661409191</v>
+        <v>4.509816440116129</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>57.15316841218513</v>
+        <v>60.01701406616016</v>
       </c>
       <c r="D72" t="n">
-        <v>2.804609277197588</v>
+        <v>3.008930829250701</v>
       </c>
       <c r="E72" t="n">
-        <v>4.640030146921094</v>
+        <v>4.957418732083681</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>57.19874433574135</v>
+        <v>64.98801247239285</v>
       </c>
       <c r="D73" t="n">
-        <v>2.807951620045964</v>
+        <v>3.386357594867476</v>
       </c>
       <c r="E73" t="n">
-        <v>4.645977246427446</v>
+        <v>5.55720890139755</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25.54922416553845</v>
+        <v>25.5601276791697</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9415915537210955</v>
+        <v>0.9401985434576098</v>
       </c>
       <c r="E74" t="n">
-        <v>1.357401265442875</v>
+        <v>1.356233812872704</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>60.89997699592487</v>
+        <v>61.64880748211634</v>
       </c>
       <c r="D75" t="n">
-        <v>2.866737906027948</v>
+        <v>2.918302495674945</v>
       </c>
       <c r="E75" t="n">
-        <v>4.223661562268471</v>
+        <v>4.291693221276912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>62.8317818955304</v>
+        <v>65.56275121592027</v>
       </c>
       <c r="D76" t="n">
-        <v>3.008387088095272</v>
+        <v>3.206985001752583</v>
       </c>
       <c r="E76" t="n">
-        <v>4.442226690466097</v>
+        <v>4.715354252914675</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>62.88434732546692</v>
+        <v>70.43151259282374</v>
       </c>
       <c r="D77" t="n">
-        <v>3.012364590940697</v>
+        <v>3.584911833283758</v>
       </c>
       <c r="E77" t="n">
-        <v>4.448557344247582</v>
+        <v>5.249199959984766</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24.44477906383841</v>
+        <v>24.41058565105434</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9303350432348256</v>
+        <v>0.9271565738190746</v>
       </c>
       <c r="E78" t="n">
-        <v>1.391571092516586</v>
+        <v>1.387721411716319</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>57.74739513650704</v>
+        <v>58.53875766054997</v>
       </c>
       <c r="D79" t="n">
-        <v>2.757937287286922</v>
+        <v>2.812061634384569</v>
       </c>
       <c r="E79" t="n">
-        <v>4.215931490907465</v>
+        <v>4.290355116569301</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>59.57330252261248</v>
+        <v>62.38094569704582</v>
       </c>
       <c r="D80" t="n">
-        <v>2.889998203535737</v>
+        <v>3.091930230605985</v>
       </c>
       <c r="E80" t="n">
-        <v>4.427321956768384</v>
+        <v>4.715661465321454</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>59.62187891836308</v>
+        <v>67.30674612363981</v>
       </c>
       <c r="D81" t="n">
-        <v>2.893618788101156</v>
+        <v>3.469560982871853</v>
       </c>
       <c r="E81" t="n">
-        <v>4.433317411228482</v>
+        <v>5.269008189797872</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.89324421084959</v>
+        <v>36.46918885871476</v>
       </c>
       <c r="D82" t="n">
-        <v>1.442327931827057</v>
+        <v>1.472121949657294</v>
       </c>
       <c r="E82" t="n">
-        <v>0.645893287089326</v>
+        <v>0.6543154463194752</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>83.74733586266798</v>
+        <v>84.16368795198341</v>
       </c>
       <c r="D83" t="n">
-        <v>4.936161427918474</v>
+        <v>4.979188258647675</v>
       </c>
       <c r="E83" t="n">
-        <v>1.702748628133801</v>
+        <v>1.715992374113498</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98.05923258758756</v>
+        <v>98.09355643927942</v>
       </c>
       <c r="D84" t="n">
-        <v>6.621084348472876</v>
+        <v>6.625573023278958</v>
       </c>
       <c r="E84" t="n">
-        <v>2.225665079895206</v>
+        <v>2.226983111152717</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>104.8158089154355</v>
+        <v>104.5579501356124</v>
       </c>
       <c r="D85" t="n">
-        <v>7.593069140510417</v>
+        <v>7.553302030604905</v>
       </c>
       <c r="E85" t="n">
-        <v>2.528307109730696</v>
+        <v>2.515832323882148</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.84390228381969</v>
+        <v>15.69424054216561</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5409898937417456</v>
+        <v>0.5358356525967369</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3341486879625735</v>
+        <v>0.3353185564083832</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>72.76949284124197</v>
+        <v>73.29207927629001</v>
       </c>
       <c r="D87" t="n">
-        <v>4.037910715298256</v>
+        <v>4.084346875267744</v>
       </c>
       <c r="E87" t="n">
-        <v>1.423885380124653</v>
+        <v>1.437048145019796</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>93.57873458895192</v>
+        <v>93.70605356839712</v>
       </c>
       <c r="D88" t="n">
-        <v>6.245231385951671</v>
+        <v>6.261252463748297</v>
       </c>
       <c r="E88" t="n">
-        <v>2.088183991557486</v>
+        <v>2.092192733895459</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>102.1144058905565</v>
+        <v>101.8617731762936</v>
       </c>
       <c r="D89" t="n">
-        <v>7.422717364802206</v>
+        <v>7.384740048756907</v>
       </c>
       <c r="E89" t="n">
-        <v>2.444995698958306</v>
+        <v>2.432537008970626</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.43651713500517</v>
+        <v>29.98925823919237</v>
       </c>
       <c r="D90" t="n">
-        <v>1.081807863843524</v>
+        <v>1.107457798060912</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5614469451031142</v>
+        <v>0.5686251059027378</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>83.96136348430149</v>
+        <v>84.4094859571705</v>
       </c>
       <c r="D91" t="n">
-        <v>4.804167584307671</v>
+        <v>4.84928127653104</v>
       </c>
       <c r="E91" t="n">
-        <v>1.718728259043048</v>
+        <v>1.733103672371322</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>99.75262090230174</v>
+        <v>99.8184857090373</v>
       </c>
       <c r="D92" t="n">
-        <v>6.642221151931986</v>
+        <v>6.650974223626374</v>
       </c>
       <c r="E92" t="n">
-        <v>2.30905571928899</v>
+        <v>2.31180820694208</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>106.8616874242364</v>
+        <v>106.6150980006024</v>
       </c>
       <c r="D93" t="n">
-        <v>7.673753690680726</v>
+        <v>7.635196734874335</v>
       </c>
       <c r="E93" t="n">
-        <v>2.641515705325088</v>
+        <v>2.629020489526295</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.36798743083058</v>
+        <v>17.24620026914983</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5773870740942644</v>
+        <v>0.5733091557234093</v>
       </c>
       <c r="E94" t="n">
-        <v>0.307283401940251</v>
+        <v>0.3088291976052599</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>74.59438329988643</v>
+        <v>75.10971636419636</v>
       </c>
       <c r="D95" t="n">
-        <v>4.084600472903364</v>
+        <v>4.130615121132298</v>
       </c>
       <c r="E95" t="n">
-        <v>1.447311356887458</v>
+        <v>1.461210178168032</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>95.48271929153528</v>
+        <v>95.60733064989418</v>
       </c>
       <c r="D96" t="n">
-        <v>6.31793700639767</v>
+        <v>6.333852365284719</v>
       </c>
       <c r="E96" t="n">
-        <v>2.136308350683257</v>
+        <v>2.140997854345491</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>103.9840119694605</v>
+        <v>103.7303502125101</v>
       </c>
       <c r="D97" t="n">
-        <v>7.505945532898314</v>
+        <v>7.467343892882151</v>
       </c>
       <c r="E97" t="n">
-        <v>2.504954346813001</v>
+        <v>2.492704826256704</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>

--- a/Modelos em Python/todos_os_resultados_erros.xlsx
+++ b/Modelos em Python/todos_os_resultados_erros.xlsx
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25.57085718456294</v>
+        <v>23.07036297697279</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4475958347320557</v>
+        <v>0.333754301071167</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5076770585879955</v>
+        <v>0.4779341168034866</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.40434129021229</v>
+        <v>21.64914471679364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3946464061737061</v>
+        <v>0.2667243480682373</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4937452897972159</v>
+        <v>0.4608159962394317</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24.19344263074817</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3850748538970947</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4912445444652068</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.76250027508626</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3654515743255615</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4861352637389654</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20.72638144240475</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D22" t="n">
-        <v>1.885254144668579</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4981060031339273</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19.91808912497552</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D23" t="n">
-        <v>1.848340749740601</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19.91808912497552</v>
+        <v>17.50432866830874</v>
       </c>
       <c r="D24" t="n">
-        <v>1.848340749740601</v>
+        <v>1.729891538619995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4621649296437191</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19.34316538700041</v>
+        <v>16.18707368870125</v>
       </c>
       <c r="D25" t="n">
-        <v>1.821823358535767</v>
+        <v>1.651485681533813</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4831896565971898</v>
+        <v>0.4448555814162515</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19.29487089258454</v>
+        <v>20.4378593530834</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422039270401001</v>
+        <v>0.5184710025787354</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4148370111403122</v>
+        <v>0.4387629079547988</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22.5950090937642</v>
+        <v>21.72972093930105</v>
       </c>
       <c r="D27" t="n">
-        <v>0.649402379989624</v>
+        <v>0.6011979579925537</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4726226916347984</v>
+        <v>0.4599909147934512</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.36869610646901</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7390553951263428</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4965698439099493</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.32609549250818</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7369925975799561</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4960126990541005</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25.03048000129247</v>
+        <v>22.52849792020219</v>
       </c>
       <c r="D30" t="n">
-        <v>1.958592176437378</v>
+        <v>1.844750642776489</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5163043680816526</v>
+        <v>0.4870551405236328</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23.86306340546137</v>
+        <v>21.10583395935542</v>
       </c>
       <c r="D31" t="n">
-        <v>1.905642747879028</v>
+        <v>1.77772068977356</v>
       </c>
       <c r="E31" t="n">
-        <v>0.502598014553144</v>
+        <v>0.4702437097221303</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>23.65204771995229</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D32" t="n">
-        <v>1.896071195602417</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5001387963170801</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23.22087590073025</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D33" t="n">
-        <v>1.876447916030884</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4951154052805309</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25.57085718456294</v>
+        <v>23.07036297697279</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4475958347320557</v>
+        <v>0.333754301071167</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5076770585879955</v>
+        <v>0.4779341168034866</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24.40434129021229</v>
+        <v>21.64914471679364</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3946464061737061</v>
+        <v>0.2667243480682373</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4937452897972159</v>
+        <v>0.4608159962394317</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24.19344263074817</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3850748538970947</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4912445444652068</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23.76250027508626</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3654515743255615</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4861352637389654</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20.72638144240475</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D38" t="n">
-        <v>1.885254144668579</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4981060031339273</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19.91808912497552</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D39" t="n">
-        <v>1.848340749740601</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.91808912497552</v>
+        <v>17.50432866830874</v>
       </c>
       <c r="D40" t="n">
-        <v>1.848340749740601</v>
+        <v>1.729891538619995</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4621649296437191</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19.34316538700041</v>
+        <v>16.18707368870125</v>
       </c>
       <c r="D41" t="n">
-        <v>1.821823358535767</v>
+        <v>1.651485681533813</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4831896565971898</v>
+        <v>0.4448555814162515</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19.29487089258454</v>
+        <v>20.4378593530834</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422039270401001</v>
+        <v>0.5184710025787354</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4148370111403122</v>
+        <v>0.4387629079547988</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22.5950090937642</v>
+        <v>21.72972093930105</v>
       </c>
       <c r="D43" t="n">
-        <v>0.649402379989624</v>
+        <v>0.6011979579925537</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4726226916347984</v>
+        <v>0.4599909147934512</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.36869610646901</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7390553951263428</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4965698439099493</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.32609549250818</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7369925975799561</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4960126990541005</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25.03048000129247</v>
+        <v>22.52849792020219</v>
       </c>
       <c r="D46" t="n">
-        <v>1.958592176437378</v>
+        <v>1.844750642776489</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5163043680816526</v>
+        <v>0.4870551405236328</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23.86306340546137</v>
+        <v>21.10583395935542</v>
       </c>
       <c r="D47" t="n">
-        <v>1.905642747879028</v>
+        <v>1.77772068977356</v>
       </c>
       <c r="E47" t="n">
-        <v>0.502598014553144</v>
+        <v>0.4702437097221303</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23.65204771995229</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D48" t="n">
-        <v>1.896071195602417</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5001387963170801</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23.22087590073025</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D49" t="n">
-        <v>1.876447916030884</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4951154052805309</v>
+        <v>0.471260627415917</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21.66887444860928</v>
+        <v>23.24213719576251</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7891394775702523</v>
+        <v>0.8655062152556483</v>
       </c>
       <c r="E50" t="n">
-        <v>1.179191762834218</v>
+        <v>1.276974352202646</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46.37560442243484</v>
+        <v>49.9491464081308</v>
       </c>
       <c r="D51" t="n">
-        <v>2.018603945593663</v>
+        <v>2.233901063975781</v>
       </c>
       <c r="E51" t="n">
-        <v>3.102338198859253</v>
+        <v>3.401041089968618</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>47.00958347803784</v>
+        <v>50.921672073899</v>
       </c>
       <c r="D52" t="n">
-        <v>2.058198023774261</v>
+        <v>2.296777948202574</v>
       </c>
       <c r="E52" t="n">
-        <v>3.171596540666581</v>
+        <v>3.503457261524253</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>46.23469230536999</v>
+        <v>50.61818225923356</v>
       </c>
       <c r="D53" t="n">
-        <v>2.012434776169254</v>
+        <v>2.277920644494936</v>
       </c>
       <c r="E53" t="n">
-        <v>3.108679785247838</v>
+        <v>3.477697133557126</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20.38265589895019</v>
+        <v>22.17046320725271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7672444679606929</v>
+        <v>0.8524532550660653</v>
       </c>
       <c r="E54" t="n">
-        <v>1.267151397846634</v>
+        <v>1.390475261597858</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>43.39275398576498</v>
+        <v>47.00939592555671</v>
       </c>
       <c r="D55" t="n">
-        <v>1.921219520782458</v>
+        <v>2.137285076338278</v>
       </c>
       <c r="E55" t="n">
-        <v>3.249034203920165</v>
+        <v>3.582141306733691</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1881,13 +1881,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>43.96010017597122</v>
+        <v>47.91559112787208</v>
       </c>
       <c r="D56" t="n">
-        <v>1.956068949337035</v>
+        <v>2.194927720974125</v>
       </c>
       <c r="E56" t="n">
-        <v>3.315812643224894</v>
+        <v>3.68480196128</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43.17530325208476</v>
+        <v>47.60562476080082</v>
       </c>
       <c r="D57" t="n">
-        <v>1.910150647764313</v>
+        <v>2.17583668654877</v>
       </c>
       <c r="E57" t="n">
-        <v>3.245616048024202</v>
+        <v>3.655725765981864</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22.97352747052331</v>
+        <v>24.3687249098227</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8173534398753449</v>
+        <v>0.88554905669037</v>
       </c>
       <c r="E58" t="n">
-        <v>1.198748843517266</v>
+        <v>1.284269117375691</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>49.21894634425978</v>
+        <v>52.75480302971359</v>
       </c>
       <c r="D59" t="n">
-        <v>2.117297582222013</v>
+        <v>2.331882156161352</v>
       </c>
       <c r="E59" t="n">
-        <v>3.193001951723991</v>
+        <v>3.486788431938083</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>49.91313282593821</v>
+        <v>53.78776475579189</v>
       </c>
       <c r="D60" t="n">
-        <v>2.161001695208388</v>
+        <v>2.399305055834447</v>
       </c>
       <c r="E60" t="n">
-        <v>3.267213972306771</v>
+        <v>3.594359401752395</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>49.14677210917831</v>
+        <v>53.49015831099076</v>
       </c>
       <c r="D61" t="n">
-        <v>2.115377007918702</v>
+        <v>2.380662524938292</v>
       </c>
       <c r="E61" t="n">
-        <v>3.205273290950763</v>
+        <v>3.569248294464953</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21.46562498717149</v>
+        <v>23.07832766890068</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7865203007377047</v>
+        <v>0.8643959354162353</v>
       </c>
       <c r="E62" t="n">
-        <v>1.199666111595038</v>
+        <v>1.302032069043363</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45.87873608499238</v>
+        <v>49.4599332716938</v>
       </c>
       <c r="D63" t="n">
-        <v>2.003203053566136</v>
+        <v>2.21863096770107</v>
       </c>
       <c r="E63" t="n">
-        <v>3.13947990943957</v>
+        <v>3.44505948751649</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46.50115252295207</v>
+        <v>50.42101905011774</v>
       </c>
       <c r="D64" t="n">
-        <v>2.041949014517559</v>
+        <v>2.280573881586833</v>
       </c>
       <c r="E64" t="n">
-        <v>3.208492803144895</v>
+        <v>3.547807696448059</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45.72448363090371</v>
+        <v>50.11640977756953</v>
       </c>
       <c r="D65" t="n">
-        <v>1.996158645402323</v>
+        <v>2.26167652119432</v>
       </c>
       <c r="E65" t="n">
-        <v>3.144116496053768</v>
+        <v>3.521395467734218</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.57675723387774</v>
+        <v>23.38835098747538</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9280556448918675</v>
+        <v>0.8722542591948826</v>
       </c>
       <c r="E66" t="n">
-        <v>1.360583230314488</v>
+        <v>1.282269517629253</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>58.99885863360031</v>
+        <v>56.65777005970115</v>
       </c>
       <c r="D67" t="n">
-        <v>2.826263792184096</v>
+        <v>2.665814550826611</v>
       </c>
       <c r="E67" t="n">
-        <v>4.226201169820202</v>
+        <v>4.000856501685975</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>62.85202392530025</v>
+        <v>58.76465561866756</v>
       </c>
       <c r="D68" t="n">
-        <v>3.10763533599295</v>
+        <v>2.815164291969232</v>
       </c>
       <c r="E68" t="n">
-        <v>4.645360684602584</v>
+        <v>4.234394540557403</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>67.76786828761637</v>
+        <v>58.84557989275984</v>
       </c>
       <c r="D69" t="n">
-        <v>3.485301359564589</v>
+        <v>2.821043167431841</v>
       </c>
       <c r="E69" t="n">
-        <v>5.187072070732809</v>
+        <v>4.243724252321346</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23.56403777700401</v>
+        <v>22.30258925419826</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9193928993562339</v>
+        <v>0.8598711378270055</v>
       </c>
       <c r="E70" t="n">
-        <v>1.489659916769473</v>
+        <v>1.396735944284242</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>56.22879705034472</v>
+        <v>53.84416289457553</v>
       </c>
       <c r="D71" t="n">
-        <v>2.735980142527985</v>
+        <v>2.573863027201013</v>
       </c>
       <c r="E71" t="n">
-        <v>4.509816440116129</v>
+        <v>4.256845125688991</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>60.01701406616016</v>
+        <v>55.84890484596261</v>
       </c>
       <c r="D72" t="n">
-        <v>3.008930829250701</v>
+        <v>2.713717922763904</v>
       </c>
       <c r="E72" t="n">
-        <v>4.957418732083681</v>
+        <v>4.496512744209008</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64.98801247239285</v>
+        <v>55.92532321540457</v>
       </c>
       <c r="D73" t="n">
-        <v>3.386357594867476</v>
+        <v>2.719167031227284</v>
       </c>
       <c r="E73" t="n">
-        <v>5.55720890139755</v>
+        <v>4.505982851628292</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25.5601276791697</v>
+        <v>24.43583151199413</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9401985434576098</v>
+        <v>0.8880187484423967</v>
       </c>
       <c r="E74" t="n">
-        <v>1.356233812872704</v>
+        <v>1.284183739882384</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>61.64880748211634</v>
+        <v>59.34972818430971</v>
       </c>
       <c r="D75" t="n">
-        <v>2.918302495674945</v>
+        <v>2.759553758164012</v>
       </c>
       <c r="E75" t="n">
-        <v>4.291693221276912</v>
+        <v>4.072045897630004</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>65.56275121592027</v>
+        <v>61.55274179065704</v>
       </c>
       <c r="D76" t="n">
-        <v>3.206985001752583</v>
+        <v>2.917314824793614</v>
       </c>
       <c r="E76" t="n">
-        <v>4.715354252914675</v>
+        <v>4.314403456790038</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>70.43151259282374</v>
+        <v>61.63794211674993</v>
       </c>
       <c r="D77" t="n">
-        <v>3.584911833283758</v>
+        <v>2.923574681968238</v>
       </c>
       <c r="E77" t="n">
-        <v>5.249199959984766</v>
+        <v>4.324151465355181</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24.41058565105434</v>
+        <v>23.20924017736813</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9271565738190746</v>
+        <v>0.8707459968473389</v>
       </c>
       <c r="E78" t="n">
-        <v>1.387721411716319</v>
+        <v>1.306764084906003</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>58.53875766054997</v>
+        <v>56.19048552477736</v>
       </c>
       <c r="D79" t="n">
-        <v>2.812061634384569</v>
+        <v>2.651350055535816</v>
       </c>
       <c r="E79" t="n">
-        <v>4.290355116569301</v>
+        <v>4.059615282252433</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>62.38094569704582</v>
+        <v>58.28018315859478</v>
       </c>
       <c r="D80" t="n">
-        <v>3.091930230605985</v>
+        <v>2.799028673525502</v>
       </c>
       <c r="E80" t="n">
-        <v>4.715661465321454</v>
+        <v>4.294924318746209</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>67.30674612363981</v>
+        <v>58.36035418653269</v>
       </c>
       <c r="D81" t="n">
-        <v>3.469560982871853</v>
+        <v>2.804831944777669</v>
       </c>
       <c r="E81" t="n">
-        <v>5.269008189797872</v>
+        <v>4.304306853219434</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>36.46918885871476</v>
+        <v>36.10273027819454</v>
       </c>
       <c r="D82" t="n">
-        <v>1.472121949657294</v>
+        <v>1.453102665795776</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6543154463194752</v>
+        <v>0.6488502168733495</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>84.16368795198341</v>
+        <v>83.40918749756068</v>
       </c>
       <c r="D83" t="n">
-        <v>4.979188258647675</v>
+        <v>4.901238645205583</v>
       </c>
       <c r="E83" t="n">
-        <v>1.715992374113498</v>
+        <v>1.691806050442399</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98.09355643927942</v>
+        <v>97.04598114483323</v>
       </c>
       <c r="D84" t="n">
-        <v>6.625573023278958</v>
+        <v>6.486181872472003</v>
       </c>
       <c r="E84" t="n">
-        <v>2.226983111152717</v>
+        <v>2.183553441320751</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>104.5579501356124</v>
+        <v>103.1704698802965</v>
       </c>
       <c r="D85" t="n">
-        <v>7.553302030604905</v>
+        <v>7.343673170627354</v>
       </c>
       <c r="E85" t="n">
-        <v>2.515832323882148</v>
+        <v>2.450446526614508</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2661,13 +2661,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15.69424054216561</v>
+        <v>15.78022998294472</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5358356525967369</v>
+        <v>0.5387977719170888</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3353185564083832</v>
+        <v>0.3343780535035782</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2687,13 +2687,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>73.29207927629001</v>
+        <v>72.62579798635416</v>
       </c>
       <c r="D87" t="n">
-        <v>4.084346875267744</v>
+        <v>4.025062536352007</v>
       </c>
       <c r="E87" t="n">
-        <v>1.437048145019796</v>
+        <v>1.419332130834793</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>93.70605356839712</v>
+        <v>92.71103569955159</v>
       </c>
       <c r="D88" t="n">
-        <v>6.261252463748297</v>
+        <v>6.135867001723717</v>
       </c>
       <c r="E88" t="n">
-        <v>2.092192733895459</v>
+        <v>2.054198053528142</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>101.8617731762936</v>
+        <v>100.4665128245579</v>
       </c>
       <c r="D89" t="n">
-        <v>7.384740048756907</v>
+        <v>7.179425597565015</v>
       </c>
       <c r="E89" t="n">
-        <v>2.432537008970626</v>
+        <v>2.370108734382464</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>29.98925823919237</v>
+        <v>29.65945630388209</v>
       </c>
       <c r="D90" t="n">
-        <v>1.107457798060912</v>
+        <v>1.092108920793654</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5686251059027378</v>
+        <v>0.5643203723589695</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>84.4094859571705</v>
+        <v>83.68753324958075</v>
       </c>
       <c r="D91" t="n">
-        <v>4.84928127653104</v>
+        <v>4.776581210697421</v>
       </c>
       <c r="E91" t="n">
-        <v>1.733103672371322</v>
+        <v>1.709824905626678</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>99.8184857090373</v>
+        <v>98.80187238628524</v>
       </c>
       <c r="D92" t="n">
-        <v>6.650974223626374</v>
+        <v>6.51510248260016</v>
       </c>
       <c r="E92" t="n">
-        <v>2.31180820694208</v>
+        <v>2.268022092216483</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>106.6150980006024</v>
+        <v>105.2474459512193</v>
       </c>
       <c r="D93" t="n">
-        <v>7.635196734874335</v>
+        <v>7.425706353422772</v>
       </c>
       <c r="E93" t="n">
-        <v>2.629020489526295</v>
+        <v>2.561387763605258</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2869,13 +2869,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.24620026914983</v>
+        <v>17.31950436219163</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5733091557234093</v>
+        <v>0.5757628529260398</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3088291976052599</v>
+        <v>0.307753104279438</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>75.10971636419636</v>
+        <v>74.45466632699608</v>
       </c>
       <c r="D95" t="n">
-        <v>4.130615121132298</v>
+        <v>4.072078811803945</v>
       </c>
       <c r="E95" t="n">
-        <v>1.461210178168032</v>
+        <v>1.443199309140231</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>95.60733064989418</v>
+        <v>94.62806273186627</v>
       </c>
       <c r="D96" t="n">
-        <v>6.333852365284719</v>
+        <v>6.209021196444549</v>
       </c>
       <c r="E96" t="n">
-        <v>2.140997854345491</v>
+        <v>2.102237195747287</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>103.7303502125101</v>
+        <v>102.3555089074154</v>
       </c>
       <c r="D97" t="n">
-        <v>7.467343892882151</v>
+        <v>7.262206043116429</v>
       </c>
       <c r="E97" t="n">
-        <v>2.492704826256704</v>
+        <v>2.428888997082572</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
